--- a/Empirical Methods/measurestailrisk.xlsx
+++ b/Empirical Methods/measurestailrisk.xlsx
@@ -92,7 +92,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -100,7 +100,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -407,19 +406,18 @@
   <dimension ref="A1:E1075"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="7"/>
-    <col min="2" max="2" width="8.83203125" style="6"/>
+    <col min="1" max="2" width="8.83203125" style="6"/>
     <col min="3" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -436,7 +434,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1926</v>
       </c>
       <c r="B2" s="6">
@@ -453,7 +451,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1926</v>
       </c>
       <c r="B3" s="6">
@@ -470,7 +468,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>1926</v>
       </c>
       <c r="B4" s="6">
@@ -487,7 +485,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>1926</v>
       </c>
       <c r="B5" s="6">
@@ -504,7 +502,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>1926</v>
       </c>
       <c r="B6" s="6">
@@ -521,7 +519,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>1927</v>
       </c>
       <c r="B7" s="6">
@@ -538,7 +536,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>1927</v>
       </c>
       <c r="B8" s="6">
@@ -555,7 +553,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>1927</v>
       </c>
       <c r="B9" s="6">
@@ -572,7 +570,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>1927</v>
       </c>
       <c r="B10" s="6">
@@ -589,7 +587,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>1927</v>
       </c>
       <c r="B11" s="6">
@@ -606,7 +604,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>1927</v>
       </c>
       <c r="B12" s="6">
@@ -623,7 +621,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>1927</v>
       </c>
       <c r="B13" s="6">
@@ -640,7 +638,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>1927</v>
       </c>
       <c r="B14" s="6">
@@ -657,7 +655,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>1927</v>
       </c>
       <c r="B15" s="6">
@@ -674,7 +672,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>1927</v>
       </c>
       <c r="B16" s="6">
@@ -691,7 +689,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>1927</v>
       </c>
       <c r="B17" s="6">
@@ -708,7 +706,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>1927</v>
       </c>
       <c r="B18" s="6">
@@ -725,7 +723,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>1928</v>
       </c>
       <c r="B19" s="6">
@@ -742,7 +740,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>1928</v>
       </c>
       <c r="B20" s="6">
@@ -759,7 +757,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>1928</v>
       </c>
       <c r="B21" s="6">
@@ -776,7 +774,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>1928</v>
       </c>
       <c r="B22" s="6">
@@ -793,7 +791,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>1928</v>
       </c>
       <c r="B23" s="6">
@@ -810,7 +808,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>1928</v>
       </c>
       <c r="B24" s="6">
@@ -827,7 +825,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>1928</v>
       </c>
       <c r="B25" s="6">
@@ -844,7 +842,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>1928</v>
       </c>
       <c r="B26" s="6">
@@ -861,7 +859,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>1928</v>
       </c>
       <c r="B27" s="6">
@@ -878,7 +876,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>1928</v>
       </c>
       <c r="B28" s="6">
@@ -895,7 +893,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>1928</v>
       </c>
       <c r="B29" s="6">
@@ -912,7 +910,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>1928</v>
       </c>
       <c r="B30" s="6">
@@ -929,7 +927,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>1929</v>
       </c>
       <c r="B31" s="6">
@@ -946,7 +944,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>1929</v>
       </c>
       <c r="B32" s="6">
@@ -963,7 +961,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>1929</v>
       </c>
       <c r="B33" s="6">
@@ -980,7 +978,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>1929</v>
       </c>
       <c r="B34" s="6">
@@ -997,7 +995,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>1929</v>
       </c>
       <c r="B35" s="6">
@@ -1014,7 +1012,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>1929</v>
       </c>
       <c r="B36" s="6">
@@ -1031,7 +1029,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>1929</v>
       </c>
       <c r="B37" s="6">
@@ -1048,7 +1046,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>1929</v>
       </c>
       <c r="B38" s="6">
@@ -1065,7 +1063,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>1929</v>
       </c>
       <c r="B39" s="6">
@@ -1082,7 +1080,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>1929</v>
       </c>
       <c r="B40" s="6">
@@ -1099,7 +1097,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>1929</v>
       </c>
       <c r="B41" s="6">
@@ -1116,7 +1114,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>1929</v>
       </c>
       <c r="B42" s="6">
@@ -1133,7 +1131,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>1930</v>
       </c>
       <c r="B43" s="6">
@@ -1150,7 +1148,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>1930</v>
       </c>
       <c r="B44" s="6">
@@ -1167,7 +1165,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>1930</v>
       </c>
       <c r="B45" s="6">
@@ -1184,7 +1182,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>1930</v>
       </c>
       <c r="B46" s="6">
@@ -1201,7 +1199,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>1930</v>
       </c>
       <c r="B47" s="6">
@@ -1218,7 +1216,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>1930</v>
       </c>
       <c r="B48" s="6">
@@ -1235,7 +1233,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>1930</v>
       </c>
       <c r="B49" s="6">
@@ -1252,7 +1250,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>1930</v>
       </c>
       <c r="B50" s="6">
@@ -1269,7 +1267,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>1930</v>
       </c>
       <c r="B51" s="6">
@@ -1286,7 +1284,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>1930</v>
       </c>
       <c r="B52" s="6">
@@ -1303,7 +1301,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>1930</v>
       </c>
       <c r="B53" s="6">
@@ -1320,7 +1318,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>1930</v>
       </c>
       <c r="B54" s="6">
@@ -1337,7 +1335,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>1931</v>
       </c>
       <c r="B55" s="6">
@@ -1354,7 +1352,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>1931</v>
       </c>
       <c r="B56" s="6">
@@ -1371,7 +1369,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>1931</v>
       </c>
       <c r="B57" s="6">
@@ -1388,7 +1386,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>1931</v>
       </c>
       <c r="B58" s="6">
@@ -1405,7 +1403,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>1931</v>
       </c>
       <c r="B59" s="6">
@@ -1422,7 +1420,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>1931</v>
       </c>
       <c r="B60" s="6">
@@ -1439,7 +1437,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>1931</v>
       </c>
       <c r="B61" s="6">
@@ -1456,7 +1454,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>1931</v>
       </c>
       <c r="B62" s="6">
@@ -1473,7 +1471,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>1931</v>
       </c>
       <c r="B63" s="6">
@@ -1490,7 +1488,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>1931</v>
       </c>
       <c r="B64" s="6">
@@ -1507,7 +1505,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>1931</v>
       </c>
       <c r="B65" s="6">
@@ -1524,7 +1522,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>1931</v>
       </c>
       <c r="B66" s="6">
@@ -1541,7 +1539,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>1932</v>
       </c>
       <c r="B67" s="6">
@@ -1558,7 +1556,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>1932</v>
       </c>
       <c r="B68" s="6">
@@ -1575,7 +1573,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>1932</v>
       </c>
       <c r="B69" s="6">
@@ -1592,7 +1590,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>1932</v>
       </c>
       <c r="B70" s="6">
@@ -1609,7 +1607,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>1932</v>
       </c>
       <c r="B71" s="6">
@@ -1626,7 +1624,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>1932</v>
       </c>
       <c r="B72" s="6">
@@ -1643,7 +1641,7 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>1932</v>
       </c>
       <c r="B73" s="6">
@@ -1660,7 +1658,7 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>1932</v>
       </c>
       <c r="B74" s="6">
@@ -1677,7 +1675,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>1932</v>
       </c>
       <c r="B75" s="6">
@@ -1694,7 +1692,7 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>1932</v>
       </c>
       <c r="B76" s="6">
@@ -1711,7 +1709,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>1932</v>
       </c>
       <c r="B77" s="6">
@@ -1728,7 +1726,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>1932</v>
       </c>
       <c r="B78" s="6">
@@ -1745,7 +1743,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>1933</v>
       </c>
       <c r="B79" s="6">
@@ -1762,7 +1760,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>1933</v>
       </c>
       <c r="B80" s="6">
@@ -1779,7 +1777,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>1933</v>
       </c>
       <c r="B81" s="6">
@@ -1796,7 +1794,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="7">
+      <c r="A82" s="6">
         <v>1933</v>
       </c>
       <c r="B82" s="6">
@@ -1813,7 +1811,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>1933</v>
       </c>
       <c r="B83" s="6">
@@ -1830,7 +1828,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="7">
+      <c r="A84" s="6">
         <v>1933</v>
       </c>
       <c r="B84" s="6">
@@ -1847,7 +1845,7 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>1933</v>
       </c>
       <c r="B85" s="6">
@@ -1864,7 +1862,7 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>1933</v>
       </c>
       <c r="B86" s="6">
@@ -1881,7 +1879,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>1933</v>
       </c>
       <c r="B87" s="6">
@@ -1898,7 +1896,7 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="7">
+      <c r="A88" s="6">
         <v>1933</v>
       </c>
       <c r="B88" s="6">
@@ -1915,7 +1913,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>1933</v>
       </c>
       <c r="B89" s="6">
@@ -1932,7 +1930,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>1933</v>
       </c>
       <c r="B90" s="6">
@@ -1949,7 +1947,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>1934</v>
       </c>
       <c r="B91" s="6">
@@ -1966,7 +1964,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>1934</v>
       </c>
       <c r="B92" s="6">
@@ -1983,7 +1981,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>1934</v>
       </c>
       <c r="B93" s="6">
@@ -2000,7 +1998,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="7">
+      <c r="A94" s="6">
         <v>1934</v>
       </c>
       <c r="B94" s="6">
@@ -2017,7 +2015,7 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>1934</v>
       </c>
       <c r="B95" s="6">
@@ -2034,7 +2032,7 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>1934</v>
       </c>
       <c r="B96" s="6">
@@ -2051,7 +2049,7 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>1934</v>
       </c>
       <c r="B97" s="6">
@@ -2068,7 +2066,7 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>1934</v>
       </c>
       <c r="B98" s="6">
@@ -2085,7 +2083,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>1934</v>
       </c>
       <c r="B99" s="6">
@@ -2102,7 +2100,7 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="7">
+      <c r="A100" s="6">
         <v>1934</v>
       </c>
       <c r="B100" s="6">
@@ -2119,7 +2117,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>1934</v>
       </c>
       <c r="B101" s="6">
@@ -2136,7 +2134,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="7">
+      <c r="A102" s="6">
         <v>1934</v>
       </c>
       <c r="B102" s="6">
@@ -2153,7 +2151,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="7">
+      <c r="A103" s="6">
         <v>1935</v>
       </c>
       <c r="B103" s="6">
@@ -2170,7 +2168,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="7">
+      <c r="A104" s="6">
         <v>1935</v>
       </c>
       <c r="B104" s="6">
@@ -2187,7 +2185,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="7">
+      <c r="A105" s="6">
         <v>1935</v>
       </c>
       <c r="B105" s="6">
@@ -2204,7 +2202,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="7">
+      <c r="A106" s="6">
         <v>1935</v>
       </c>
       <c r="B106" s="6">
@@ -2221,7 +2219,7 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="7">
+      <c r="A107" s="6">
         <v>1935</v>
       </c>
       <c r="B107" s="6">
@@ -2238,7 +2236,7 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="7">
+      <c r="A108" s="6">
         <v>1935</v>
       </c>
       <c r="B108" s="6">
@@ -2255,7 +2253,7 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="7">
+      <c r="A109" s="6">
         <v>1935</v>
       </c>
       <c r="B109" s="6">
@@ -2272,7 +2270,7 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="7">
+      <c r="A110" s="6">
         <v>1935</v>
       </c>
       <c r="B110" s="6">
@@ -2289,7 +2287,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="7">
+      <c r="A111" s="6">
         <v>1935</v>
       </c>
       <c r="B111" s="6">
@@ -2306,7 +2304,7 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="7">
+      <c r="A112" s="6">
         <v>1935</v>
       </c>
       <c r="B112" s="6">
@@ -2323,7 +2321,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="7">
+      <c r="A113" s="6">
         <v>1935</v>
       </c>
       <c r="B113" s="6">
@@ -2340,7 +2338,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="7">
+      <c r="A114" s="6">
         <v>1935</v>
       </c>
       <c r="B114" s="6">
@@ -2357,7 +2355,7 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>1936</v>
       </c>
       <c r="B115" s="6">
@@ -2374,7 +2372,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="7">
+      <c r="A116" s="6">
         <v>1936</v>
       </c>
       <c r="B116" s="6">
@@ -2391,7 +2389,7 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>1936</v>
       </c>
       <c r="B117" s="6">
@@ -2408,7 +2406,7 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="7">
+      <c r="A118" s="6">
         <v>1936</v>
       </c>
       <c r="B118" s="6">
@@ -2425,7 +2423,7 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>1936</v>
       </c>
       <c r="B119" s="6">
@@ -2442,7 +2440,7 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>1936</v>
       </c>
       <c r="B120" s="6">
@@ -2459,7 +2457,7 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="7">
+      <c r="A121" s="6">
         <v>1936</v>
       </c>
       <c r="B121" s="6">
@@ -2476,7 +2474,7 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="7">
+      <c r="A122" s="6">
         <v>1936</v>
       </c>
       <c r="B122" s="6">
@@ -2493,7 +2491,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>1936</v>
       </c>
       <c r="B123" s="6">
@@ -2510,7 +2508,7 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="7">
+      <c r="A124" s="6">
         <v>1936</v>
       </c>
       <c r="B124" s="6">
@@ -2527,7 +2525,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>1936</v>
       </c>
       <c r="B125" s="6">
@@ -2544,7 +2542,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="7">
+      <c r="A126" s="6">
         <v>1936</v>
       </c>
       <c r="B126" s="6">
@@ -2561,7 +2559,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="7">
+      <c r="A127" s="6">
         <v>1937</v>
       </c>
       <c r="B127" s="6">
@@ -2578,7 +2576,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>1937</v>
       </c>
       <c r="B128" s="6">
@@ -2595,7 +2593,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="7">
+      <c r="A129" s="6">
         <v>1937</v>
       </c>
       <c r="B129" s="6">
@@ -2612,7 +2610,7 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="7">
+      <c r="A130" s="6">
         <v>1937</v>
       </c>
       <c r="B130" s="6">
@@ -2629,7 +2627,7 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>1937</v>
       </c>
       <c r="B131" s="6">
@@ -2646,7 +2644,7 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="7">
+      <c r="A132" s="6">
         <v>1937</v>
       </c>
       <c r="B132" s="6">
@@ -2663,7 +2661,7 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="7">
+      <c r="A133" s="6">
         <v>1937</v>
       </c>
       <c r="B133" s="6">
@@ -2680,7 +2678,7 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="7">
+      <c r="A134" s="6">
         <v>1937</v>
       </c>
       <c r="B134" s="6">
@@ -2697,7 +2695,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="7">
+      <c r="A135" s="6">
         <v>1937</v>
       </c>
       <c r="B135" s="6">
@@ -2714,7 +2712,7 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="7">
+      <c r="A136" s="6">
         <v>1937</v>
       </c>
       <c r="B136" s="6">
@@ -2731,7 +2729,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="7">
+      <c r="A137" s="6">
         <v>1937</v>
       </c>
       <c r="B137" s="6">
@@ -2748,7 +2746,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="7">
+      <c r="A138" s="6">
         <v>1937</v>
       </c>
       <c r="B138" s="6">
@@ -2765,7 +2763,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="7">
+      <c r="A139" s="6">
         <v>1938</v>
       </c>
       <c r="B139" s="6">
@@ -2782,7 +2780,7 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="7">
+      <c r="A140" s="6">
         <v>1938</v>
       </c>
       <c r="B140" s="6">
@@ -2799,7 +2797,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="7">
+      <c r="A141" s="6">
         <v>1938</v>
       </c>
       <c r="B141" s="6">
@@ -2816,7 +2814,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="7">
+      <c r="A142" s="6">
         <v>1938</v>
       </c>
       <c r="B142" s="6">
@@ -2833,7 +2831,7 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>1938</v>
       </c>
       <c r="B143" s="6">
@@ -2850,7 +2848,7 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="7">
+      <c r="A144" s="6">
         <v>1938</v>
       </c>
       <c r="B144" s="6">
@@ -2867,7 +2865,7 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="7">
+      <c r="A145" s="6">
         <v>1938</v>
       </c>
       <c r="B145" s="6">
@@ -2884,7 +2882,7 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="7">
+      <c r="A146" s="6">
         <v>1938</v>
       </c>
       <c r="B146" s="6">
@@ -2901,7 +2899,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="7">
+      <c r="A147" s="6">
         <v>1938</v>
       </c>
       <c r="B147" s="6">
@@ -2918,7 +2916,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="7">
+      <c r="A148" s="6">
         <v>1938</v>
       </c>
       <c r="B148" s="6">
@@ -2935,7 +2933,7 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>1938</v>
       </c>
       <c r="B149" s="6">
@@ -2952,7 +2950,7 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="7">
+      <c r="A150" s="6">
         <v>1938</v>
       </c>
       <c r="B150" s="6">
@@ -2969,7 +2967,7 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="7">
+      <c r="A151" s="6">
         <v>1939</v>
       </c>
       <c r="B151" s="6">
@@ -2986,7 +2984,7 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>1939</v>
       </c>
       <c r="B152" s="6">
@@ -3003,7 +3001,7 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>1939</v>
       </c>
       <c r="B153" s="6">
@@ -3020,7 +3018,7 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="7">
+      <c r="A154" s="6">
         <v>1939</v>
       </c>
       <c r="B154" s="6">
@@ -3037,7 +3035,7 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>1939</v>
       </c>
       <c r="B155" s="6">
@@ -3054,7 +3052,7 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="7">
+      <c r="A156" s="6">
         <v>1939</v>
       </c>
       <c r="B156" s="6">
@@ -3071,7 +3069,7 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="7">
+      <c r="A157" s="6">
         <v>1939</v>
       </c>
       <c r="B157" s="6">
@@ -3088,7 +3086,7 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="7">
+      <c r="A158" s="6">
         <v>1939</v>
       </c>
       <c r="B158" s="6">
@@ -3105,7 +3103,7 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="7">
+      <c r="A159" s="6">
         <v>1939</v>
       </c>
       <c r="B159" s="6">
@@ -3122,7 +3120,7 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="7">
+      <c r="A160" s="6">
         <v>1939</v>
       </c>
       <c r="B160" s="6">
@@ -3139,7 +3137,7 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="7">
+      <c r="A161" s="6">
         <v>1939</v>
       </c>
       <c r="B161" s="6">
@@ -3156,7 +3154,7 @@
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="7">
+      <c r="A162" s="6">
         <v>1939</v>
       </c>
       <c r="B162" s="6">
@@ -3173,7 +3171,7 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="7">
+      <c r="A163" s="6">
         <v>1940</v>
       </c>
       <c r="B163" s="6">
@@ -3190,7 +3188,7 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="7">
+      <c r="A164" s="6">
         <v>1940</v>
       </c>
       <c r="B164" s="6">
@@ -3207,7 +3205,7 @@
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="7">
+      <c r="A165" s="6">
         <v>1940</v>
       </c>
       <c r="B165" s="6">
@@ -3224,7 +3222,7 @@
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="7">
+      <c r="A166" s="6">
         <v>1940</v>
       </c>
       <c r="B166" s="6">
@@ -3241,7 +3239,7 @@
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="7">
+      <c r="A167" s="6">
         <v>1940</v>
       </c>
       <c r="B167" s="6">
@@ -3258,7 +3256,7 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="7">
+      <c r="A168" s="6">
         <v>1940</v>
       </c>
       <c r="B168" s="6">
@@ -3275,7 +3273,7 @@
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="7">
+      <c r="A169" s="6">
         <v>1940</v>
       </c>
       <c r="B169" s="6">
@@ -3292,7 +3290,7 @@
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="7">
+      <c r="A170" s="6">
         <v>1940</v>
       </c>
       <c r="B170" s="6">
@@ -3309,7 +3307,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="7">
+      <c r="A171" s="6">
         <v>1940</v>
       </c>
       <c r="B171" s="6">
@@ -3326,7 +3324,7 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="7">
+      <c r="A172" s="6">
         <v>1940</v>
       </c>
       <c r="B172" s="6">
@@ -3343,7 +3341,7 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="7">
+      <c r="A173" s="6">
         <v>1940</v>
       </c>
       <c r="B173" s="6">
@@ -3360,7 +3358,7 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="7">
+      <c r="A174" s="6">
         <v>1940</v>
       </c>
       <c r="B174" s="6">
@@ -3377,7 +3375,7 @@
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="7">
+      <c r="A175" s="6">
         <v>1941</v>
       </c>
       <c r="B175" s="6">
@@ -3394,7 +3392,7 @@
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="7">
+      <c r="A176" s="6">
         <v>1941</v>
       </c>
       <c r="B176" s="6">
@@ -3411,7 +3409,7 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="7">
+      <c r="A177" s="6">
         <v>1941</v>
       </c>
       <c r="B177" s="6">
@@ -3428,7 +3426,7 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="7">
+      <c r="A178" s="6">
         <v>1941</v>
       </c>
       <c r="B178" s="6">
@@ -3445,7 +3443,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="7">
+      <c r="A179" s="6">
         <v>1941</v>
       </c>
       <c r="B179" s="6">
@@ -3462,7 +3460,7 @@
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="7">
+      <c r="A180" s="6">
         <v>1941</v>
       </c>
       <c r="B180" s="6">
@@ -3479,7 +3477,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="7">
+      <c r="A181" s="6">
         <v>1941</v>
       </c>
       <c r="B181" s="6">
@@ -3496,7 +3494,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="7">
+      <c r="A182" s="6">
         <v>1941</v>
       </c>
       <c r="B182" s="6">
@@ -3513,7 +3511,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="7">
+      <c r="A183" s="6">
         <v>1941</v>
       </c>
       <c r="B183" s="6">
@@ -3530,7 +3528,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="7">
+      <c r="A184" s="6">
         <v>1941</v>
       </c>
       <c r="B184" s="6">
@@ -3547,7 +3545,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="7">
+      <c r="A185" s="6">
         <v>1941</v>
       </c>
       <c r="B185" s="6">
@@ -3564,7 +3562,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="7">
+      <c r="A186" s="6">
         <v>1941</v>
       </c>
       <c r="B186" s="6">
@@ -3581,7 +3579,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="7">
+      <c r="A187" s="6">
         <v>1942</v>
       </c>
       <c r="B187" s="6">
@@ -3598,7 +3596,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="7">
+      <c r="A188" s="6">
         <v>1942</v>
       </c>
       <c r="B188" s="6">
@@ -3615,7 +3613,7 @@
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="7">
+      <c r="A189" s="6">
         <v>1942</v>
       </c>
       <c r="B189" s="6">
@@ -3632,7 +3630,7 @@
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="7">
+      <c r="A190" s="6">
         <v>1942</v>
       </c>
       <c r="B190" s="6">
@@ -3649,7 +3647,7 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="7">
+      <c r="A191" s="6">
         <v>1942</v>
       </c>
       <c r="B191" s="6">
@@ -3666,7 +3664,7 @@
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="7">
+      <c r="A192" s="6">
         <v>1942</v>
       </c>
       <c r="B192" s="6">
@@ -3683,7 +3681,7 @@
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="7">
+      <c r="A193" s="6">
         <v>1942</v>
       </c>
       <c r="B193" s="6">
@@ -3700,7 +3698,7 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="7">
+      <c r="A194" s="6">
         <v>1942</v>
       </c>
       <c r="B194" s="6">
@@ -3717,7 +3715,7 @@
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="7">
+      <c r="A195" s="6">
         <v>1942</v>
       </c>
       <c r="B195" s="6">
@@ -3734,7 +3732,7 @@
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="7">
+      <c r="A196" s="6">
         <v>1942</v>
       </c>
       <c r="B196" s="6">
@@ -3751,7 +3749,7 @@
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="7">
+      <c r="A197" s="6">
         <v>1942</v>
       </c>
       <c r="B197" s="6">
@@ -3768,7 +3766,7 @@
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="7">
+      <c r="A198" s="6">
         <v>1942</v>
       </c>
       <c r="B198" s="6">
@@ -3785,7 +3783,7 @@
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="7">
+      <c r="A199" s="6">
         <v>1943</v>
       </c>
       <c r="B199" s="6">
@@ -3802,7 +3800,7 @@
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="7">
+      <c r="A200" s="6">
         <v>1943</v>
       </c>
       <c r="B200" s="6">
@@ -3819,7 +3817,7 @@
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="7">
+      <c r="A201" s="6">
         <v>1943</v>
       </c>
       <c r="B201" s="6">
@@ -3836,7 +3834,7 @@
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="7">
+      <c r="A202" s="6">
         <v>1943</v>
       </c>
       <c r="B202" s="6">
@@ -3853,7 +3851,7 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="7">
+      <c r="A203" s="6">
         <v>1943</v>
       </c>
       <c r="B203" s="6">
@@ -3870,7 +3868,7 @@
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="7">
+      <c r="A204" s="6">
         <v>1943</v>
       </c>
       <c r="B204" s="6">
@@ -3887,7 +3885,7 @@
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="7">
+      <c r="A205" s="6">
         <v>1943</v>
       </c>
       <c r="B205" s="6">
@@ -3904,7 +3902,7 @@
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="7">
+      <c r="A206" s="6">
         <v>1943</v>
       </c>
       <c r="B206" s="6">
@@ -3921,7 +3919,7 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="7">
+      <c r="A207" s="6">
         <v>1943</v>
       </c>
       <c r="B207" s="6">
@@ -3938,7 +3936,7 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="7">
+      <c r="A208" s="6">
         <v>1943</v>
       </c>
       <c r="B208" s="6">
@@ -3955,7 +3953,7 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="7">
+      <c r="A209" s="6">
         <v>1943</v>
       </c>
       <c r="B209" s="6">
@@ -3972,7 +3970,7 @@
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="7">
+      <c r="A210" s="6">
         <v>1943</v>
       </c>
       <c r="B210" s="6">
@@ -3989,7 +3987,7 @@
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="7">
+      <c r="A211" s="6">
         <v>1944</v>
       </c>
       <c r="B211" s="6">
@@ -4006,7 +4004,7 @@
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="7">
+      <c r="A212" s="6">
         <v>1944</v>
       </c>
       <c r="B212" s="6">
@@ -4023,7 +4021,7 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="7">
+      <c r="A213" s="6">
         <v>1944</v>
       </c>
       <c r="B213" s="6">
@@ -4040,7 +4038,7 @@
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="7">
+      <c r="A214" s="6">
         <v>1944</v>
       </c>
       <c r="B214" s="6">
@@ -4057,7 +4055,7 @@
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="7">
+      <c r="A215" s="6">
         <v>1944</v>
       </c>
       <c r="B215" s="6">
@@ -4074,7 +4072,7 @@
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="7">
+      <c r="A216" s="6">
         <v>1944</v>
       </c>
       <c r="B216" s="6">
@@ -4091,7 +4089,7 @@
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="7">
+      <c r="A217" s="6">
         <v>1944</v>
       </c>
       <c r="B217" s="6">
@@ -4108,7 +4106,7 @@
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="7">
+      <c r="A218" s="6">
         <v>1944</v>
       </c>
       <c r="B218" s="6">
@@ -4125,7 +4123,7 @@
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="7">
+      <c r="A219" s="6">
         <v>1944</v>
       </c>
       <c r="B219" s="6">
@@ -4142,7 +4140,7 @@
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="7">
+      <c r="A220" s="6">
         <v>1944</v>
       </c>
       <c r="B220" s="6">
@@ -4159,7 +4157,7 @@
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="7">
+      <c r="A221" s="6">
         <v>1944</v>
       </c>
       <c r="B221" s="6">
@@ -4176,7 +4174,7 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="7">
+      <c r="A222" s="6">
         <v>1944</v>
       </c>
       <c r="B222" s="6">
@@ -4193,7 +4191,7 @@
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="7">
+      <c r="A223" s="6">
         <v>1945</v>
       </c>
       <c r="B223" s="6">
@@ -4210,7 +4208,7 @@
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="7">
+      <c r="A224" s="6">
         <v>1945</v>
       </c>
       <c r="B224" s="6">
@@ -4227,7 +4225,7 @@
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="7">
+      <c r="A225" s="6">
         <v>1945</v>
       </c>
       <c r="B225" s="6">
@@ -4244,7 +4242,7 @@
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="7">
+      <c r="A226" s="6">
         <v>1945</v>
       </c>
       <c r="B226" s="6">
@@ -4261,7 +4259,7 @@
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="7">
+      <c r="A227" s="6">
         <v>1945</v>
       </c>
       <c r="B227" s="6">
@@ -4278,7 +4276,7 @@
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="7">
+      <c r="A228" s="6">
         <v>1945</v>
       </c>
       <c r="B228" s="6">
@@ -4295,7 +4293,7 @@
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="7">
+      <c r="A229" s="6">
         <v>1945</v>
       </c>
       <c r="B229" s="6">
@@ -4312,7 +4310,7 @@
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="7">
+      <c r="A230" s="6">
         <v>1945</v>
       </c>
       <c r="B230" s="6">
@@ -4329,7 +4327,7 @@
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="7">
+      <c r="A231" s="6">
         <v>1945</v>
       </c>
       <c r="B231" s="6">
@@ -4346,7 +4344,7 @@
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="7">
+      <c r="A232" s="6">
         <v>1945</v>
       </c>
       <c r="B232" s="6">
@@ -4363,7 +4361,7 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="7">
+      <c r="A233" s="6">
         <v>1945</v>
       </c>
       <c r="B233" s="6">
@@ -4380,7 +4378,7 @@
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="7">
+      <c r="A234" s="6">
         <v>1945</v>
       </c>
       <c r="B234" s="6">
@@ -4397,7 +4395,7 @@
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="7">
+      <c r="A235" s="6">
         <v>1946</v>
       </c>
       <c r="B235" s="6">
@@ -4414,7 +4412,7 @@
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="7">
+      <c r="A236" s="6">
         <v>1946</v>
       </c>
       <c r="B236" s="6">
@@ -4431,7 +4429,7 @@
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="7">
+      <c r="A237" s="6">
         <v>1946</v>
       </c>
       <c r="B237" s="6">
@@ -4448,7 +4446,7 @@
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="7">
+      <c r="A238" s="6">
         <v>1946</v>
       </c>
       <c r="B238" s="6">
@@ -4465,7 +4463,7 @@
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="7">
+      <c r="A239" s="6">
         <v>1946</v>
       </c>
       <c r="B239" s="6">
@@ -4482,7 +4480,7 @@
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="7">
+      <c r="A240" s="6">
         <v>1946</v>
       </c>
       <c r="B240" s="6">
@@ -4499,7 +4497,7 @@
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="7">
+      <c r="A241" s="6">
         <v>1946</v>
       </c>
       <c r="B241" s="6">
@@ -4516,7 +4514,7 @@
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="7">
+      <c r="A242" s="6">
         <v>1946</v>
       </c>
       <c r="B242" s="6">
@@ -4533,7 +4531,7 @@
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="7">
+      <c r="A243" s="6">
         <v>1946</v>
       </c>
       <c r="B243" s="6">
@@ -4550,7 +4548,7 @@
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="7">
+      <c r="A244" s="6">
         <v>1946</v>
       </c>
       <c r="B244" s="6">
@@ -4567,7 +4565,7 @@
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="7">
+      <c r="A245" s="6">
         <v>1946</v>
       </c>
       <c r="B245" s="6">
@@ -4584,7 +4582,7 @@
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="7">
+      <c r="A246" s="6">
         <v>1946</v>
       </c>
       <c r="B246" s="6">
@@ -4601,7 +4599,7 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="7">
+      <c r="A247" s="6">
         <v>1947</v>
       </c>
       <c r="B247" s="6">
@@ -4618,7 +4616,7 @@
       </c>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="7">
+      <c r="A248" s="6">
         <v>1947</v>
       </c>
       <c r="B248" s="6">
@@ -4635,7 +4633,7 @@
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="7">
+      <c r="A249" s="6">
         <v>1947</v>
       </c>
       <c r="B249" s="6">
@@ -4652,7 +4650,7 @@
       </c>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="7">
+      <c r="A250" s="6">
         <v>1947</v>
       </c>
       <c r="B250" s="6">
@@ -4669,7 +4667,7 @@
       </c>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="7">
+      <c r="A251" s="6">
         <v>1947</v>
       </c>
       <c r="B251" s="6">
@@ -4686,7 +4684,7 @@
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="7">
+      <c r="A252" s="6">
         <v>1947</v>
       </c>
       <c r="B252" s="6">
@@ -4703,7 +4701,7 @@
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="7">
+      <c r="A253" s="6">
         <v>1947</v>
       </c>
       <c r="B253" s="6">
@@ -4720,7 +4718,7 @@
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="7">
+      <c r="A254" s="6">
         <v>1947</v>
       </c>
       <c r="B254" s="6">
@@ -4737,7 +4735,7 @@
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="7">
+      <c r="A255" s="6">
         <v>1947</v>
       </c>
       <c r="B255" s="6">
@@ -4754,7 +4752,7 @@
       </c>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="7">
+      <c r="A256" s="6">
         <v>1947</v>
       </c>
       <c r="B256" s="6">
@@ -4771,7 +4769,7 @@
       </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="7">
+      <c r="A257" s="6">
         <v>1947</v>
       </c>
       <c r="B257" s="6">
@@ -4788,7 +4786,7 @@
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="7">
+      <c r="A258" s="6">
         <v>1947</v>
       </c>
       <c r="B258" s="6">
@@ -4805,7 +4803,7 @@
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="7">
+      <c r="A259" s="6">
         <v>1948</v>
       </c>
       <c r="B259" s="6">
@@ -4822,7 +4820,7 @@
       </c>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="7">
+      <c r="A260" s="6">
         <v>1948</v>
       </c>
       <c r="B260" s="6">
@@ -4839,7 +4837,7 @@
       </c>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="7">
+      <c r="A261" s="6">
         <v>1948</v>
       </c>
       <c r="B261" s="6">
@@ -4856,7 +4854,7 @@
       </c>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="7">
+      <c r="A262" s="6">
         <v>1948</v>
       </c>
       <c r="B262" s="6">
@@ -4873,7 +4871,7 @@
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="7">
+      <c r="A263" s="6">
         <v>1948</v>
       </c>
       <c r="B263" s="6">
@@ -4890,7 +4888,7 @@
       </c>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="7">
+      <c r="A264" s="6">
         <v>1948</v>
       </c>
       <c r="B264" s="6">
@@ -4907,7 +4905,7 @@
       </c>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="7">
+      <c r="A265" s="6">
         <v>1948</v>
       </c>
       <c r="B265" s="6">
@@ -4924,7 +4922,7 @@
       </c>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="7">
+      <c r="A266" s="6">
         <v>1948</v>
       </c>
       <c r="B266" s="6">
@@ -4941,7 +4939,7 @@
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="7">
+      <c r="A267" s="6">
         <v>1948</v>
       </c>
       <c r="B267" s="6">
@@ -4958,7 +4956,7 @@
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="7">
+      <c r="A268" s="6">
         <v>1948</v>
       </c>
       <c r="B268" s="6">
@@ -4975,7 +4973,7 @@
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="7">
+      <c r="A269" s="6">
         <v>1948</v>
       </c>
       <c r="B269" s="6">
@@ -4992,7 +4990,7 @@
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="7">
+      <c r="A270" s="6">
         <v>1948</v>
       </c>
       <c r="B270" s="6">
@@ -5009,7 +5007,7 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="7">
+      <c r="A271" s="6">
         <v>1949</v>
       </c>
       <c r="B271" s="6">
@@ -5026,7 +5024,7 @@
       </c>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="7">
+      <c r="A272" s="6">
         <v>1949</v>
       </c>
       <c r="B272" s="6">
@@ -5043,7 +5041,7 @@
       </c>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="7">
+      <c r="A273" s="6">
         <v>1949</v>
       </c>
       <c r="B273" s="6">
@@ -5060,7 +5058,7 @@
       </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="7">
+      <c r="A274" s="6">
         <v>1949</v>
       </c>
       <c r="B274" s="6">
@@ -5077,7 +5075,7 @@
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="7">
+      <c r="A275" s="6">
         <v>1949</v>
       </c>
       <c r="B275" s="6">
@@ -5094,7 +5092,7 @@
       </c>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="7">
+      <c r="A276" s="6">
         <v>1949</v>
       </c>
       <c r="B276" s="6">
@@ -5111,7 +5109,7 @@
       </c>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="7">
+      <c r="A277" s="6">
         <v>1949</v>
       </c>
       <c r="B277" s="6">
@@ -5128,7 +5126,7 @@
       </c>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="7">
+      <c r="A278" s="6">
         <v>1949</v>
       </c>
       <c r="B278" s="6">
@@ -5145,7 +5143,7 @@
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="7">
+      <c r="A279" s="6">
         <v>1949</v>
       </c>
       <c r="B279" s="6">
@@ -5162,7 +5160,7 @@
       </c>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="7">
+      <c r="A280" s="6">
         <v>1949</v>
       </c>
       <c r="B280" s="6">
@@ -5179,7 +5177,7 @@
       </c>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="7">
+      <c r="A281" s="6">
         <v>1949</v>
       </c>
       <c r="B281" s="6">
@@ -5196,7 +5194,7 @@
       </c>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="7">
+      <c r="A282" s="6">
         <v>1949</v>
       </c>
       <c r="B282" s="6">
@@ -5213,7 +5211,7 @@
       </c>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="7">
+      <c r="A283" s="6">
         <v>1950</v>
       </c>
       <c r="B283" s="6">
@@ -5230,7 +5228,7 @@
       </c>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="7">
+      <c r="A284" s="6">
         <v>1950</v>
       </c>
       <c r="B284" s="6">
@@ -5247,7 +5245,7 @@
       </c>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="7">
+      <c r="A285" s="6">
         <v>1950</v>
       </c>
       <c r="B285" s="6">
@@ -5264,7 +5262,7 @@
       </c>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="7">
+      <c r="A286" s="6">
         <v>1950</v>
       </c>
       <c r="B286" s="6">
@@ -5281,7 +5279,7 @@
       </c>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="7">
+      <c r="A287" s="6">
         <v>1950</v>
       </c>
       <c r="B287" s="6">
@@ -5298,7 +5296,7 @@
       </c>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="7">
+      <c r="A288" s="6">
         <v>1950</v>
       </c>
       <c r="B288" s="6">
@@ -5315,7 +5313,7 @@
       </c>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="7">
+      <c r="A289" s="6">
         <v>1950</v>
       </c>
       <c r="B289" s="6">
@@ -5332,7 +5330,7 @@
       </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="7">
+      <c r="A290" s="6">
         <v>1950</v>
       </c>
       <c r="B290" s="6">
@@ -5349,7 +5347,7 @@
       </c>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="7">
+      <c r="A291" s="6">
         <v>1950</v>
       </c>
       <c r="B291" s="6">
@@ -5366,7 +5364,7 @@
       </c>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="7">
+      <c r="A292" s="6">
         <v>1950</v>
       </c>
       <c r="B292" s="6">
@@ -5383,7 +5381,7 @@
       </c>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="7">
+      <c r="A293" s="6">
         <v>1950</v>
       </c>
       <c r="B293" s="6">
@@ -5400,7 +5398,7 @@
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="7">
+      <c r="A294" s="6">
         <v>1950</v>
       </c>
       <c r="B294" s="6">
@@ -5417,7 +5415,7 @@
       </c>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="7">
+      <c r="A295" s="6">
         <v>1951</v>
       </c>
       <c r="B295" s="6">
@@ -5434,7 +5432,7 @@
       </c>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="7">
+      <c r="A296" s="6">
         <v>1951</v>
       </c>
       <c r="B296" s="6">
@@ -5451,7 +5449,7 @@
       </c>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="7">
+      <c r="A297" s="6">
         <v>1951</v>
       </c>
       <c r="B297" s="6">
@@ -5468,7 +5466,7 @@
       </c>
     </row>
     <row r="298" spans="1:5">
-      <c r="A298" s="7">
+      <c r="A298" s="6">
         <v>1951</v>
       </c>
       <c r="B298" s="6">
@@ -5485,7 +5483,7 @@
       </c>
     </row>
     <row r="299" spans="1:5">
-      <c r="A299" s="7">
+      <c r="A299" s="6">
         <v>1951</v>
       </c>
       <c r="B299" s="6">
@@ -5502,7 +5500,7 @@
       </c>
     </row>
     <row r="300" spans="1:5">
-      <c r="A300" s="7">
+      <c r="A300" s="6">
         <v>1951</v>
       </c>
       <c r="B300" s="6">
@@ -5519,7 +5517,7 @@
       </c>
     </row>
     <row r="301" spans="1:5">
-      <c r="A301" s="7">
+      <c r="A301" s="6">
         <v>1951</v>
       </c>
       <c r="B301" s="6">
@@ -5536,7 +5534,7 @@
       </c>
     </row>
     <row r="302" spans="1:5">
-      <c r="A302" s="7">
+      <c r="A302" s="6">
         <v>1951</v>
       </c>
       <c r="B302" s="6">
@@ -5553,7 +5551,7 @@
       </c>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303" s="7">
+      <c r="A303" s="6">
         <v>1951</v>
       </c>
       <c r="B303" s="6">
@@ -5570,7 +5568,7 @@
       </c>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304" s="7">
+      <c r="A304" s="6">
         <v>1951</v>
       </c>
       <c r="B304" s="6">
@@ -5587,7 +5585,7 @@
       </c>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305" s="7">
+      <c r="A305" s="6">
         <v>1951</v>
       </c>
       <c r="B305" s="6">
@@ -5604,7 +5602,7 @@
       </c>
     </row>
     <row r="306" spans="1:5">
-      <c r="A306" s="7">
+      <c r="A306" s="6">
         <v>1951</v>
       </c>
       <c r="B306" s="6">
@@ -5621,7 +5619,7 @@
       </c>
     </row>
     <row r="307" spans="1:5">
-      <c r="A307" s="7">
+      <c r="A307" s="6">
         <v>1952</v>
       </c>
       <c r="B307" s="6">
@@ -5638,7 +5636,7 @@
       </c>
     </row>
     <row r="308" spans="1:5">
-      <c r="A308" s="7">
+      <c r="A308" s="6">
         <v>1952</v>
       </c>
       <c r="B308" s="6">
@@ -5655,7 +5653,7 @@
       </c>
     </row>
     <row r="309" spans="1:5">
-      <c r="A309" s="7">
+      <c r="A309" s="6">
         <v>1952</v>
       </c>
       <c r="B309" s="6">
@@ -5672,7 +5670,7 @@
       </c>
     </row>
     <row r="310" spans="1:5">
-      <c r="A310" s="7">
+      <c r="A310" s="6">
         <v>1952</v>
       </c>
       <c r="B310" s="6">
@@ -5689,7 +5687,7 @@
       </c>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311" s="7">
+      <c r="A311" s="6">
         <v>1952</v>
       </c>
       <c r="B311" s="6">
@@ -5706,7 +5704,7 @@
       </c>
     </row>
     <row r="312" spans="1:5">
-      <c r="A312" s="7">
+      <c r="A312" s="6">
         <v>1952</v>
       </c>
       <c r="B312" s="6">
@@ -5723,7 +5721,7 @@
       </c>
     </row>
     <row r="313" spans="1:5">
-      <c r="A313" s="7">
+      <c r="A313" s="6">
         <v>1952</v>
       </c>
       <c r="B313" s="6">
@@ -5740,7 +5738,7 @@
       </c>
     </row>
     <row r="314" spans="1:5">
-      <c r="A314" s="7">
+      <c r="A314" s="6">
         <v>1952</v>
       </c>
       <c r="B314" s="6">
@@ -5757,7 +5755,7 @@
       </c>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315" s="7">
+      <c r="A315" s="6">
         <v>1952</v>
       </c>
       <c r="B315" s="6">
@@ -5774,7 +5772,7 @@
       </c>
     </row>
     <row r="316" spans="1:5">
-      <c r="A316" s="7">
+      <c r="A316" s="6">
         <v>1952</v>
       </c>
       <c r="B316" s="6">
@@ -5791,7 +5789,7 @@
       </c>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317" s="7">
+      <c r="A317" s="6">
         <v>1952</v>
       </c>
       <c r="B317" s="6">
@@ -5808,7 +5806,7 @@
       </c>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318" s="7">
+      <c r="A318" s="6">
         <v>1952</v>
       </c>
       <c r="B318" s="6">
@@ -5825,7 +5823,7 @@
       </c>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319" s="7">
+      <c r="A319" s="6">
         <v>1953</v>
       </c>
       <c r="B319" s="6">
@@ -5842,7 +5840,7 @@
       </c>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320" s="7">
+      <c r="A320" s="6">
         <v>1953</v>
       </c>
       <c r="B320" s="6">
@@ -5859,7 +5857,7 @@
       </c>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321" s="7">
+      <c r="A321" s="6">
         <v>1953</v>
       </c>
       <c r="B321" s="6">
@@ -5876,7 +5874,7 @@
       </c>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322" s="7">
+      <c r="A322" s="6">
         <v>1953</v>
       </c>
       <c r="B322" s="6">
@@ -5893,7 +5891,7 @@
       </c>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="7">
+      <c r="A323" s="6">
         <v>1953</v>
       </c>
       <c r="B323" s="6">
@@ -5910,7 +5908,7 @@
       </c>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324" s="7">
+      <c r="A324" s="6">
         <v>1953</v>
       </c>
       <c r="B324" s="6">
@@ -5927,7 +5925,7 @@
       </c>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325" s="7">
+      <c r="A325" s="6">
         <v>1953</v>
       </c>
       <c r="B325" s="6">
@@ -5944,7 +5942,7 @@
       </c>
     </row>
     <row r="326" spans="1:5">
-      <c r="A326" s="7">
+      <c r="A326" s="6">
         <v>1953</v>
       </c>
       <c r="B326" s="6">
@@ -5961,7 +5959,7 @@
       </c>
     </row>
     <row r="327" spans="1:5">
-      <c r="A327" s="7">
+      <c r="A327" s="6">
         <v>1953</v>
       </c>
       <c r="B327" s="6">
@@ -5978,7 +5976,7 @@
       </c>
     </row>
     <row r="328" spans="1:5">
-      <c r="A328" s="7">
+      <c r="A328" s="6">
         <v>1953</v>
       </c>
       <c r="B328" s="6">
@@ -5995,7 +5993,7 @@
       </c>
     </row>
     <row r="329" spans="1:5">
-      <c r="A329" s="7">
+      <c r="A329" s="6">
         <v>1953</v>
       </c>
       <c r="B329" s="6">
@@ -6012,7 +6010,7 @@
       </c>
     </row>
     <row r="330" spans="1:5">
-      <c r="A330" s="7">
+      <c r="A330" s="6">
         <v>1953</v>
       </c>
       <c r="B330" s="6">
@@ -6029,7 +6027,7 @@
       </c>
     </row>
     <row r="331" spans="1:5">
-      <c r="A331" s="7">
+      <c r="A331" s="6">
         <v>1954</v>
       </c>
       <c r="B331" s="6">
@@ -6046,7 +6044,7 @@
       </c>
     </row>
     <row r="332" spans="1:5">
-      <c r="A332" s="7">
+      <c r="A332" s="6">
         <v>1954</v>
       </c>
       <c r="B332" s="6">
@@ -6063,7 +6061,7 @@
       </c>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="7">
+      <c r="A333" s="6">
         <v>1954</v>
       </c>
       <c r="B333" s="6">
@@ -6080,7 +6078,7 @@
       </c>
     </row>
     <row r="334" spans="1:5">
-      <c r="A334" s="7">
+      <c r="A334" s="6">
         <v>1954</v>
       </c>
       <c r="B334" s="6">
@@ -6097,7 +6095,7 @@
       </c>
     </row>
     <row r="335" spans="1:5">
-      <c r="A335" s="7">
+      <c r="A335" s="6">
         <v>1954</v>
       </c>
       <c r="B335" s="6">
@@ -6114,7 +6112,7 @@
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="7">
+      <c r="A336" s="6">
         <v>1954</v>
       </c>
       <c r="B336" s="6">
@@ -6131,7 +6129,7 @@
       </c>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337" s="7">
+      <c r="A337" s="6">
         <v>1954</v>
       </c>
       <c r="B337" s="6">
@@ -6148,7 +6146,7 @@
       </c>
     </row>
     <row r="338" spans="1:5">
-      <c r="A338" s="7">
+      <c r="A338" s="6">
         <v>1954</v>
       </c>
       <c r="B338" s="6">
@@ -6165,7 +6163,7 @@
       </c>
     </row>
     <row r="339" spans="1:5">
-      <c r="A339" s="7">
+      <c r="A339" s="6">
         <v>1954</v>
       </c>
       <c r="B339" s="6">
@@ -6182,7 +6180,7 @@
       </c>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340" s="7">
+      <c r="A340" s="6">
         <v>1954</v>
       </c>
       <c r="B340" s="6">
@@ -6199,7 +6197,7 @@
       </c>
     </row>
     <row r="341" spans="1:5">
-      <c r="A341" s="7">
+      <c r="A341" s="6">
         <v>1954</v>
       </c>
       <c r="B341" s="6">
@@ -6216,7 +6214,7 @@
       </c>
     </row>
     <row r="342" spans="1:5">
-      <c r="A342" s="7">
+      <c r="A342" s="6">
         <v>1954</v>
       </c>
       <c r="B342" s="6">
@@ -6233,7 +6231,7 @@
       </c>
     </row>
     <row r="343" spans="1:5">
-      <c r="A343" s="7">
+      <c r="A343" s="6">
         <v>1955</v>
       </c>
       <c r="B343" s="6">
@@ -6250,7 +6248,7 @@
       </c>
     </row>
     <row r="344" spans="1:5">
-      <c r="A344" s="7">
+      <c r="A344" s="6">
         <v>1955</v>
       </c>
       <c r="B344" s="6">
@@ -6267,7 +6265,7 @@
       </c>
     </row>
     <row r="345" spans="1:5">
-      <c r="A345" s="7">
+      <c r="A345" s="6">
         <v>1955</v>
       </c>
       <c r="B345" s="6">
@@ -6284,7 +6282,7 @@
       </c>
     </row>
     <row r="346" spans="1:5">
-      <c r="A346" s="7">
+      <c r="A346" s="6">
         <v>1955</v>
       </c>
       <c r="B346" s="6">
@@ -6301,7 +6299,7 @@
       </c>
     </row>
     <row r="347" spans="1:5">
-      <c r="A347" s="7">
+      <c r="A347" s="6">
         <v>1955</v>
       </c>
       <c r="B347" s="6">
@@ -6318,7 +6316,7 @@
       </c>
     </row>
     <row r="348" spans="1:5">
-      <c r="A348" s="7">
+      <c r="A348" s="6">
         <v>1955</v>
       </c>
       <c r="B348" s="6">
@@ -6335,7 +6333,7 @@
       </c>
     </row>
     <row r="349" spans="1:5">
-      <c r="A349" s="7">
+      <c r="A349" s="6">
         <v>1955</v>
       </c>
       <c r="B349" s="6">
@@ -6352,7 +6350,7 @@
       </c>
     </row>
     <row r="350" spans="1:5">
-      <c r="A350" s="7">
+      <c r="A350" s="6">
         <v>1955</v>
       </c>
       <c r="B350" s="6">
@@ -6369,7 +6367,7 @@
       </c>
     </row>
     <row r="351" spans="1:5">
-      <c r="A351" s="7">
+      <c r="A351" s="6">
         <v>1955</v>
       </c>
       <c r="B351" s="6">
@@ -6386,7 +6384,7 @@
       </c>
     </row>
     <row r="352" spans="1:5">
-      <c r="A352" s="7">
+      <c r="A352" s="6">
         <v>1955</v>
       </c>
       <c r="B352" s="6">
@@ -6403,7 +6401,7 @@
       </c>
     </row>
     <row r="353" spans="1:5">
-      <c r="A353" s="7">
+      <c r="A353" s="6">
         <v>1955</v>
       </c>
       <c r="B353" s="6">
@@ -6420,7 +6418,7 @@
       </c>
     </row>
     <row r="354" spans="1:5">
-      <c r="A354" s="7">
+      <c r="A354" s="6">
         <v>1955</v>
       </c>
       <c r="B354" s="6">
@@ -6437,7 +6435,7 @@
       </c>
     </row>
     <row r="355" spans="1:5">
-      <c r="A355" s="7">
+      <c r="A355" s="6">
         <v>1956</v>
       </c>
       <c r="B355" s="6">
@@ -6454,7 +6452,7 @@
       </c>
     </row>
     <row r="356" spans="1:5">
-      <c r="A356" s="7">
+      <c r="A356" s="6">
         <v>1956</v>
       </c>
       <c r="B356" s="6">
@@ -6471,7 +6469,7 @@
       </c>
     </row>
     <row r="357" spans="1:5">
-      <c r="A357" s="7">
+      <c r="A357" s="6">
         <v>1956</v>
       </c>
       <c r="B357" s="6">
@@ -6488,7 +6486,7 @@
       </c>
     </row>
     <row r="358" spans="1:5">
-      <c r="A358" s="7">
+      <c r="A358" s="6">
         <v>1956</v>
       </c>
       <c r="B358" s="6">
@@ -6505,7 +6503,7 @@
       </c>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" s="7">
+      <c r="A359" s="6">
         <v>1956</v>
       </c>
       <c r="B359" s="6">
@@ -6522,7 +6520,7 @@
       </c>
     </row>
     <row r="360" spans="1:5">
-      <c r="A360" s="7">
+      <c r="A360" s="6">
         <v>1956</v>
       </c>
       <c r="B360" s="6">
@@ -6539,7 +6537,7 @@
       </c>
     </row>
     <row r="361" spans="1:5">
-      <c r="A361" s="7">
+      <c r="A361" s="6">
         <v>1956</v>
       </c>
       <c r="B361" s="6">
@@ -6556,7 +6554,7 @@
       </c>
     </row>
     <row r="362" spans="1:5">
-      <c r="A362" s="7">
+      <c r="A362" s="6">
         <v>1956</v>
       </c>
       <c r="B362" s="6">
@@ -6573,7 +6571,7 @@
       </c>
     </row>
     <row r="363" spans="1:5">
-      <c r="A363" s="7">
+      <c r="A363" s="6">
         <v>1956</v>
       </c>
       <c r="B363" s="6">
@@ -6590,7 +6588,7 @@
       </c>
     </row>
     <row r="364" spans="1:5">
-      <c r="A364" s="7">
+      <c r="A364" s="6">
         <v>1956</v>
       </c>
       <c r="B364" s="6">
@@ -6607,7 +6605,7 @@
       </c>
     </row>
     <row r="365" spans="1:5">
-      <c r="A365" s="7">
+      <c r="A365" s="6">
         <v>1956</v>
       </c>
       <c r="B365" s="6">
@@ -6624,7 +6622,7 @@
       </c>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="7">
+      <c r="A366" s="6">
         <v>1956</v>
       </c>
       <c r="B366" s="6">
@@ -6641,7 +6639,7 @@
       </c>
     </row>
     <row r="367" spans="1:5">
-      <c r="A367" s="7">
+      <c r="A367" s="6">
         <v>1957</v>
       </c>
       <c r="B367" s="6">
@@ -6658,7 +6656,7 @@
       </c>
     </row>
     <row r="368" spans="1:5">
-      <c r="A368" s="7">
+      <c r="A368" s="6">
         <v>1957</v>
       </c>
       <c r="B368" s="6">
@@ -6675,7 +6673,7 @@
       </c>
     </row>
     <row r="369" spans="1:5">
-      <c r="A369" s="7">
+      <c r="A369" s="6">
         <v>1957</v>
       </c>
       <c r="B369" s="6">
@@ -6692,7 +6690,7 @@
       </c>
     </row>
     <row r="370" spans="1:5">
-      <c r="A370" s="7">
+      <c r="A370" s="6">
         <v>1957</v>
       </c>
       <c r="B370" s="6">
@@ -6709,7 +6707,7 @@
       </c>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" s="7">
+      <c r="A371" s="6">
         <v>1957</v>
       </c>
       <c r="B371" s="6">
@@ -6726,7 +6724,7 @@
       </c>
     </row>
     <row r="372" spans="1:5">
-      <c r="A372" s="7">
+      <c r="A372" s="6">
         <v>1957</v>
       </c>
       <c r="B372" s="6">
@@ -6743,7 +6741,7 @@
       </c>
     </row>
     <row r="373" spans="1:5">
-      <c r="A373" s="7">
+      <c r="A373" s="6">
         <v>1957</v>
       </c>
       <c r="B373" s="6">
@@ -6760,7 +6758,7 @@
       </c>
     </row>
     <row r="374" spans="1:5">
-      <c r="A374" s="7">
+      <c r="A374" s="6">
         <v>1957</v>
       </c>
       <c r="B374" s="6">
@@ -6777,7 +6775,7 @@
       </c>
     </row>
     <row r="375" spans="1:5">
-      <c r="A375" s="7">
+      <c r="A375" s="6">
         <v>1957</v>
       </c>
       <c r="B375" s="6">
@@ -6794,7 +6792,7 @@
       </c>
     </row>
     <row r="376" spans="1:5">
-      <c r="A376" s="7">
+      <c r="A376" s="6">
         <v>1957</v>
       </c>
       <c r="B376" s="6">
@@ -6811,7 +6809,7 @@
       </c>
     </row>
     <row r="377" spans="1:5">
-      <c r="A377" s="7">
+      <c r="A377" s="6">
         <v>1957</v>
       </c>
       <c r="B377" s="6">
@@ -6828,7 +6826,7 @@
       </c>
     </row>
     <row r="378" spans="1:5">
-      <c r="A378" s="7">
+      <c r="A378" s="6">
         <v>1957</v>
       </c>
       <c r="B378" s="6">
@@ -6845,7 +6843,7 @@
       </c>
     </row>
     <row r="379" spans="1:5">
-      <c r="A379" s="7">
+      <c r="A379" s="6">
         <v>1958</v>
       </c>
       <c r="B379" s="6">
@@ -6862,7 +6860,7 @@
       </c>
     </row>
     <row r="380" spans="1:5">
-      <c r="A380" s="7">
+      <c r="A380" s="6">
         <v>1958</v>
       </c>
       <c r="B380" s="6">
@@ -6879,7 +6877,7 @@
       </c>
     </row>
     <row r="381" spans="1:5">
-      <c r="A381" s="7">
+      <c r="A381" s="6">
         <v>1958</v>
       </c>
       <c r="B381" s="6">
@@ -6896,7 +6894,7 @@
       </c>
     </row>
     <row r="382" spans="1:5">
-      <c r="A382" s="7">
+      <c r="A382" s="6">
         <v>1958</v>
       </c>
       <c r="B382" s="6">
@@ -6913,7 +6911,7 @@
       </c>
     </row>
     <row r="383" spans="1:5">
-      <c r="A383" s="7">
+      <c r="A383" s="6">
         <v>1958</v>
       </c>
       <c r="B383" s="6">
@@ -6930,7 +6928,7 @@
       </c>
     </row>
     <row r="384" spans="1:5">
-      <c r="A384" s="7">
+      <c r="A384" s="6">
         <v>1958</v>
       </c>
       <c r="B384" s="6">
@@ -6947,7 +6945,7 @@
       </c>
     </row>
     <row r="385" spans="1:5">
-      <c r="A385" s="7">
+      <c r="A385" s="6">
         <v>1958</v>
       </c>
       <c r="B385" s="6">
@@ -6964,7 +6962,7 @@
       </c>
     </row>
     <row r="386" spans="1:5">
-      <c r="A386" s="7">
+      <c r="A386" s="6">
         <v>1958</v>
       </c>
       <c r="B386" s="6">
@@ -6981,7 +6979,7 @@
       </c>
     </row>
     <row r="387" spans="1:5">
-      <c r="A387" s="7">
+      <c r="A387" s="6">
         <v>1958</v>
       </c>
       <c r="B387" s="6">
@@ -6998,7 +6996,7 @@
       </c>
     </row>
     <row r="388" spans="1:5">
-      <c r="A388" s="7">
+      <c r="A388" s="6">
         <v>1958</v>
       </c>
       <c r="B388" s="6">
@@ -7015,7 +7013,7 @@
       </c>
     </row>
     <row r="389" spans="1:5">
-      <c r="A389" s="7">
+      <c r="A389" s="6">
         <v>1958</v>
       </c>
       <c r="B389" s="6">
@@ -7032,7 +7030,7 @@
       </c>
     </row>
     <row r="390" spans="1:5">
-      <c r="A390" s="7">
+      <c r="A390" s="6">
         <v>1958</v>
       </c>
       <c r="B390" s="6">
@@ -7049,7 +7047,7 @@
       </c>
     </row>
     <row r="391" spans="1:5">
-      <c r="A391" s="7">
+      <c r="A391" s="6">
         <v>1959</v>
       </c>
       <c r="B391" s="6">
@@ -7066,7 +7064,7 @@
       </c>
     </row>
     <row r="392" spans="1:5">
-      <c r="A392" s="7">
+      <c r="A392" s="6">
         <v>1959</v>
       </c>
       <c r="B392" s="6">
@@ -7083,7 +7081,7 @@
       </c>
     </row>
     <row r="393" spans="1:5">
-      <c r="A393" s="7">
+      <c r="A393" s="6">
         <v>1959</v>
       </c>
       <c r="B393" s="6">
@@ -7100,7 +7098,7 @@
       </c>
     </row>
     <row r="394" spans="1:5">
-      <c r="A394" s="7">
+      <c r="A394" s="6">
         <v>1959</v>
       </c>
       <c r="B394" s="6">
@@ -7117,7 +7115,7 @@
       </c>
     </row>
     <row r="395" spans="1:5">
-      <c r="A395" s="7">
+      <c r="A395" s="6">
         <v>1959</v>
       </c>
       <c r="B395" s="6">
@@ -7134,7 +7132,7 @@
       </c>
     </row>
     <row r="396" spans="1:5">
-      <c r="A396" s="7">
+      <c r="A396" s="6">
         <v>1959</v>
       </c>
       <c r="B396" s="6">
@@ -7151,7 +7149,7 @@
       </c>
     </row>
     <row r="397" spans="1:5">
-      <c r="A397" s="7">
+      <c r="A397" s="6">
         <v>1959</v>
       </c>
       <c r="B397" s="6">
@@ -7168,7 +7166,7 @@
       </c>
     </row>
     <row r="398" spans="1:5">
-      <c r="A398" s="7">
+      <c r="A398" s="6">
         <v>1959</v>
       </c>
       <c r="B398" s="6">
@@ -7185,7 +7183,7 @@
       </c>
     </row>
     <row r="399" spans="1:5">
-      <c r="A399" s="7">
+      <c r="A399" s="6">
         <v>1959</v>
       </c>
       <c r="B399" s="6">
@@ -7202,7 +7200,7 @@
       </c>
     </row>
     <row r="400" spans="1:5">
-      <c r="A400" s="7">
+      <c r="A400" s="6">
         <v>1959</v>
       </c>
       <c r="B400" s="6">
@@ -7219,7 +7217,7 @@
       </c>
     </row>
     <row r="401" spans="1:5">
-      <c r="A401" s="7">
+      <c r="A401" s="6">
         <v>1959</v>
       </c>
       <c r="B401" s="6">
@@ -7236,7 +7234,7 @@
       </c>
     </row>
     <row r="402" spans="1:5">
-      <c r="A402" s="7">
+      <c r="A402" s="6">
         <v>1959</v>
       </c>
       <c r="B402" s="6">
@@ -7253,7 +7251,7 @@
       </c>
     </row>
     <row r="403" spans="1:5">
-      <c r="A403" s="7">
+      <c r="A403" s="6">
         <v>1960</v>
       </c>
       <c r="B403" s="6">
@@ -7270,7 +7268,7 @@
       </c>
     </row>
     <row r="404" spans="1:5">
-      <c r="A404" s="7">
+      <c r="A404" s="6">
         <v>1960</v>
       </c>
       <c r="B404" s="6">
@@ -7287,7 +7285,7 @@
       </c>
     </row>
     <row r="405" spans="1:5">
-      <c r="A405" s="7">
+      <c r="A405" s="6">
         <v>1960</v>
       </c>
       <c r="B405" s="6">
@@ -7304,7 +7302,7 @@
       </c>
     </row>
     <row r="406" spans="1:5">
-      <c r="A406" s="7">
+      <c r="A406" s="6">
         <v>1960</v>
       </c>
       <c r="B406" s="6">
@@ -7321,7 +7319,7 @@
       </c>
     </row>
     <row r="407" spans="1:5">
-      <c r="A407" s="7">
+      <c r="A407" s="6">
         <v>1960</v>
       </c>
       <c r="B407" s="6">
@@ -7338,7 +7336,7 @@
       </c>
     </row>
     <row r="408" spans="1:5">
-      <c r="A408" s="7">
+      <c r="A408" s="6">
         <v>1960</v>
       </c>
       <c r="B408" s="6">
@@ -7355,7 +7353,7 @@
       </c>
     </row>
     <row r="409" spans="1:5">
-      <c r="A409" s="7">
+      <c r="A409" s="6">
         <v>1960</v>
       </c>
       <c r="B409" s="6">
@@ -7372,7 +7370,7 @@
       </c>
     </row>
     <row r="410" spans="1:5">
-      <c r="A410" s="7">
+      <c r="A410" s="6">
         <v>1960</v>
       </c>
       <c r="B410" s="6">
@@ -7389,7 +7387,7 @@
       </c>
     </row>
     <row r="411" spans="1:5">
-      <c r="A411" s="7">
+      <c r="A411" s="6">
         <v>1960</v>
       </c>
       <c r="B411" s="6">
@@ -7406,7 +7404,7 @@
       </c>
     </row>
     <row r="412" spans="1:5">
-      <c r="A412" s="7">
+      <c r="A412" s="6">
         <v>1960</v>
       </c>
       <c r="B412" s="6">
@@ -7423,7 +7421,7 @@
       </c>
     </row>
     <row r="413" spans="1:5">
-      <c r="A413" s="7">
+      <c r="A413" s="6">
         <v>1960</v>
       </c>
       <c r="B413" s="6">
@@ -7440,7 +7438,7 @@
       </c>
     </row>
     <row r="414" spans="1:5">
-      <c r="A414" s="7">
+      <c r="A414" s="6">
         <v>1960</v>
       </c>
       <c r="B414" s="6">
@@ -7457,7 +7455,7 @@
       </c>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="7">
+      <c r="A415" s="6">
         <v>1961</v>
       </c>
       <c r="B415" s="6">
@@ -7474,7 +7472,7 @@
       </c>
     </row>
     <row r="416" spans="1:5">
-      <c r="A416" s="7">
+      <c r="A416" s="6">
         <v>1961</v>
       </c>
       <c r="B416" s="6">
@@ -7491,7 +7489,7 @@
       </c>
     </row>
     <row r="417" spans="1:5">
-      <c r="A417" s="7">
+      <c r="A417" s="6">
         <v>1961</v>
       </c>
       <c r="B417" s="6">
@@ -7508,7 +7506,7 @@
       </c>
     </row>
     <row r="418" spans="1:5">
-      <c r="A418" s="7">
+      <c r="A418" s="6">
         <v>1961</v>
       </c>
       <c r="B418" s="6">
@@ -7525,7 +7523,7 @@
       </c>
     </row>
     <row r="419" spans="1:5">
-      <c r="A419" s="7">
+      <c r="A419" s="6">
         <v>1961</v>
       </c>
       <c r="B419" s="6">
@@ -7542,7 +7540,7 @@
       </c>
     </row>
     <row r="420" spans="1:5">
-      <c r="A420" s="7">
+      <c r="A420" s="6">
         <v>1961</v>
       </c>
       <c r="B420" s="6">
@@ -7559,7 +7557,7 @@
       </c>
     </row>
     <row r="421" spans="1:5">
-      <c r="A421" s="7">
+      <c r="A421" s="6">
         <v>1961</v>
       </c>
       <c r="B421" s="6">
@@ -7576,7 +7574,7 @@
       </c>
     </row>
     <row r="422" spans="1:5">
-      <c r="A422" s="7">
+      <c r="A422" s="6">
         <v>1961</v>
       </c>
       <c r="B422" s="6">
@@ -7593,7 +7591,7 @@
       </c>
     </row>
     <row r="423" spans="1:5">
-      <c r="A423" s="7">
+      <c r="A423" s="6">
         <v>1961</v>
       </c>
       <c r="B423" s="6">
@@ -7610,7 +7608,7 @@
       </c>
     </row>
     <row r="424" spans="1:5">
-      <c r="A424" s="7">
+      <c r="A424" s="6">
         <v>1961</v>
       </c>
       <c r="B424" s="6">
@@ -7627,7 +7625,7 @@
       </c>
     </row>
     <row r="425" spans="1:5">
-      <c r="A425" s="7">
+      <c r="A425" s="6">
         <v>1961</v>
       </c>
       <c r="B425" s="6">
@@ -7644,7 +7642,7 @@
       </c>
     </row>
     <row r="426" spans="1:5">
-      <c r="A426" s="7">
+      <c r="A426" s="6">
         <v>1961</v>
       </c>
       <c r="B426" s="6">
@@ -7661,7 +7659,7 @@
       </c>
     </row>
     <row r="427" spans="1:5">
-      <c r="A427" s="7">
+      <c r="A427" s="6">
         <v>1962</v>
       </c>
       <c r="B427" s="6">
@@ -7678,7 +7676,7 @@
       </c>
     </row>
     <row r="428" spans="1:5">
-      <c r="A428" s="7">
+      <c r="A428" s="6">
         <v>1962</v>
       </c>
       <c r="B428" s="6">
@@ -7695,7 +7693,7 @@
       </c>
     </row>
     <row r="429" spans="1:5">
-      <c r="A429" s="7">
+      <c r="A429" s="6">
         <v>1962</v>
       </c>
       <c r="B429" s="6">
@@ -7712,7 +7710,7 @@
       </c>
     </row>
     <row r="430" spans="1:5">
-      <c r="A430" s="7">
+      <c r="A430" s="6">
         <v>1962</v>
       </c>
       <c r="B430" s="6">
@@ -7729,7 +7727,7 @@
       </c>
     </row>
     <row r="431" spans="1:5">
-      <c r="A431" s="7">
+      <c r="A431" s="6">
         <v>1962</v>
       </c>
       <c r="B431" s="6">
@@ -7746,7 +7744,7 @@
       </c>
     </row>
     <row r="432" spans="1:5">
-      <c r="A432" s="7">
+      <c r="A432" s="6">
         <v>1962</v>
       </c>
       <c r="B432" s="6">
@@ -7763,7 +7761,7 @@
       </c>
     </row>
     <row r="433" spans="1:5">
-      <c r="A433" s="7">
+      <c r="A433" s="6">
         <v>1962</v>
       </c>
       <c r="B433" s="6">
@@ -7780,7 +7778,7 @@
       </c>
     </row>
     <row r="434" spans="1:5">
-      <c r="A434" s="7">
+      <c r="A434" s="6">
         <v>1962</v>
       </c>
       <c r="B434" s="6">
@@ -7797,7 +7795,7 @@
       </c>
     </row>
     <row r="435" spans="1:5">
-      <c r="A435" s="7">
+      <c r="A435" s="6">
         <v>1962</v>
       </c>
       <c r="B435" s="6">
@@ -7814,7 +7812,7 @@
       </c>
     </row>
     <row r="436" spans="1:5">
-      <c r="A436" s="7">
+      <c r="A436" s="6">
         <v>1962</v>
       </c>
       <c r="B436" s="6">
@@ -7831,7 +7829,7 @@
       </c>
     </row>
     <row r="437" spans="1:5">
-      <c r="A437" s="7">
+      <c r="A437" s="6">
         <v>1962</v>
       </c>
       <c r="B437" s="6">
@@ -7848,7 +7846,7 @@
       </c>
     </row>
     <row r="438" spans="1:5">
-      <c r="A438" s="7">
+      <c r="A438" s="6">
         <v>1962</v>
       </c>
       <c r="B438" s="6">
@@ -7865,7 +7863,7 @@
       </c>
     </row>
     <row r="439" spans="1:5">
-      <c r="A439" s="7">
+      <c r="A439" s="6">
         <v>1963</v>
       </c>
       <c r="B439" s="6">
@@ -7882,7 +7880,7 @@
       </c>
     </row>
     <row r="440" spans="1:5">
-      <c r="A440" s="7">
+      <c r="A440" s="6">
         <v>1963</v>
       </c>
       <c r="B440" s="6">
@@ -7899,7 +7897,7 @@
       </c>
     </row>
     <row r="441" spans="1:5">
-      <c r="A441" s="7">
+      <c r="A441" s="6">
         <v>1963</v>
       </c>
       <c r="B441" s="6">
@@ -7916,7 +7914,7 @@
       </c>
     </row>
     <row r="442" spans="1:5">
-      <c r="A442" s="7">
+      <c r="A442" s="6">
         <v>1963</v>
       </c>
       <c r="B442" s="6">
@@ -7933,7 +7931,7 @@
       </c>
     </row>
     <row r="443" spans="1:5">
-      <c r="A443" s="7">
+      <c r="A443" s="6">
         <v>1963</v>
       </c>
       <c r="B443" s="6">
@@ -7950,7 +7948,7 @@
       </c>
     </row>
     <row r="444" spans="1:5">
-      <c r="A444" s="7">
+      <c r="A444" s="6">
         <v>1963</v>
       </c>
       <c r="B444" s="6">
@@ -7967,7 +7965,7 @@
       </c>
     </row>
     <row r="445" spans="1:5">
-      <c r="A445" s="7">
+      <c r="A445" s="6">
         <v>1963</v>
       </c>
       <c r="B445" s="6">
@@ -7984,7 +7982,7 @@
       </c>
     </row>
     <row r="446" spans="1:5">
-      <c r="A446" s="7">
+      <c r="A446" s="6">
         <v>1963</v>
       </c>
       <c r="B446" s="6">
@@ -8001,7 +7999,7 @@
       </c>
     </row>
     <row r="447" spans="1:5">
-      <c r="A447" s="7">
+      <c r="A447" s="6">
         <v>1963</v>
       </c>
       <c r="B447" s="6">
@@ -8018,7 +8016,7 @@
       </c>
     </row>
     <row r="448" spans="1:5">
-      <c r="A448" s="7">
+      <c r="A448" s="6">
         <v>1963</v>
       </c>
       <c r="B448" s="6">
@@ -8035,7 +8033,7 @@
       </c>
     </row>
     <row r="449" spans="1:5">
-      <c r="A449" s="7">
+      <c r="A449" s="6">
         <v>1963</v>
       </c>
       <c r="B449" s="6">
@@ -8052,7 +8050,7 @@
       </c>
     </row>
     <row r="450" spans="1:5">
-      <c r="A450" s="7">
+      <c r="A450" s="6">
         <v>1963</v>
       </c>
       <c r="B450" s="6">
@@ -8069,7 +8067,7 @@
       </c>
     </row>
     <row r="451" spans="1:5">
-      <c r="A451" s="7">
+      <c r="A451" s="6">
         <v>1964</v>
       </c>
       <c r="B451" s="6">
@@ -8086,7 +8084,7 @@
       </c>
     </row>
     <row r="452" spans="1:5">
-      <c r="A452" s="7">
+      <c r="A452" s="6">
         <v>1964</v>
       </c>
       <c r="B452" s="6">
@@ -8103,7 +8101,7 @@
       </c>
     </row>
     <row r="453" spans="1:5">
-      <c r="A453" s="7">
+      <c r="A453" s="6">
         <v>1964</v>
       </c>
       <c r="B453" s="6">
@@ -8120,7 +8118,7 @@
       </c>
     </row>
     <row r="454" spans="1:5">
-      <c r="A454" s="7">
+      <c r="A454" s="6">
         <v>1964</v>
       </c>
       <c r="B454" s="6">
@@ -8137,7 +8135,7 @@
       </c>
     </row>
     <row r="455" spans="1:5">
-      <c r="A455" s="7">
+      <c r="A455" s="6">
         <v>1964</v>
       </c>
       <c r="B455" s="6">
@@ -8154,7 +8152,7 @@
       </c>
     </row>
     <row r="456" spans="1:5">
-      <c r="A456" s="7">
+      <c r="A456" s="6">
         <v>1964</v>
       </c>
       <c r="B456" s="6">
@@ -8171,7 +8169,7 @@
       </c>
     </row>
     <row r="457" spans="1:5">
-      <c r="A457" s="7">
+      <c r="A457" s="6">
         <v>1964</v>
       </c>
       <c r="B457" s="6">
@@ -8188,7 +8186,7 @@
       </c>
     </row>
     <row r="458" spans="1:5">
-      <c r="A458" s="7">
+      <c r="A458" s="6">
         <v>1964</v>
       </c>
       <c r="B458" s="6">
@@ -8205,7 +8203,7 @@
       </c>
     </row>
     <row r="459" spans="1:5">
-      <c r="A459" s="7">
+      <c r="A459" s="6">
         <v>1964</v>
       </c>
       <c r="B459" s="6">
@@ -8222,7 +8220,7 @@
       </c>
     </row>
     <row r="460" spans="1:5">
-      <c r="A460" s="7">
+      <c r="A460" s="6">
         <v>1964</v>
       </c>
       <c r="B460" s="6">
@@ -8239,7 +8237,7 @@
       </c>
     </row>
     <row r="461" spans="1:5">
-      <c r="A461" s="7">
+      <c r="A461" s="6">
         <v>1964</v>
       </c>
       <c r="B461" s="6">
@@ -8256,7 +8254,7 @@
       </c>
     </row>
     <row r="462" spans="1:5">
-      <c r="A462" s="7">
+      <c r="A462" s="6">
         <v>1964</v>
       </c>
       <c r="B462" s="6">
@@ -8273,7 +8271,7 @@
       </c>
     </row>
     <row r="463" spans="1:5">
-      <c r="A463" s="7">
+      <c r="A463" s="6">
         <v>1965</v>
       </c>
       <c r="B463" s="6">
@@ -8290,7 +8288,7 @@
       </c>
     </row>
     <row r="464" spans="1:5">
-      <c r="A464" s="7">
+      <c r="A464" s="6">
         <v>1965</v>
       </c>
       <c r="B464" s="6">
@@ -8307,7 +8305,7 @@
       </c>
     </row>
     <row r="465" spans="1:5">
-      <c r="A465" s="7">
+      <c r="A465" s="6">
         <v>1965</v>
       </c>
       <c r="B465" s="6">
@@ -8324,7 +8322,7 @@
       </c>
     </row>
     <row r="466" spans="1:5">
-      <c r="A466" s="7">
+      <c r="A466" s="6">
         <v>1965</v>
       </c>
       <c r="B466" s="6">
@@ -8341,7 +8339,7 @@
       </c>
     </row>
     <row r="467" spans="1:5">
-      <c r="A467" s="7">
+      <c r="A467" s="6">
         <v>1965</v>
       </c>
       <c r="B467" s="6">
@@ -8358,7 +8356,7 @@
       </c>
     </row>
     <row r="468" spans="1:5">
-      <c r="A468" s="7">
+      <c r="A468" s="6">
         <v>1965</v>
       </c>
       <c r="B468" s="6">
@@ -8375,7 +8373,7 @@
       </c>
     </row>
     <row r="469" spans="1:5">
-      <c r="A469" s="7">
+      <c r="A469" s="6">
         <v>1965</v>
       </c>
       <c r="B469" s="6">
@@ -8392,7 +8390,7 @@
       </c>
     </row>
     <row r="470" spans="1:5">
-      <c r="A470" s="7">
+      <c r="A470" s="6">
         <v>1965</v>
       </c>
       <c r="B470" s="6">
@@ -8409,7 +8407,7 @@
       </c>
     </row>
     <row r="471" spans="1:5">
-      <c r="A471" s="7">
+      <c r="A471" s="6">
         <v>1965</v>
       </c>
       <c r="B471" s="6">
@@ -8426,7 +8424,7 @@
       </c>
     </row>
     <row r="472" spans="1:5">
-      <c r="A472" s="7">
+      <c r="A472" s="6">
         <v>1965</v>
       </c>
       <c r="B472" s="6">
@@ -8443,7 +8441,7 @@
       </c>
     </row>
     <row r="473" spans="1:5">
-      <c r="A473" s="7">
+      <c r="A473" s="6">
         <v>1965</v>
       </c>
       <c r="B473" s="6">
@@ -8460,7 +8458,7 @@
       </c>
     </row>
     <row r="474" spans="1:5">
-      <c r="A474" s="7">
+      <c r="A474" s="6">
         <v>1965</v>
       </c>
       <c r="B474" s="6">
@@ -8477,7 +8475,7 @@
       </c>
     </row>
     <row r="475" spans="1:5">
-      <c r="A475" s="7">
+      <c r="A475" s="6">
         <v>1966</v>
       </c>
       <c r="B475" s="6">
@@ -8494,7 +8492,7 @@
       </c>
     </row>
     <row r="476" spans="1:5">
-      <c r="A476" s="7">
+      <c r="A476" s="6">
         <v>1966</v>
       </c>
       <c r="B476" s="6">
@@ -8511,7 +8509,7 @@
       </c>
     </row>
     <row r="477" spans="1:5">
-      <c r="A477" s="7">
+      <c r="A477" s="6">
         <v>1966</v>
       </c>
       <c r="B477" s="6">
@@ -8528,7 +8526,7 @@
       </c>
     </row>
     <row r="478" spans="1:5">
-      <c r="A478" s="7">
+      <c r="A478" s="6">
         <v>1966</v>
       </c>
       <c r="B478" s="6">
@@ -8545,7 +8543,7 @@
       </c>
     </row>
     <row r="479" spans="1:5">
-      <c r="A479" s="7">
+      <c r="A479" s="6">
         <v>1966</v>
       </c>
       <c r="B479" s="6">
@@ -8562,7 +8560,7 @@
       </c>
     </row>
     <row r="480" spans="1:5">
-      <c r="A480" s="7">
+      <c r="A480" s="6">
         <v>1966</v>
       </c>
       <c r="B480" s="6">
@@ -8579,7 +8577,7 @@
       </c>
     </row>
     <row r="481" spans="1:5">
-      <c r="A481" s="7">
+      <c r="A481" s="6">
         <v>1966</v>
       </c>
       <c r="B481" s="6">
@@ -8596,7 +8594,7 @@
       </c>
     </row>
     <row r="482" spans="1:5">
-      <c r="A482" s="7">
+      <c r="A482" s="6">
         <v>1966</v>
       </c>
       <c r="B482" s="6">
@@ -8613,7 +8611,7 @@
       </c>
     </row>
     <row r="483" spans="1:5">
-      <c r="A483" s="7">
+      <c r="A483" s="6">
         <v>1966</v>
       </c>
       <c r="B483" s="6">
@@ -8630,7 +8628,7 @@
       </c>
     </row>
     <row r="484" spans="1:5">
-      <c r="A484" s="7">
+      <c r="A484" s="6">
         <v>1966</v>
       </c>
       <c r="B484" s="6">
@@ -8647,7 +8645,7 @@
       </c>
     </row>
     <row r="485" spans="1:5">
-      <c r="A485" s="7">
+      <c r="A485" s="6">
         <v>1966</v>
       </c>
       <c r="B485" s="6">
@@ -8664,7 +8662,7 @@
       </c>
     </row>
     <row r="486" spans="1:5">
-      <c r="A486" s="7">
+      <c r="A486" s="6">
         <v>1966</v>
       </c>
       <c r="B486" s="6">
@@ -8681,7 +8679,7 @@
       </c>
     </row>
     <row r="487" spans="1:5">
-      <c r="A487" s="7">
+      <c r="A487" s="6">
         <v>1967</v>
       </c>
       <c r="B487" s="6">
@@ -8698,7 +8696,7 @@
       </c>
     </row>
     <row r="488" spans="1:5">
-      <c r="A488" s="7">
+      <c r="A488" s="6">
         <v>1967</v>
       </c>
       <c r="B488" s="6">
@@ -8715,7 +8713,7 @@
       </c>
     </row>
     <row r="489" spans="1:5">
-      <c r="A489" s="7">
+      <c r="A489" s="6">
         <v>1967</v>
       </c>
       <c r="B489" s="6">
@@ -8732,7 +8730,7 @@
       </c>
     </row>
     <row r="490" spans="1:5">
-      <c r="A490" s="7">
+      <c r="A490" s="6">
         <v>1967</v>
       </c>
       <c r="B490" s="6">
@@ -8749,7 +8747,7 @@
       </c>
     </row>
     <row r="491" spans="1:5">
-      <c r="A491" s="7">
+      <c r="A491" s="6">
         <v>1967</v>
       </c>
       <c r="B491" s="6">
@@ -8766,7 +8764,7 @@
       </c>
     </row>
     <row r="492" spans="1:5">
-      <c r="A492" s="7">
+      <c r="A492" s="6">
         <v>1967</v>
       </c>
       <c r="B492" s="6">
@@ -8783,7 +8781,7 @@
       </c>
     </row>
     <row r="493" spans="1:5">
-      <c r="A493" s="7">
+      <c r="A493" s="6">
         <v>1967</v>
       </c>
       <c r="B493" s="6">
@@ -8800,7 +8798,7 @@
       </c>
     </row>
     <row r="494" spans="1:5">
-      <c r="A494" s="7">
+      <c r="A494" s="6">
         <v>1967</v>
       </c>
       <c r="B494" s="6">
@@ -8817,7 +8815,7 @@
       </c>
     </row>
     <row r="495" spans="1:5">
-      <c r="A495" s="7">
+      <c r="A495" s="6">
         <v>1967</v>
       </c>
       <c r="B495" s="6">
@@ -8834,7 +8832,7 @@
       </c>
     </row>
     <row r="496" spans="1:5">
-      <c r="A496" s="7">
+      <c r="A496" s="6">
         <v>1967</v>
       </c>
       <c r="B496" s="6">
@@ -8851,7 +8849,7 @@
       </c>
     </row>
     <row r="497" spans="1:5">
-      <c r="A497" s="7">
+      <c r="A497" s="6">
         <v>1967</v>
       </c>
       <c r="B497" s="6">
@@ -8868,7 +8866,7 @@
       </c>
     </row>
     <row r="498" spans="1:5">
-      <c r="A498" s="7">
+      <c r="A498" s="6">
         <v>1967</v>
       </c>
       <c r="B498" s="6">
@@ -8885,7 +8883,7 @@
       </c>
     </row>
     <row r="499" spans="1:5">
-      <c r="A499" s="7">
+      <c r="A499" s="6">
         <v>1968</v>
       </c>
       <c r="B499" s="6">
@@ -8902,7 +8900,7 @@
       </c>
     </row>
     <row r="500" spans="1:5">
-      <c r="A500" s="7">
+      <c r="A500" s="6">
         <v>1968</v>
       </c>
       <c r="B500" s="6">
@@ -8919,7 +8917,7 @@
       </c>
     </row>
     <row r="501" spans="1:5">
-      <c r="A501" s="7">
+      <c r="A501" s="6">
         <v>1968</v>
       </c>
       <c r="B501" s="6">
@@ -8936,7 +8934,7 @@
       </c>
     </row>
     <row r="502" spans="1:5">
-      <c r="A502" s="7">
+      <c r="A502" s="6">
         <v>1968</v>
       </c>
       <c r="B502" s="6">
@@ -8953,7 +8951,7 @@
       </c>
     </row>
     <row r="503" spans="1:5">
-      <c r="A503" s="7">
+      <c r="A503" s="6">
         <v>1968</v>
       </c>
       <c r="B503" s="6">
@@ -8970,7 +8968,7 @@
       </c>
     </row>
     <row r="504" spans="1:5">
-      <c r="A504" s="7">
+      <c r="A504" s="6">
         <v>1968</v>
       </c>
       <c r="B504" s="6">
@@ -8987,7 +8985,7 @@
       </c>
     </row>
     <row r="505" spans="1:5">
-      <c r="A505" s="7">
+      <c r="A505" s="6">
         <v>1968</v>
       </c>
       <c r="B505" s="6">
@@ -9004,7 +9002,7 @@
       </c>
     </row>
     <row r="506" spans="1:5">
-      <c r="A506" s="7">
+      <c r="A506" s="6">
         <v>1968</v>
       </c>
       <c r="B506" s="6">
@@ -9021,7 +9019,7 @@
       </c>
     </row>
     <row r="507" spans="1:5">
-      <c r="A507" s="7">
+      <c r="A507" s="6">
         <v>1968</v>
       </c>
       <c r="B507" s="6">
@@ -9038,7 +9036,7 @@
       </c>
     </row>
     <row r="508" spans="1:5">
-      <c r="A508" s="7">
+      <c r="A508" s="6">
         <v>1968</v>
       </c>
       <c r="B508" s="6">
@@ -9055,7 +9053,7 @@
       </c>
     </row>
     <row r="509" spans="1:5">
-      <c r="A509" s="7">
+      <c r="A509" s="6">
         <v>1968</v>
       </c>
       <c r="B509" s="6">
@@ -9072,7 +9070,7 @@
       </c>
     </row>
     <row r="510" spans="1:5">
-      <c r="A510" s="7">
+      <c r="A510" s="6">
         <v>1968</v>
       </c>
       <c r="B510" s="6">
@@ -9089,7 +9087,7 @@
       </c>
     </row>
     <row r="511" spans="1:5">
-      <c r="A511" s="7">
+      <c r="A511" s="6">
         <v>1969</v>
       </c>
       <c r="B511" s="6">
@@ -9106,7 +9104,7 @@
       </c>
     </row>
     <row r="512" spans="1:5">
-      <c r="A512" s="7">
+      <c r="A512" s="6">
         <v>1969</v>
       </c>
       <c r="B512" s="6">
@@ -9123,7 +9121,7 @@
       </c>
     </row>
     <row r="513" spans="1:5">
-      <c r="A513" s="7">
+      <c r="A513" s="6">
         <v>1969</v>
       </c>
       <c r="B513" s="6">
@@ -9140,7 +9138,7 @@
       </c>
     </row>
     <row r="514" spans="1:5">
-      <c r="A514" s="7">
+      <c r="A514" s="6">
         <v>1969</v>
       </c>
       <c r="B514" s="6">
@@ -9157,7 +9155,7 @@
       </c>
     </row>
     <row r="515" spans="1:5">
-      <c r="A515" s="7">
+      <c r="A515" s="6">
         <v>1969</v>
       </c>
       <c r="B515" s="6">
@@ -9174,7 +9172,7 @@
       </c>
     </row>
     <row r="516" spans="1:5">
-      <c r="A516" s="7">
+      <c r="A516" s="6">
         <v>1969</v>
       </c>
       <c r="B516" s="6">
@@ -9191,7 +9189,7 @@
       </c>
     </row>
     <row r="517" spans="1:5">
-      <c r="A517" s="7">
+      <c r="A517" s="6">
         <v>1969</v>
       </c>
       <c r="B517" s="6">
@@ -9208,7 +9206,7 @@
       </c>
     </row>
     <row r="518" spans="1:5">
-      <c r="A518" s="7">
+      <c r="A518" s="6">
         <v>1969</v>
       </c>
       <c r="B518" s="6">
@@ -9225,7 +9223,7 @@
       </c>
     </row>
     <row r="519" spans="1:5">
-      <c r="A519" s="7">
+      <c r="A519" s="6">
         <v>1969</v>
       </c>
       <c r="B519" s="6">
@@ -9242,7 +9240,7 @@
       </c>
     </row>
     <row r="520" spans="1:5">
-      <c r="A520" s="7">
+      <c r="A520" s="6">
         <v>1969</v>
       </c>
       <c r="B520" s="6">
@@ -9259,7 +9257,7 @@
       </c>
     </row>
     <row r="521" spans="1:5">
-      <c r="A521" s="7">
+      <c r="A521" s="6">
         <v>1969</v>
       </c>
       <c r="B521" s="6">
@@ -9276,7 +9274,7 @@
       </c>
     </row>
     <row r="522" spans="1:5">
-      <c r="A522" s="7">
+      <c r="A522" s="6">
         <v>1969</v>
       </c>
       <c r="B522" s="6">
@@ -9293,7 +9291,7 @@
       </c>
     </row>
     <row r="523" spans="1:5">
-      <c r="A523" s="7">
+      <c r="A523" s="6">
         <v>1970</v>
       </c>
       <c r="B523" s="6">
@@ -9310,7 +9308,7 @@
       </c>
     </row>
     <row r="524" spans="1:5">
-      <c r="A524" s="7">
+      <c r="A524" s="6">
         <v>1970</v>
       </c>
       <c r="B524" s="6">
@@ -9327,7 +9325,7 @@
       </c>
     </row>
     <row r="525" spans="1:5">
-      <c r="A525" s="7">
+      <c r="A525" s="6">
         <v>1970</v>
       </c>
       <c r="B525" s="6">
@@ -9344,7 +9342,7 @@
       </c>
     </row>
     <row r="526" spans="1:5">
-      <c r="A526" s="7">
+      <c r="A526" s="6">
         <v>1970</v>
       </c>
       <c r="B526" s="6">
@@ -9361,7 +9359,7 @@
       </c>
     </row>
     <row r="527" spans="1:5">
-      <c r="A527" s="7">
+      <c r="A527" s="6">
         <v>1970</v>
       </c>
       <c r="B527" s="6">
@@ -9378,7 +9376,7 @@
       </c>
     </row>
     <row r="528" spans="1:5">
-      <c r="A528" s="7">
+      <c r="A528" s="6">
         <v>1970</v>
       </c>
       <c r="B528" s="6">
@@ -9395,7 +9393,7 @@
       </c>
     </row>
     <row r="529" spans="1:5">
-      <c r="A529" s="7">
+      <c r="A529" s="6">
         <v>1970</v>
       </c>
       <c r="B529" s="6">
@@ -9412,7 +9410,7 @@
       </c>
     </row>
     <row r="530" spans="1:5">
-      <c r="A530" s="7">
+      <c r="A530" s="6">
         <v>1970</v>
       </c>
       <c r="B530" s="6">
@@ -9429,7 +9427,7 @@
       </c>
     </row>
     <row r="531" spans="1:5">
-      <c r="A531" s="7">
+      <c r="A531" s="6">
         <v>1970</v>
       </c>
       <c r="B531" s="6">
@@ -9446,7 +9444,7 @@
       </c>
     </row>
     <row r="532" spans="1:5">
-      <c r="A532" s="7">
+      <c r="A532" s="6">
         <v>1970</v>
       </c>
       <c r="B532" s="6">
@@ -9463,7 +9461,7 @@
       </c>
     </row>
     <row r="533" spans="1:5">
-      <c r="A533" s="7">
+      <c r="A533" s="6">
         <v>1970</v>
       </c>
       <c r="B533" s="6">
@@ -9480,7 +9478,7 @@
       </c>
     </row>
     <row r="534" spans="1:5">
-      <c r="A534" s="7">
+      <c r="A534" s="6">
         <v>1970</v>
       </c>
       <c r="B534" s="6">
@@ -9497,7 +9495,7 @@
       </c>
     </row>
     <row r="535" spans="1:5">
-      <c r="A535" s="7">
+      <c r="A535" s="6">
         <v>1971</v>
       </c>
       <c r="B535" s="6">
@@ -9514,7 +9512,7 @@
       </c>
     </row>
     <row r="536" spans="1:5">
-      <c r="A536" s="7">
+      <c r="A536" s="6">
         <v>1971</v>
       </c>
       <c r="B536" s="6">
@@ -9531,7 +9529,7 @@
       </c>
     </row>
     <row r="537" spans="1:5">
-      <c r="A537" s="7">
+      <c r="A537" s="6">
         <v>1971</v>
       </c>
       <c r="B537" s="6">
@@ -9548,7 +9546,7 @@
       </c>
     </row>
     <row r="538" spans="1:5">
-      <c r="A538" s="7">
+      <c r="A538" s="6">
         <v>1971</v>
       </c>
       <c r="B538" s="6">
@@ -9565,7 +9563,7 @@
       </c>
     </row>
     <row r="539" spans="1:5">
-      <c r="A539" s="7">
+      <c r="A539" s="6">
         <v>1971</v>
       </c>
       <c r="B539" s="6">
@@ -9582,7 +9580,7 @@
       </c>
     </row>
     <row r="540" spans="1:5">
-      <c r="A540" s="7">
+      <c r="A540" s="6">
         <v>1971</v>
       </c>
       <c r="B540" s="6">
@@ -9599,7 +9597,7 @@
       </c>
     </row>
     <row r="541" spans="1:5">
-      <c r="A541" s="7">
+      <c r="A541" s="6">
         <v>1971</v>
       </c>
       <c r="B541" s="6">
@@ -9616,7 +9614,7 @@
       </c>
     </row>
     <row r="542" spans="1:5">
-      <c r="A542" s="7">
+      <c r="A542" s="6">
         <v>1971</v>
       </c>
       <c r="B542" s="6">
@@ -9633,7 +9631,7 @@
       </c>
     </row>
     <row r="543" spans="1:5">
-      <c r="A543" s="7">
+      <c r="A543" s="6">
         <v>1971</v>
       </c>
       <c r="B543" s="6">
@@ -9650,7 +9648,7 @@
       </c>
     </row>
     <row r="544" spans="1:5">
-      <c r="A544" s="7">
+      <c r="A544" s="6">
         <v>1971</v>
       </c>
       <c r="B544" s="6">
@@ -9667,7 +9665,7 @@
       </c>
     </row>
     <row r="545" spans="1:5">
-      <c r="A545" s="7">
+      <c r="A545" s="6">
         <v>1971</v>
       </c>
       <c r="B545" s="6">
@@ -9684,7 +9682,7 @@
       </c>
     </row>
     <row r="546" spans="1:5">
-      <c r="A546" s="7">
+      <c r="A546" s="6">
         <v>1971</v>
       </c>
       <c r="B546" s="6">
@@ -9701,7 +9699,7 @@
       </c>
     </row>
     <row r="547" spans="1:5">
-      <c r="A547" s="7">
+      <c r="A547" s="6">
         <v>1972</v>
       </c>
       <c r="B547" s="6">
@@ -9718,7 +9716,7 @@
       </c>
     </row>
     <row r="548" spans="1:5">
-      <c r="A548" s="7">
+      <c r="A548" s="6">
         <v>1972</v>
       </c>
       <c r="B548" s="6">
@@ -9735,7 +9733,7 @@
       </c>
     </row>
     <row r="549" spans="1:5">
-      <c r="A549" s="7">
+      <c r="A549" s="6">
         <v>1972</v>
       </c>
       <c r="B549" s="6">
@@ -9752,7 +9750,7 @@
       </c>
     </row>
     <row r="550" spans="1:5">
-      <c r="A550" s="7">
+      <c r="A550" s="6">
         <v>1972</v>
       </c>
       <c r="B550" s="6">
@@ -9769,7 +9767,7 @@
       </c>
     </row>
     <row r="551" spans="1:5">
-      <c r="A551" s="7">
+      <c r="A551" s="6">
         <v>1972</v>
       </c>
       <c r="B551" s="6">
@@ -9786,7 +9784,7 @@
       </c>
     </row>
     <row r="552" spans="1:5">
-      <c r="A552" s="7">
+      <c r="A552" s="6">
         <v>1972</v>
       </c>
       <c r="B552" s="6">
@@ -9803,7 +9801,7 @@
       </c>
     </row>
     <row r="553" spans="1:5">
-      <c r="A553" s="7">
+      <c r="A553" s="6">
         <v>1972</v>
       </c>
       <c r="B553" s="6">
@@ -9820,7 +9818,7 @@
       </c>
     </row>
     <row r="554" spans="1:5">
-      <c r="A554" s="7">
+      <c r="A554" s="6">
         <v>1972</v>
       </c>
       <c r="B554" s="6">
@@ -9837,7 +9835,7 @@
       </c>
     </row>
     <row r="555" spans="1:5">
-      <c r="A555" s="7">
+      <c r="A555" s="6">
         <v>1972</v>
       </c>
       <c r="B555" s="6">
@@ -9854,7 +9852,7 @@
       </c>
     </row>
     <row r="556" spans="1:5">
-      <c r="A556" s="7">
+      <c r="A556" s="6">
         <v>1972</v>
       </c>
       <c r="B556" s="6">
@@ -9871,7 +9869,7 @@
       </c>
     </row>
     <row r="557" spans="1:5">
-      <c r="A557" s="7">
+      <c r="A557" s="6">
         <v>1972</v>
       </c>
       <c r="B557" s="6">
@@ -9888,7 +9886,7 @@
       </c>
     </row>
     <row r="558" spans="1:5">
-      <c r="A558" s="7">
+      <c r="A558" s="6">
         <v>1972</v>
       </c>
       <c r="B558" s="6">
@@ -9905,7 +9903,7 @@
       </c>
     </row>
     <row r="559" spans="1:5">
-      <c r="A559" s="7">
+      <c r="A559" s="6">
         <v>1973</v>
       </c>
       <c r="B559" s="6">
@@ -9922,7 +9920,7 @@
       </c>
     </row>
     <row r="560" spans="1:5">
-      <c r="A560" s="7">
+      <c r="A560" s="6">
         <v>1973</v>
       </c>
       <c r="B560" s="6">
@@ -9939,7 +9937,7 @@
       </c>
     </row>
     <row r="561" spans="1:5">
-      <c r="A561" s="7">
+      <c r="A561" s="6">
         <v>1973</v>
       </c>
       <c r="B561" s="6">
@@ -9956,7 +9954,7 @@
       </c>
     </row>
     <row r="562" spans="1:5">
-      <c r="A562" s="7">
+      <c r="A562" s="6">
         <v>1973</v>
       </c>
       <c r="B562" s="6">
@@ -9973,7 +9971,7 @@
       </c>
     </row>
     <row r="563" spans="1:5">
-      <c r="A563" s="7">
+      <c r="A563" s="6">
         <v>1973</v>
       </c>
       <c r="B563" s="6">
@@ -9990,7 +9988,7 @@
       </c>
     </row>
     <row r="564" spans="1:5">
-      <c r="A564" s="7">
+      <c r="A564" s="6">
         <v>1973</v>
       </c>
       <c r="B564" s="6">
@@ -10007,7 +10005,7 @@
       </c>
     </row>
     <row r="565" spans="1:5">
-      <c r="A565" s="7">
+      <c r="A565" s="6">
         <v>1973</v>
       </c>
       <c r="B565" s="6">
@@ -10024,7 +10022,7 @@
       </c>
     </row>
     <row r="566" spans="1:5">
-      <c r="A566" s="7">
+      <c r="A566" s="6">
         <v>1973</v>
       </c>
       <c r="B566" s="6">
@@ -10041,7 +10039,7 @@
       </c>
     </row>
     <row r="567" spans="1:5">
-      <c r="A567" s="7">
+      <c r="A567" s="6">
         <v>1973</v>
       </c>
       <c r="B567" s="6">
@@ -10058,7 +10056,7 @@
       </c>
     </row>
     <row r="568" spans="1:5">
-      <c r="A568" s="7">
+      <c r="A568" s="6">
         <v>1973</v>
       </c>
       <c r="B568" s="6">
@@ -10075,7 +10073,7 @@
       </c>
     </row>
     <row r="569" spans="1:5">
-      <c r="A569" s="7">
+      <c r="A569" s="6">
         <v>1973</v>
       </c>
       <c r="B569" s="6">
@@ -10092,7 +10090,7 @@
       </c>
     </row>
     <row r="570" spans="1:5">
-      <c r="A570" s="7">
+      <c r="A570" s="6">
         <v>1973</v>
       </c>
       <c r="B570" s="6">
@@ -10109,7 +10107,7 @@
       </c>
     </row>
     <row r="571" spans="1:5">
-      <c r="A571" s="7">
+      <c r="A571" s="6">
         <v>1974</v>
       </c>
       <c r="B571" s="6">
@@ -10126,7 +10124,7 @@
       </c>
     </row>
     <row r="572" spans="1:5">
-      <c r="A572" s="7">
+      <c r="A572" s="6">
         <v>1974</v>
       </c>
       <c r="B572" s="6">
@@ -10143,7 +10141,7 @@
       </c>
     </row>
     <row r="573" spans="1:5">
-      <c r="A573" s="7">
+      <c r="A573" s="6">
         <v>1974</v>
       </c>
       <c r="B573" s="6">
@@ -10160,7 +10158,7 @@
       </c>
     </row>
     <row r="574" spans="1:5">
-      <c r="A574" s="7">
+      <c r="A574" s="6">
         <v>1974</v>
       </c>
       <c r="B574" s="6">
@@ -10177,7 +10175,7 @@
       </c>
     </row>
     <row r="575" spans="1:5">
-      <c r="A575" s="7">
+      <c r="A575" s="6">
         <v>1974</v>
       </c>
       <c r="B575" s="6">
@@ -10194,7 +10192,7 @@
       </c>
     </row>
     <row r="576" spans="1:5">
-      <c r="A576" s="7">
+      <c r="A576" s="6">
         <v>1974</v>
       </c>
       <c r="B576" s="6">
@@ -10211,7 +10209,7 @@
       </c>
     </row>
     <row r="577" spans="1:5">
-      <c r="A577" s="7">
+      <c r="A577" s="6">
         <v>1974</v>
       </c>
       <c r="B577" s="6">
@@ -10228,7 +10226,7 @@
       </c>
     </row>
     <row r="578" spans="1:5">
-      <c r="A578" s="7">
+      <c r="A578" s="6">
         <v>1974</v>
       </c>
       <c r="B578" s="6">
@@ -10245,7 +10243,7 @@
       </c>
     </row>
     <row r="579" spans="1:5">
-      <c r="A579" s="7">
+      <c r="A579" s="6">
         <v>1974</v>
       </c>
       <c r="B579" s="6">
@@ -10262,7 +10260,7 @@
       </c>
     </row>
     <row r="580" spans="1:5">
-      <c r="A580" s="7">
+      <c r="A580" s="6">
         <v>1974</v>
       </c>
       <c r="B580" s="6">
@@ -10279,7 +10277,7 @@
       </c>
     </row>
     <row r="581" spans="1:5">
-      <c r="A581" s="7">
+      <c r="A581" s="6">
         <v>1974</v>
       </c>
       <c r="B581" s="6">
@@ -10296,7 +10294,7 @@
       </c>
     </row>
     <row r="582" spans="1:5">
-      <c r="A582" s="7">
+      <c r="A582" s="6">
         <v>1974</v>
       </c>
       <c r="B582" s="6">
@@ -10313,7 +10311,7 @@
       </c>
     </row>
     <row r="583" spans="1:5">
-      <c r="A583" s="7">
+      <c r="A583" s="6">
         <v>1975</v>
       </c>
       <c r="B583" s="6">
@@ -10330,7 +10328,7 @@
       </c>
     </row>
     <row r="584" spans="1:5">
-      <c r="A584" s="7">
+      <c r="A584" s="6">
         <v>1975</v>
       </c>
       <c r="B584" s="6">
@@ -10347,7 +10345,7 @@
       </c>
     </row>
     <row r="585" spans="1:5">
-      <c r="A585" s="7">
+      <c r="A585" s="6">
         <v>1975</v>
       </c>
       <c r="B585" s="6">
@@ -10364,7 +10362,7 @@
       </c>
     </row>
     <row r="586" spans="1:5">
-      <c r="A586" s="7">
+      <c r="A586" s="6">
         <v>1975</v>
       </c>
       <c r="B586" s="6">
@@ -10381,7 +10379,7 @@
       </c>
     </row>
     <row r="587" spans="1:5">
-      <c r="A587" s="7">
+      <c r="A587" s="6">
         <v>1975</v>
       </c>
       <c r="B587" s="6">
@@ -10398,7 +10396,7 @@
       </c>
     </row>
     <row r="588" spans="1:5">
-      <c r="A588" s="7">
+      <c r="A588" s="6">
         <v>1975</v>
       </c>
       <c r="B588" s="6">
@@ -10415,7 +10413,7 @@
       </c>
     </row>
     <row r="589" spans="1:5">
-      <c r="A589" s="7">
+      <c r="A589" s="6">
         <v>1975</v>
       </c>
       <c r="B589" s="6">
@@ -10432,7 +10430,7 @@
       </c>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="7">
+      <c r="A590" s="6">
         <v>1975</v>
       </c>
       <c r="B590" s="6">
@@ -10449,7 +10447,7 @@
       </c>
     </row>
     <row r="591" spans="1:5">
-      <c r="A591" s="7">
+      <c r="A591" s="6">
         <v>1975</v>
       </c>
       <c r="B591" s="6">
@@ -10466,7 +10464,7 @@
       </c>
     </row>
     <row r="592" spans="1:5">
-      <c r="A592" s="7">
+      <c r="A592" s="6">
         <v>1975</v>
       </c>
       <c r="B592" s="6">
@@ -10483,7 +10481,7 @@
       </c>
     </row>
     <row r="593" spans="1:5">
-      <c r="A593" s="7">
+      <c r="A593" s="6">
         <v>1975</v>
       </c>
       <c r="B593" s="6">
@@ -10500,7 +10498,7 @@
       </c>
     </row>
     <row r="594" spans="1:5">
-      <c r="A594" s="7">
+      <c r="A594" s="6">
         <v>1975</v>
       </c>
       <c r="B594" s="6">
@@ -10517,7 +10515,7 @@
       </c>
     </row>
     <row r="595" spans="1:5">
-      <c r="A595" s="7">
+      <c r="A595" s="6">
         <v>1976</v>
       </c>
       <c r="B595" s="6">
@@ -10534,7 +10532,7 @@
       </c>
     </row>
     <row r="596" spans="1:5">
-      <c r="A596" s="7">
+      <c r="A596" s="6">
         <v>1976</v>
       </c>
       <c r="B596" s="6">
@@ -10551,7 +10549,7 @@
       </c>
     </row>
     <row r="597" spans="1:5">
-      <c r="A597" s="7">
+      <c r="A597" s="6">
         <v>1976</v>
       </c>
       <c r="B597" s="6">
@@ -10568,7 +10566,7 @@
       </c>
     </row>
     <row r="598" spans="1:5">
-      <c r="A598" s="7">
+      <c r="A598" s="6">
         <v>1976</v>
       </c>
       <c r="B598" s="6">
@@ -10585,7 +10583,7 @@
       </c>
     </row>
     <row r="599" spans="1:5">
-      <c r="A599" s="7">
+      <c r="A599" s="6">
         <v>1976</v>
       </c>
       <c r="B599" s="6">
@@ -10602,7 +10600,7 @@
       </c>
     </row>
     <row r="600" spans="1:5">
-      <c r="A600" s="7">
+      <c r="A600" s="6">
         <v>1976</v>
       </c>
       <c r="B600" s="6">
@@ -10619,7 +10617,7 @@
       </c>
     </row>
     <row r="601" spans="1:5">
-      <c r="A601" s="7">
+      <c r="A601" s="6">
         <v>1976</v>
       </c>
       <c r="B601" s="6">
@@ -10636,7 +10634,7 @@
       </c>
     </row>
     <row r="602" spans="1:5">
-      <c r="A602" s="7">
+      <c r="A602" s="6">
         <v>1976</v>
       </c>
       <c r="B602" s="6">
@@ -10653,7 +10651,7 @@
       </c>
     </row>
     <row r="603" spans="1:5">
-      <c r="A603" s="7">
+      <c r="A603" s="6">
         <v>1976</v>
       </c>
       <c r="B603" s="6">
@@ -10670,7 +10668,7 @@
       </c>
     </row>
     <row r="604" spans="1:5">
-      <c r="A604" s="7">
+      <c r="A604" s="6">
         <v>1976</v>
       </c>
       <c r="B604" s="6">
@@ -10687,7 +10685,7 @@
       </c>
     </row>
     <row r="605" spans="1:5">
-      <c r="A605" s="7">
+      <c r="A605" s="6">
         <v>1976</v>
       </c>
       <c r="B605" s="6">
@@ -10704,7 +10702,7 @@
       </c>
     </row>
     <row r="606" spans="1:5">
-      <c r="A606" s="7">
+      <c r="A606" s="6">
         <v>1976</v>
       </c>
       <c r="B606" s="6">
@@ -10721,7 +10719,7 @@
       </c>
     </row>
     <row r="607" spans="1:5">
-      <c r="A607" s="7">
+      <c r="A607" s="6">
         <v>1977</v>
       </c>
       <c r="B607" s="6">
@@ -10738,7 +10736,7 @@
       </c>
     </row>
     <row r="608" spans="1:5">
-      <c r="A608" s="7">
+      <c r="A608" s="6">
         <v>1977</v>
       </c>
       <c r="B608" s="6">
@@ -10755,7 +10753,7 @@
       </c>
     </row>
     <row r="609" spans="1:5">
-      <c r="A609" s="7">
+      <c r="A609" s="6">
         <v>1977</v>
       </c>
       <c r="B609" s="6">
@@ -10772,7 +10770,7 @@
       </c>
     </row>
     <row r="610" spans="1:5">
-      <c r="A610" s="7">
+      <c r="A610" s="6">
         <v>1977</v>
       </c>
       <c r="B610" s="6">
@@ -10789,7 +10787,7 @@
       </c>
     </row>
     <row r="611" spans="1:5">
-      <c r="A611" s="7">
+      <c r="A611" s="6">
         <v>1977</v>
       </c>
       <c r="B611" s="6">
@@ -10806,7 +10804,7 @@
       </c>
     </row>
     <row r="612" spans="1:5">
-      <c r="A612" s="7">
+      <c r="A612" s="6">
         <v>1977</v>
       </c>
       <c r="B612" s="6">
@@ -10823,7 +10821,7 @@
       </c>
     </row>
     <row r="613" spans="1:5">
-      <c r="A613" s="7">
+      <c r="A613" s="6">
         <v>1977</v>
       </c>
       <c r="B613" s="6">
@@ -10840,7 +10838,7 @@
       </c>
     </row>
     <row r="614" spans="1:5">
-      <c r="A614" s="7">
+      <c r="A614" s="6">
         <v>1977</v>
       </c>
       <c r="B614" s="6">
@@ -10857,7 +10855,7 @@
       </c>
     </row>
     <row r="615" spans="1:5">
-      <c r="A615" s="7">
+      <c r="A615" s="6">
         <v>1977</v>
       </c>
       <c r="B615" s="6">
@@ -10874,7 +10872,7 @@
       </c>
     </row>
     <row r="616" spans="1:5">
-      <c r="A616" s="7">
+      <c r="A616" s="6">
         <v>1977</v>
       </c>
       <c r="B616" s="6">
@@ -10891,7 +10889,7 @@
       </c>
     </row>
     <row r="617" spans="1:5">
-      <c r="A617" s="7">
+      <c r="A617" s="6">
         <v>1977</v>
       </c>
       <c r="B617" s="6">
@@ -10908,7 +10906,7 @@
       </c>
     </row>
     <row r="618" spans="1:5">
-      <c r="A618" s="7">
+      <c r="A618" s="6">
         <v>1977</v>
       </c>
       <c r="B618" s="6">
@@ -10925,7 +10923,7 @@
       </c>
     </row>
     <row r="619" spans="1:5">
-      <c r="A619" s="7">
+      <c r="A619" s="6">
         <v>1978</v>
       </c>
       <c r="B619" s="6">
@@ -10942,7 +10940,7 @@
       </c>
     </row>
     <row r="620" spans="1:5">
-      <c r="A620" s="7">
+      <c r="A620" s="6">
         <v>1978</v>
       </c>
       <c r="B620" s="6">
@@ -10959,7 +10957,7 @@
       </c>
     </row>
     <row r="621" spans="1:5">
-      <c r="A621" s="7">
+      <c r="A621" s="6">
         <v>1978</v>
       </c>
       <c r="B621" s="6">
@@ -10976,7 +10974,7 @@
       </c>
     </row>
     <row r="622" spans="1:5">
-      <c r="A622" s="7">
+      <c r="A622" s="6">
         <v>1978</v>
       </c>
       <c r="B622" s="6">
@@ -10993,7 +10991,7 @@
       </c>
     </row>
     <row r="623" spans="1:5">
-      <c r="A623" s="7">
+      <c r="A623" s="6">
         <v>1978</v>
       </c>
       <c r="B623" s="6">
@@ -11010,7 +11008,7 @@
       </c>
     </row>
     <row r="624" spans="1:5">
-      <c r="A624" s="7">
+      <c r="A624" s="6">
         <v>1978</v>
       </c>
       <c r="B624" s="6">
@@ -11027,7 +11025,7 @@
       </c>
     </row>
     <row r="625" spans="1:5">
-      <c r="A625" s="7">
+      <c r="A625" s="6">
         <v>1978</v>
       </c>
       <c r="B625" s="6">
@@ -11044,7 +11042,7 @@
       </c>
     </row>
     <row r="626" spans="1:5">
-      <c r="A626" s="7">
+      <c r="A626" s="6">
         <v>1978</v>
       </c>
       <c r="B626" s="6">
@@ -11061,7 +11059,7 @@
       </c>
     </row>
     <row r="627" spans="1:5">
-      <c r="A627" s="7">
+      <c r="A627" s="6">
         <v>1978</v>
       </c>
       <c r="B627" s="6">
@@ -11078,7 +11076,7 @@
       </c>
     </row>
     <row r="628" spans="1:5">
-      <c r="A628" s="7">
+      <c r="A628" s="6">
         <v>1978</v>
       </c>
       <c r="B628" s="6">
@@ -11095,7 +11093,7 @@
       </c>
     </row>
     <row r="629" spans="1:5">
-      <c r="A629" s="7">
+      <c r="A629" s="6">
         <v>1978</v>
       </c>
       <c r="B629" s="6">
@@ -11112,7 +11110,7 @@
       </c>
     </row>
     <row r="630" spans="1:5">
-      <c r="A630" s="7">
+      <c r="A630" s="6">
         <v>1978</v>
       </c>
       <c r="B630" s="6">
@@ -11129,7 +11127,7 @@
       </c>
     </row>
     <row r="631" spans="1:5">
-      <c r="A631" s="7">
+      <c r="A631" s="6">
         <v>1979</v>
       </c>
       <c r="B631" s="6">
@@ -11146,7 +11144,7 @@
       </c>
     </row>
     <row r="632" spans="1:5">
-      <c r="A632" s="7">
+      <c r="A632" s="6">
         <v>1979</v>
       </c>
       <c r="B632" s="6">
@@ -11163,7 +11161,7 @@
       </c>
     </row>
     <row r="633" spans="1:5">
-      <c r="A633" s="7">
+      <c r="A633" s="6">
         <v>1979</v>
       </c>
       <c r="B633" s="6">
@@ -11180,7 +11178,7 @@
       </c>
     </row>
     <row r="634" spans="1:5">
-      <c r="A634" s="7">
+      <c r="A634" s="6">
         <v>1979</v>
       </c>
       <c r="B634" s="6">
@@ -11197,7 +11195,7 @@
       </c>
     </row>
     <row r="635" spans="1:5">
-      <c r="A635" s="7">
+      <c r="A635" s="6">
         <v>1979</v>
       </c>
       <c r="B635" s="6">
@@ -11214,7 +11212,7 @@
       </c>
     </row>
     <row r="636" spans="1:5">
-      <c r="A636" s="7">
+      <c r="A636" s="6">
         <v>1979</v>
       </c>
       <c r="B636" s="6">
@@ -11231,7 +11229,7 @@
       </c>
     </row>
     <row r="637" spans="1:5">
-      <c r="A637" s="7">
+      <c r="A637" s="6">
         <v>1979</v>
       </c>
       <c r="B637" s="6">
@@ -11248,7 +11246,7 @@
       </c>
     </row>
     <row r="638" spans="1:5">
-      <c r="A638" s="7">
+      <c r="A638" s="6">
         <v>1979</v>
       </c>
       <c r="B638" s="6">
@@ -11265,7 +11263,7 @@
       </c>
     </row>
     <row r="639" spans="1:5">
-      <c r="A639" s="7">
+      <c r="A639" s="6">
         <v>1979</v>
       </c>
       <c r="B639" s="6">
@@ -11282,7 +11280,7 @@
       </c>
     </row>
     <row r="640" spans="1:5">
-      <c r="A640" s="7">
+      <c r="A640" s="6">
         <v>1979</v>
       </c>
       <c r="B640" s="6">
@@ -11299,7 +11297,7 @@
       </c>
     </row>
     <row r="641" spans="1:5">
-      <c r="A641" s="7">
+      <c r="A641" s="6">
         <v>1979</v>
       </c>
       <c r="B641" s="6">
@@ -11316,7 +11314,7 @@
       </c>
     </row>
     <row r="642" spans="1:5">
-      <c r="A642" s="7">
+      <c r="A642" s="6">
         <v>1979</v>
       </c>
       <c r="B642" s="6">
@@ -11333,7 +11331,7 @@
       </c>
     </row>
     <row r="643" spans="1:5">
-      <c r="A643" s="7">
+      <c r="A643" s="6">
         <v>1980</v>
       </c>
       <c r="B643" s="6">
@@ -11350,7 +11348,7 @@
       </c>
     </row>
     <row r="644" spans="1:5">
-      <c r="A644" s="7">
+      <c r="A644" s="6">
         <v>1980</v>
       </c>
       <c r="B644" s="6">
@@ -11367,7 +11365,7 @@
       </c>
     </row>
     <row r="645" spans="1:5">
-      <c r="A645" s="7">
+      <c r="A645" s="6">
         <v>1980</v>
       </c>
       <c r="B645" s="6">
@@ -11384,7 +11382,7 @@
       </c>
     </row>
     <row r="646" spans="1:5">
-      <c r="A646" s="7">
+      <c r="A646" s="6">
         <v>1980</v>
       </c>
       <c r="B646" s="6">
@@ -11401,7 +11399,7 @@
       </c>
     </row>
     <row r="647" spans="1:5">
-      <c r="A647" s="7">
+      <c r="A647" s="6">
         <v>1980</v>
       </c>
       <c r="B647" s="6">
@@ -11418,7 +11416,7 @@
       </c>
     </row>
     <row r="648" spans="1:5">
-      <c r="A648" s="7">
+      <c r="A648" s="6">
         <v>1980</v>
       </c>
       <c r="B648" s="6">
@@ -11435,7 +11433,7 @@
       </c>
     </row>
     <row r="649" spans="1:5">
-      <c r="A649" s="7">
+      <c r="A649" s="6">
         <v>1980</v>
       </c>
       <c r="B649" s="6">
@@ -11452,7 +11450,7 @@
       </c>
     </row>
     <row r="650" spans="1:5">
-      <c r="A650" s="7">
+      <c r="A650" s="6">
         <v>1980</v>
       </c>
       <c r="B650" s="6">
@@ -11469,7 +11467,7 @@
       </c>
     </row>
     <row r="651" spans="1:5">
-      <c r="A651" s="7">
+      <c r="A651" s="6">
         <v>1980</v>
       </c>
       <c r="B651" s="6">
@@ -11486,7 +11484,7 @@
       </c>
     </row>
     <row r="652" spans="1:5">
-      <c r="A652" s="7">
+      <c r="A652" s="6">
         <v>1980</v>
       </c>
       <c r="B652" s="6">
@@ -11503,7 +11501,7 @@
       </c>
     </row>
     <row r="653" spans="1:5">
-      <c r="A653" s="7">
+      <c r="A653" s="6">
         <v>1980</v>
       </c>
       <c r="B653" s="6">
@@ -11520,7 +11518,7 @@
       </c>
     </row>
     <row r="654" spans="1:5">
-      <c r="A654" s="7">
+      <c r="A654" s="6">
         <v>1980</v>
       </c>
       <c r="B654" s="6">
@@ -11537,7 +11535,7 @@
       </c>
     </row>
     <row r="655" spans="1:5">
-      <c r="A655" s="7">
+      <c r="A655" s="6">
         <v>1981</v>
       </c>
       <c r="B655" s="6">
@@ -11554,7 +11552,7 @@
       </c>
     </row>
     <row r="656" spans="1:5">
-      <c r="A656" s="7">
+      <c r="A656" s="6">
         <v>1981</v>
       </c>
       <c r="B656" s="6">
@@ -11571,7 +11569,7 @@
       </c>
     </row>
     <row r="657" spans="1:5">
-      <c r="A657" s="7">
+      <c r="A657" s="6">
         <v>1981</v>
       </c>
       <c r="B657" s="6">
@@ -11588,7 +11586,7 @@
       </c>
     </row>
     <row r="658" spans="1:5">
-      <c r="A658" s="7">
+      <c r="A658" s="6">
         <v>1981</v>
       </c>
       <c r="B658" s="6">
@@ -11605,7 +11603,7 @@
       </c>
     </row>
     <row r="659" spans="1:5">
-      <c r="A659" s="7">
+      <c r="A659" s="6">
         <v>1981</v>
       </c>
       <c r="B659" s="6">
@@ -11622,7 +11620,7 @@
       </c>
     </row>
     <row r="660" spans="1:5">
-      <c r="A660" s="7">
+      <c r="A660" s="6">
         <v>1981</v>
       </c>
       <c r="B660" s="6">
@@ -11639,7 +11637,7 @@
       </c>
     </row>
     <row r="661" spans="1:5">
-      <c r="A661" s="7">
+      <c r="A661" s="6">
         <v>1981</v>
       </c>
       <c r="B661" s="6">
@@ -11656,7 +11654,7 @@
       </c>
     </row>
     <row r="662" spans="1:5">
-      <c r="A662" s="7">
+      <c r="A662" s="6">
         <v>1981</v>
       </c>
       <c r="B662" s="6">
@@ -11673,7 +11671,7 @@
       </c>
     </row>
     <row r="663" spans="1:5">
-      <c r="A663" s="7">
+      <c r="A663" s="6">
         <v>1981</v>
       </c>
       <c r="B663" s="6">
@@ -11690,7 +11688,7 @@
       </c>
     </row>
     <row r="664" spans="1:5">
-      <c r="A664" s="7">
+      <c r="A664" s="6">
         <v>1981</v>
       </c>
       <c r="B664" s="6">
@@ -11707,7 +11705,7 @@
       </c>
     </row>
     <row r="665" spans="1:5">
-      <c r="A665" s="7">
+      <c r="A665" s="6">
         <v>1981</v>
       </c>
       <c r="B665" s="6">
@@ -11724,7 +11722,7 @@
       </c>
     </row>
     <row r="666" spans="1:5">
-      <c r="A666" s="7">
+      <c r="A666" s="6">
         <v>1981</v>
       </c>
       <c r="B666" s="6">
@@ -11741,7 +11739,7 @@
       </c>
     </row>
     <row r="667" spans="1:5">
-      <c r="A667" s="7">
+      <c r="A667" s="6">
         <v>1982</v>
       </c>
       <c r="B667" s="6">
@@ -11758,7 +11756,7 @@
       </c>
     </row>
     <row r="668" spans="1:5">
-      <c r="A668" s="7">
+      <c r="A668" s="6">
         <v>1982</v>
       </c>
       <c r="B668" s="6">
@@ -11775,7 +11773,7 @@
       </c>
     </row>
     <row r="669" spans="1:5">
-      <c r="A669" s="7">
+      <c r="A669" s="6">
         <v>1982</v>
       </c>
       <c r="B669" s="6">
@@ -11792,7 +11790,7 @@
       </c>
     </row>
     <row r="670" spans="1:5">
-      <c r="A670" s="7">
+      <c r="A670" s="6">
         <v>1982</v>
       </c>
       <c r="B670" s="6">
@@ -11809,7 +11807,7 @@
       </c>
     </row>
     <row r="671" spans="1:5">
-      <c r="A671" s="7">
+      <c r="A671" s="6">
         <v>1982</v>
       </c>
       <c r="B671" s="6">
@@ -11826,7 +11824,7 @@
       </c>
     </row>
     <row r="672" spans="1:5">
-      <c r="A672" s="7">
+      <c r="A672" s="6">
         <v>1982</v>
       </c>
       <c r="B672" s="6">
@@ -11843,7 +11841,7 @@
       </c>
     </row>
     <row r="673" spans="1:5">
-      <c r="A673" s="7">
+      <c r="A673" s="6">
         <v>1982</v>
       </c>
       <c r="B673" s="6">
@@ -11860,7 +11858,7 @@
       </c>
     </row>
     <row r="674" spans="1:5">
-      <c r="A674" s="7">
+      <c r="A674" s="6">
         <v>1982</v>
       </c>
       <c r="B674" s="6">
@@ -11877,7 +11875,7 @@
       </c>
     </row>
     <row r="675" spans="1:5">
-      <c r="A675" s="7">
+      <c r="A675" s="6">
         <v>1982</v>
       </c>
       <c r="B675" s="6">
@@ -11894,7 +11892,7 @@
       </c>
     </row>
     <row r="676" spans="1:5">
-      <c r="A676" s="7">
+      <c r="A676" s="6">
         <v>1982</v>
       </c>
       <c r="B676" s="6">
@@ -11911,7 +11909,7 @@
       </c>
     </row>
     <row r="677" spans="1:5">
-      <c r="A677" s="7">
+      <c r="A677" s="6">
         <v>1982</v>
       </c>
       <c r="B677" s="6">
@@ -11928,7 +11926,7 @@
       </c>
     </row>
     <row r="678" spans="1:5">
-      <c r="A678" s="7">
+      <c r="A678" s="6">
         <v>1982</v>
       </c>
       <c r="B678" s="6">
@@ -11945,7 +11943,7 @@
       </c>
     </row>
     <row r="679" spans="1:5">
-      <c r="A679" s="7">
+      <c r="A679" s="6">
         <v>1983</v>
       </c>
       <c r="B679" s="6">
@@ -11962,7 +11960,7 @@
       </c>
     </row>
     <row r="680" spans="1:5">
-      <c r="A680" s="7">
+      <c r="A680" s="6">
         <v>1983</v>
       </c>
       <c r="B680" s="6">
@@ -11979,7 +11977,7 @@
       </c>
     </row>
     <row r="681" spans="1:5">
-      <c r="A681" s="7">
+      <c r="A681" s="6">
         <v>1983</v>
       </c>
       <c r="B681" s="6">
@@ -11996,7 +11994,7 @@
       </c>
     </row>
     <row r="682" spans="1:5">
-      <c r="A682" s="7">
+      <c r="A682" s="6">
         <v>1983</v>
       </c>
       <c r="B682" s="6">
@@ -12013,7 +12011,7 @@
       </c>
     </row>
     <row r="683" spans="1:5">
-      <c r="A683" s="7">
+      <c r="A683" s="6">
         <v>1983</v>
       </c>
       <c r="B683" s="6">
@@ -12030,7 +12028,7 @@
       </c>
     </row>
     <row r="684" spans="1:5">
-      <c r="A684" s="7">
+      <c r="A684" s="6">
         <v>1983</v>
       </c>
       <c r="B684" s="6">
@@ -12047,7 +12045,7 @@
       </c>
     </row>
     <row r="685" spans="1:5">
-      <c r="A685" s="7">
+      <c r="A685" s="6">
         <v>1983</v>
       </c>
       <c r="B685" s="6">
@@ -12064,7 +12062,7 @@
       </c>
     </row>
     <row r="686" spans="1:5">
-      <c r="A686" s="7">
+      <c r="A686" s="6">
         <v>1983</v>
       </c>
       <c r="B686" s="6">
@@ -12081,7 +12079,7 @@
       </c>
     </row>
     <row r="687" spans="1:5">
-      <c r="A687" s="7">
+      <c r="A687" s="6">
         <v>1983</v>
       </c>
       <c r="B687" s="6">
@@ -12098,7 +12096,7 @@
       </c>
     </row>
     <row r="688" spans="1:5">
-      <c r="A688" s="7">
+      <c r="A688" s="6">
         <v>1983</v>
       </c>
       <c r="B688" s="6">
@@ -12115,7 +12113,7 @@
       </c>
     </row>
     <row r="689" spans="1:5">
-      <c r="A689" s="7">
+      <c r="A689" s="6">
         <v>1983</v>
       </c>
       <c r="B689" s="6">
@@ -12132,7 +12130,7 @@
       </c>
     </row>
     <row r="690" spans="1:5">
-      <c r="A690" s="7">
+      <c r="A690" s="6">
         <v>1983</v>
       </c>
       <c r="B690" s="6">
@@ -12149,7 +12147,7 @@
       </c>
     </row>
     <row r="691" spans="1:5">
-      <c r="A691" s="7">
+      <c r="A691" s="6">
         <v>1984</v>
       </c>
       <c r="B691" s="6">
@@ -12166,7 +12164,7 @@
       </c>
     </row>
     <row r="692" spans="1:5">
-      <c r="A692" s="7">
+      <c r="A692" s="6">
         <v>1984</v>
       </c>
       <c r="B692" s="6">
@@ -12183,7 +12181,7 @@
       </c>
     </row>
     <row r="693" spans="1:5">
-      <c r="A693" s="7">
+      <c r="A693" s="6">
         <v>1984</v>
       </c>
       <c r="B693" s="6">
@@ -12200,7 +12198,7 @@
       </c>
     </row>
     <row r="694" spans="1:5">
-      <c r="A694" s="7">
+      <c r="A694" s="6">
         <v>1984</v>
       </c>
       <c r="B694" s="6">
@@ -12217,7 +12215,7 @@
       </c>
     </row>
     <row r="695" spans="1:5">
-      <c r="A695" s="7">
+      <c r="A695" s="6">
         <v>1984</v>
       </c>
       <c r="B695" s="6">
@@ -12234,7 +12232,7 @@
       </c>
     </row>
     <row r="696" spans="1:5">
-      <c r="A696" s="7">
+      <c r="A696" s="6">
         <v>1984</v>
       </c>
       <c r="B696" s="6">
@@ -12251,7 +12249,7 @@
       </c>
     </row>
     <row r="697" spans="1:5">
-      <c r="A697" s="7">
+      <c r="A697" s="6">
         <v>1984</v>
       </c>
       <c r="B697" s="6">
@@ -12268,7 +12266,7 @@
       </c>
     </row>
     <row r="698" spans="1:5">
-      <c r="A698" s="7">
+      <c r="A698" s="6">
         <v>1984</v>
       </c>
       <c r="B698" s="6">
@@ -12285,7 +12283,7 @@
       </c>
     </row>
     <row r="699" spans="1:5">
-      <c r="A699" s="7">
+      <c r="A699" s="6">
         <v>1984</v>
       </c>
       <c r="B699" s="6">
@@ -12302,7 +12300,7 @@
       </c>
     </row>
     <row r="700" spans="1:5">
-      <c r="A700" s="7">
+      <c r="A700" s="6">
         <v>1984</v>
       </c>
       <c r="B700" s="6">
@@ -12319,7 +12317,7 @@
       </c>
     </row>
     <row r="701" spans="1:5">
-      <c r="A701" s="7">
+      <c r="A701" s="6">
         <v>1984</v>
       </c>
       <c r="B701" s="6">
@@ -12336,7 +12334,7 @@
       </c>
     </row>
     <row r="702" spans="1:5">
-      <c r="A702" s="7">
+      <c r="A702" s="6">
         <v>1984</v>
       </c>
       <c r="B702" s="6">
@@ -12353,7 +12351,7 @@
       </c>
     </row>
     <row r="703" spans="1:5">
-      <c r="A703" s="7">
+      <c r="A703" s="6">
         <v>1985</v>
       </c>
       <c r="B703" s="6">
@@ -12370,7 +12368,7 @@
       </c>
     </row>
     <row r="704" spans="1:5">
-      <c r="A704" s="7">
+      <c r="A704" s="6">
         <v>1985</v>
       </c>
       <c r="B704" s="6">
@@ -12387,7 +12385,7 @@
       </c>
     </row>
     <row r="705" spans="1:5">
-      <c r="A705" s="7">
+      <c r="A705" s="6">
         <v>1985</v>
       </c>
       <c r="B705" s="6">
@@ -12404,7 +12402,7 @@
       </c>
     </row>
     <row r="706" spans="1:5">
-      <c r="A706" s="7">
+      <c r="A706" s="6">
         <v>1985</v>
       </c>
       <c r="B706" s="6">
@@ -12421,7 +12419,7 @@
       </c>
     </row>
     <row r="707" spans="1:5">
-      <c r="A707" s="7">
+      <c r="A707" s="6">
         <v>1985</v>
       </c>
       <c r="B707" s="6">
@@ -12438,7 +12436,7 @@
       </c>
     </row>
     <row r="708" spans="1:5">
-      <c r="A708" s="7">
+      <c r="A708" s="6">
         <v>1985</v>
       </c>
       <c r="B708" s="6">
@@ -12455,7 +12453,7 @@
       </c>
     </row>
     <row r="709" spans="1:5">
-      <c r="A709" s="7">
+      <c r="A709" s="6">
         <v>1985</v>
       </c>
       <c r="B709" s="6">
@@ -12472,7 +12470,7 @@
       </c>
     </row>
     <row r="710" spans="1:5">
-      <c r="A710" s="7">
+      <c r="A710" s="6">
         <v>1985</v>
       </c>
       <c r="B710" s="6">
@@ -12489,7 +12487,7 @@
       </c>
     </row>
     <row r="711" spans="1:5">
-      <c r="A711" s="7">
+      <c r="A711" s="6">
         <v>1985</v>
       </c>
       <c r="B711" s="6">
@@ -12506,7 +12504,7 @@
       </c>
     </row>
     <row r="712" spans="1:5">
-      <c r="A712" s="7">
+      <c r="A712" s="6">
         <v>1985</v>
       </c>
       <c r="B712" s="6">
@@ -12523,7 +12521,7 @@
       </c>
     </row>
     <row r="713" spans="1:5">
-      <c r="A713" s="7">
+      <c r="A713" s="6">
         <v>1985</v>
       </c>
       <c r="B713" s="6">
@@ -12540,7 +12538,7 @@
       </c>
     </row>
     <row r="714" spans="1:5">
-      <c r="A714" s="7">
+      <c r="A714" s="6">
         <v>1985</v>
       </c>
       <c r="B714" s="6">
@@ -12557,7 +12555,7 @@
       </c>
     </row>
     <row r="715" spans="1:5">
-      <c r="A715" s="7">
+      <c r="A715" s="6">
         <v>1986</v>
       </c>
       <c r="B715" s="6">
@@ -12574,7 +12572,7 @@
       </c>
     </row>
     <row r="716" spans="1:5">
-      <c r="A716" s="7">
+      <c r="A716" s="6">
         <v>1986</v>
       </c>
       <c r="B716" s="6">
@@ -12591,7 +12589,7 @@
       </c>
     </row>
     <row r="717" spans="1:5">
-      <c r="A717" s="7">
+      <c r="A717" s="6">
         <v>1986</v>
       </c>
       <c r="B717" s="6">
@@ -12608,7 +12606,7 @@
       </c>
     </row>
     <row r="718" spans="1:5">
-      <c r="A718" s="7">
+      <c r="A718" s="6">
         <v>1986</v>
       </c>
       <c r="B718" s="6">
@@ -12625,7 +12623,7 @@
       </c>
     </row>
     <row r="719" spans="1:5">
-      <c r="A719" s="7">
+      <c r="A719" s="6">
         <v>1986</v>
       </c>
       <c r="B719" s="6">
@@ -12642,7 +12640,7 @@
       </c>
     </row>
     <row r="720" spans="1:5">
-      <c r="A720" s="7">
+      <c r="A720" s="6">
         <v>1986</v>
       </c>
       <c r="B720" s="6">
@@ -12659,7 +12657,7 @@
       </c>
     </row>
     <row r="721" spans="1:5">
-      <c r="A721" s="7">
+      <c r="A721" s="6">
         <v>1986</v>
       </c>
       <c r="B721" s="6">
@@ -12676,7 +12674,7 @@
       </c>
     </row>
     <row r="722" spans="1:5">
-      <c r="A722" s="7">
+      <c r="A722" s="6">
         <v>1986</v>
       </c>
       <c r="B722" s="6">
@@ -12693,7 +12691,7 @@
       </c>
     </row>
     <row r="723" spans="1:5">
-      <c r="A723" s="7">
+      <c r="A723" s="6">
         <v>1986</v>
       </c>
       <c r="B723" s="6">
@@ -12710,7 +12708,7 @@
       </c>
     </row>
     <row r="724" spans="1:5">
-      <c r="A724" s="7">
+      <c r="A724" s="6">
         <v>1986</v>
       </c>
       <c r="B724" s="6">
@@ -12727,7 +12725,7 @@
       </c>
     </row>
     <row r="725" spans="1:5">
-      <c r="A725" s="7">
+      <c r="A725" s="6">
         <v>1986</v>
       </c>
       <c r="B725" s="6">
@@ -12744,7 +12742,7 @@
       </c>
     </row>
     <row r="726" spans="1:5">
-      <c r="A726" s="7">
+      <c r="A726" s="6">
         <v>1986</v>
       </c>
       <c r="B726" s="6">
@@ -12761,7 +12759,7 @@
       </c>
     </row>
     <row r="727" spans="1:5">
-      <c r="A727" s="7">
+      <c r="A727" s="6">
         <v>1987</v>
       </c>
       <c r="B727" s="6">
@@ -12778,7 +12776,7 @@
       </c>
     </row>
     <row r="728" spans="1:5">
-      <c r="A728" s="7">
+      <c r="A728" s="6">
         <v>1987</v>
       </c>
       <c r="B728" s="6">
@@ -12795,7 +12793,7 @@
       </c>
     </row>
     <row r="729" spans="1:5">
-      <c r="A729" s="7">
+      <c r="A729" s="6">
         <v>1987</v>
       </c>
       <c r="B729" s="6">
@@ -12812,7 +12810,7 @@
       </c>
     </row>
     <row r="730" spans="1:5">
-      <c r="A730" s="7">
+      <c r="A730" s="6">
         <v>1987</v>
       </c>
       <c r="B730" s="6">
@@ -12829,7 +12827,7 @@
       </c>
     </row>
     <row r="731" spans="1:5">
-      <c r="A731" s="7">
+      <c r="A731" s="6">
         <v>1987</v>
       </c>
       <c r="B731" s="6">
@@ -12846,7 +12844,7 @@
       </c>
     </row>
     <row r="732" spans="1:5">
-      <c r="A732" s="7">
+      <c r="A732" s="6">
         <v>1987</v>
       </c>
       <c r="B732" s="6">
@@ -12863,7 +12861,7 @@
       </c>
     </row>
     <row r="733" spans="1:5">
-      <c r="A733" s="7">
+      <c r="A733" s="6">
         <v>1987</v>
       </c>
       <c r="B733" s="6">
@@ -12880,7 +12878,7 @@
       </c>
     </row>
     <row r="734" spans="1:5">
-      <c r="A734" s="7">
+      <c r="A734" s="6">
         <v>1987</v>
       </c>
       <c r="B734" s="6">
@@ -12897,7 +12895,7 @@
       </c>
     </row>
     <row r="735" spans="1:5">
-      <c r="A735" s="7">
+      <c r="A735" s="6">
         <v>1987</v>
       </c>
       <c r="B735" s="6">
@@ -12914,7 +12912,7 @@
       </c>
     </row>
     <row r="736" spans="1:5">
-      <c r="A736" s="7">
+      <c r="A736" s="6">
         <v>1987</v>
       </c>
       <c r="B736" s="6">
@@ -12931,7 +12929,7 @@
       </c>
     </row>
     <row r="737" spans="1:5">
-      <c r="A737" s="7">
+      <c r="A737" s="6">
         <v>1987</v>
       </c>
       <c r="B737" s="6">
@@ -12948,7 +12946,7 @@
       </c>
     </row>
     <row r="738" spans="1:5">
-      <c r="A738" s="7">
+      <c r="A738" s="6">
         <v>1987</v>
       </c>
       <c r="B738" s="6">
@@ -12965,7 +12963,7 @@
       </c>
     </row>
     <row r="739" spans="1:5">
-      <c r="A739" s="7">
+      <c r="A739" s="6">
         <v>1988</v>
       </c>
       <c r="B739" s="6">
@@ -12982,7 +12980,7 @@
       </c>
     </row>
     <row r="740" spans="1:5">
-      <c r="A740" s="7">
+      <c r="A740" s="6">
         <v>1988</v>
       </c>
       <c r="B740" s="6">
@@ -12999,7 +12997,7 @@
       </c>
     </row>
     <row r="741" spans="1:5">
-      <c r="A741" s="7">
+      <c r="A741" s="6">
         <v>1988</v>
       </c>
       <c r="B741" s="6">
@@ -13016,7 +13014,7 @@
       </c>
     </row>
     <row r="742" spans="1:5">
-      <c r="A742" s="7">
+      <c r="A742" s="6">
         <v>1988</v>
       </c>
       <c r="B742" s="6">
@@ -13033,7 +13031,7 @@
       </c>
     </row>
     <row r="743" spans="1:5">
-      <c r="A743" s="7">
+      <c r="A743" s="6">
         <v>1988</v>
       </c>
       <c r="B743" s="6">
@@ -13050,7 +13048,7 @@
       </c>
     </row>
     <row r="744" spans="1:5">
-      <c r="A744" s="7">
+      <c r="A744" s="6">
         <v>1988</v>
       </c>
       <c r="B744" s="6">
@@ -13067,7 +13065,7 @@
       </c>
     </row>
     <row r="745" spans="1:5">
-      <c r="A745" s="7">
+      <c r="A745" s="6">
         <v>1988</v>
       </c>
       <c r="B745" s="6">
@@ -13084,7 +13082,7 @@
       </c>
     </row>
     <row r="746" spans="1:5">
-      <c r="A746" s="7">
+      <c r="A746" s="6">
         <v>1988</v>
       </c>
       <c r="B746" s="6">
@@ -13101,7 +13099,7 @@
       </c>
     </row>
     <row r="747" spans="1:5">
-      <c r="A747" s="7">
+      <c r="A747" s="6">
         <v>1988</v>
       </c>
       <c r="B747" s="6">
@@ -13118,7 +13116,7 @@
       </c>
     </row>
     <row r="748" spans="1:5">
-      <c r="A748" s="7">
+      <c r="A748" s="6">
         <v>1988</v>
       </c>
       <c r="B748" s="6">
@@ -13135,7 +13133,7 @@
       </c>
     </row>
     <row r="749" spans="1:5">
-      <c r="A749" s="7">
+      <c r="A749" s="6">
         <v>1988</v>
       </c>
       <c r="B749" s="6">
@@ -13152,7 +13150,7 @@
       </c>
     </row>
     <row r="750" spans="1:5">
-      <c r="A750" s="7">
+      <c r="A750" s="6">
         <v>1988</v>
       </c>
       <c r="B750" s="6">
@@ -13169,7 +13167,7 @@
       </c>
     </row>
     <row r="751" spans="1:5">
-      <c r="A751" s="7">
+      <c r="A751" s="6">
         <v>1989</v>
       </c>
       <c r="B751" s="6">
@@ -13186,7 +13184,7 @@
       </c>
     </row>
     <row r="752" spans="1:5">
-      <c r="A752" s="7">
+      <c r="A752" s="6">
         <v>1989</v>
       </c>
       <c r="B752" s="6">
@@ -13203,7 +13201,7 @@
       </c>
     </row>
     <row r="753" spans="1:5">
-      <c r="A753" s="7">
+      <c r="A753" s="6">
         <v>1989</v>
       </c>
       <c r="B753" s="6">
@@ -13220,7 +13218,7 @@
       </c>
     </row>
     <row r="754" spans="1:5">
-      <c r="A754" s="7">
+      <c r="A754" s="6">
         <v>1989</v>
       </c>
       <c r="B754" s="6">
@@ -13237,7 +13235,7 @@
       </c>
     </row>
     <row r="755" spans="1:5">
-      <c r="A755" s="7">
+      <c r="A755" s="6">
         <v>1989</v>
       </c>
       <c r="B755" s="6">
@@ -13254,7 +13252,7 @@
       </c>
     </row>
     <row r="756" spans="1:5">
-      <c r="A756" s="7">
+      <c r="A756" s="6">
         <v>1989</v>
       </c>
       <c r="B756" s="6">
@@ -13271,7 +13269,7 @@
       </c>
     </row>
     <row r="757" spans="1:5">
-      <c r="A757" s="7">
+      <c r="A757" s="6">
         <v>1989</v>
       </c>
       <c r="B757" s="6">
@@ -13288,7 +13286,7 @@
       </c>
     </row>
     <row r="758" spans="1:5">
-      <c r="A758" s="7">
+      <c r="A758" s="6">
         <v>1989</v>
       </c>
       <c r="B758" s="6">
@@ -13305,7 +13303,7 @@
       </c>
     </row>
     <row r="759" spans="1:5">
-      <c r="A759" s="7">
+      <c r="A759" s="6">
         <v>1989</v>
       </c>
       <c r="B759" s="6">
@@ -13322,7 +13320,7 @@
       </c>
     </row>
     <row r="760" spans="1:5">
-      <c r="A760" s="7">
+      <c r="A760" s="6">
         <v>1989</v>
       </c>
       <c r="B760" s="6">
@@ -13339,7 +13337,7 @@
       </c>
     </row>
     <row r="761" spans="1:5">
-      <c r="A761" s="7">
+      <c r="A761" s="6">
         <v>1989</v>
       </c>
       <c r="B761" s="6">
@@ -13356,7 +13354,7 @@
       </c>
     </row>
     <row r="762" spans="1:5">
-      <c r="A762" s="7">
+      <c r="A762" s="6">
         <v>1989</v>
       </c>
       <c r="B762" s="6">
@@ -13373,7 +13371,7 @@
       </c>
     </row>
     <row r="763" spans="1:5">
-      <c r="A763" s="7">
+      <c r="A763" s="6">
         <v>1990</v>
       </c>
       <c r="B763" s="6">
@@ -13390,7 +13388,7 @@
       </c>
     </row>
     <row r="764" spans="1:5">
-      <c r="A764" s="7">
+      <c r="A764" s="6">
         <v>1990</v>
       </c>
       <c r="B764" s="6">
@@ -13407,7 +13405,7 @@
       </c>
     </row>
     <row r="765" spans="1:5">
-      <c r="A765" s="7">
+      <c r="A765" s="6">
         <v>1990</v>
       </c>
       <c r="B765" s="6">
@@ -13424,7 +13422,7 @@
       </c>
     </row>
     <row r="766" spans="1:5">
-      <c r="A766" s="7">
+      <c r="A766" s="6">
         <v>1990</v>
       </c>
       <c r="B766" s="6">
@@ -13441,7 +13439,7 @@
       </c>
     </row>
     <row r="767" spans="1:5">
-      <c r="A767" s="7">
+      <c r="A767" s="6">
         <v>1990</v>
       </c>
       <c r="B767" s="6">
@@ -13458,7 +13456,7 @@
       </c>
     </row>
     <row r="768" spans="1:5">
-      <c r="A768" s="7">
+      <c r="A768" s="6">
         <v>1990</v>
       </c>
       <c r="B768" s="6">
@@ -13475,7 +13473,7 @@
       </c>
     </row>
     <row r="769" spans="1:5">
-      <c r="A769" s="7">
+      <c r="A769" s="6">
         <v>1990</v>
       </c>
       <c r="B769" s="6">
@@ -13492,7 +13490,7 @@
       </c>
     </row>
     <row r="770" spans="1:5">
-      <c r="A770" s="7">
+      <c r="A770" s="6">
         <v>1990</v>
       </c>
       <c r="B770" s="6">
@@ -13509,7 +13507,7 @@
       </c>
     </row>
     <row r="771" spans="1:5">
-      <c r="A771" s="7">
+      <c r="A771" s="6">
         <v>1990</v>
       </c>
       <c r="B771" s="6">
@@ -13526,7 +13524,7 @@
       </c>
     </row>
     <row r="772" spans="1:5">
-      <c r="A772" s="7">
+      <c r="A772" s="6">
         <v>1990</v>
       </c>
       <c r="B772" s="6">
@@ -13543,7 +13541,7 @@
       </c>
     </row>
     <row r="773" spans="1:5">
-      <c r="A773" s="7">
+      <c r="A773" s="6">
         <v>1990</v>
       </c>
       <c r="B773" s="6">
@@ -13560,7 +13558,7 @@
       </c>
     </row>
     <row r="774" spans="1:5">
-      <c r="A774" s="7">
+      <c r="A774" s="6">
         <v>1990</v>
       </c>
       <c r="B774" s="6">
@@ -13577,7 +13575,7 @@
       </c>
     </row>
     <row r="775" spans="1:5">
-      <c r="A775" s="7">
+      <c r="A775" s="6">
         <v>1991</v>
       </c>
       <c r="B775" s="6">
@@ -13594,7 +13592,7 @@
       </c>
     </row>
     <row r="776" spans="1:5">
-      <c r="A776" s="7">
+      <c r="A776" s="6">
         <v>1991</v>
       </c>
       <c r="B776" s="6">
@@ -13611,7 +13609,7 @@
       </c>
     </row>
     <row r="777" spans="1:5">
-      <c r="A777" s="7">
+      <c r="A777" s="6">
         <v>1991</v>
       </c>
       <c r="B777" s="6">
@@ -13628,7 +13626,7 @@
       </c>
     </row>
     <row r="778" spans="1:5">
-      <c r="A778" s="7">
+      <c r="A778" s="6">
         <v>1991</v>
       </c>
       <c r="B778" s="6">
@@ -13645,7 +13643,7 @@
       </c>
     </row>
     <row r="779" spans="1:5">
-      <c r="A779" s="7">
+      <c r="A779" s="6">
         <v>1991</v>
       </c>
       <c r="B779" s="6">
@@ -13662,7 +13660,7 @@
       </c>
     </row>
     <row r="780" spans="1:5">
-      <c r="A780" s="7">
+      <c r="A780" s="6">
         <v>1991</v>
       </c>
       <c r="B780" s="6">
@@ -13679,7 +13677,7 @@
       </c>
     </row>
     <row r="781" spans="1:5">
-      <c r="A781" s="7">
+      <c r="A781" s="6">
         <v>1991</v>
       </c>
       <c r="B781" s="6">
@@ -13696,7 +13694,7 @@
       </c>
     </row>
     <row r="782" spans="1:5">
-      <c r="A782" s="7">
+      <c r="A782" s="6">
         <v>1991</v>
       </c>
       <c r="B782" s="6">
@@ -13713,7 +13711,7 @@
       </c>
     </row>
     <row r="783" spans="1:5">
-      <c r="A783" s="7">
+      <c r="A783" s="6">
         <v>1991</v>
       </c>
       <c r="B783" s="6">
@@ -13730,7 +13728,7 @@
       </c>
     </row>
     <row r="784" spans="1:5">
-      <c r="A784" s="7">
+      <c r="A784" s="6">
         <v>1991</v>
       </c>
       <c r="B784" s="6">
@@ -13747,7 +13745,7 @@
       </c>
     </row>
     <row r="785" spans="1:5">
-      <c r="A785" s="7">
+      <c r="A785" s="6">
         <v>1991</v>
       </c>
       <c r="B785" s="6">
@@ -13764,7 +13762,7 @@
       </c>
     </row>
     <row r="786" spans="1:5">
-      <c r="A786" s="7">
+      <c r="A786" s="6">
         <v>1991</v>
       </c>
       <c r="B786" s="6">
@@ -13781,7 +13779,7 @@
       </c>
     </row>
     <row r="787" spans="1:5">
-      <c r="A787" s="7">
+      <c r="A787" s="6">
         <v>1992</v>
       </c>
       <c r="B787" s="6">
@@ -13798,7 +13796,7 @@
       </c>
     </row>
     <row r="788" spans="1:5">
-      <c r="A788" s="7">
+      <c r="A788" s="6">
         <v>1992</v>
       </c>
       <c r="B788" s="6">
@@ -13815,7 +13813,7 @@
       </c>
     </row>
     <row r="789" spans="1:5">
-      <c r="A789" s="7">
+      <c r="A789" s="6">
         <v>1992</v>
       </c>
       <c r="B789" s="6">
@@ -13832,7 +13830,7 @@
       </c>
     </row>
     <row r="790" spans="1:5">
-      <c r="A790" s="7">
+      <c r="A790" s="6">
         <v>1992</v>
       </c>
       <c r="B790" s="6">
@@ -13849,7 +13847,7 @@
       </c>
     </row>
     <row r="791" spans="1:5">
-      <c r="A791" s="7">
+      <c r="A791" s="6">
         <v>1992</v>
       </c>
       <c r="B791" s="6">
@@ -13866,7 +13864,7 @@
       </c>
     </row>
     <row r="792" spans="1:5">
-      <c r="A792" s="7">
+      <c r="A792" s="6">
         <v>1992</v>
       </c>
       <c r="B792" s="6">
@@ -13883,7 +13881,7 @@
       </c>
     </row>
     <row r="793" spans="1:5">
-      <c r="A793" s="7">
+      <c r="A793" s="6">
         <v>1992</v>
       </c>
       <c r="B793" s="6">
@@ -13900,7 +13898,7 @@
       </c>
     </row>
     <row r="794" spans="1:5">
-      <c r="A794" s="7">
+      <c r="A794" s="6">
         <v>1992</v>
       </c>
       <c r="B794" s="6">
@@ -13917,7 +13915,7 @@
       </c>
     </row>
     <row r="795" spans="1:5">
-      <c r="A795" s="7">
+      <c r="A795" s="6">
         <v>1992</v>
       </c>
       <c r="B795" s="6">
@@ -13934,7 +13932,7 @@
       </c>
     </row>
     <row r="796" spans="1:5">
-      <c r="A796" s="7">
+      <c r="A796" s="6">
         <v>1992</v>
       </c>
       <c r="B796" s="6">
@@ -13951,7 +13949,7 @@
       </c>
     </row>
     <row r="797" spans="1:5">
-      <c r="A797" s="7">
+      <c r="A797" s="6">
         <v>1992</v>
       </c>
       <c r="B797" s="6">
@@ -13968,7 +13966,7 @@
       </c>
     </row>
     <row r="798" spans="1:5">
-      <c r="A798" s="7">
+      <c r="A798" s="6">
         <v>1992</v>
       </c>
       <c r="B798" s="6">
@@ -13985,7 +13983,7 @@
       </c>
     </row>
     <row r="799" spans="1:5">
-      <c r="A799" s="7">
+      <c r="A799" s="6">
         <v>1993</v>
       </c>
       <c r="B799" s="6">
@@ -14002,7 +14000,7 @@
       </c>
     </row>
     <row r="800" spans="1:5">
-      <c r="A800" s="7">
+      <c r="A800" s="6">
         <v>1993</v>
       </c>
       <c r="B800" s="6">
@@ -14019,7 +14017,7 @@
       </c>
     </row>
     <row r="801" spans="1:5">
-      <c r="A801" s="7">
+      <c r="A801" s="6">
         <v>1993</v>
       </c>
       <c r="B801" s="6">
@@ -14036,7 +14034,7 @@
       </c>
     </row>
     <row r="802" spans="1:5">
-      <c r="A802" s="7">
+      <c r="A802" s="6">
         <v>1993</v>
       </c>
       <c r="B802" s="6">
@@ -14053,7 +14051,7 @@
       </c>
     </row>
     <row r="803" spans="1:5">
-      <c r="A803" s="7">
+      <c r="A803" s="6">
         <v>1993</v>
       </c>
       <c r="B803" s="6">
@@ -14070,7 +14068,7 @@
       </c>
     </row>
     <row r="804" spans="1:5">
-      <c r="A804" s="7">
+      <c r="A804" s="6">
         <v>1993</v>
       </c>
       <c r="B804" s="6">
@@ -14087,7 +14085,7 @@
       </c>
     </row>
     <row r="805" spans="1:5">
-      <c r="A805" s="7">
+      <c r="A805" s="6">
         <v>1993</v>
       </c>
       <c r="B805" s="6">
@@ -14104,7 +14102,7 @@
       </c>
     </row>
     <row r="806" spans="1:5">
-      <c r="A806" s="7">
+      <c r="A806" s="6">
         <v>1993</v>
       </c>
       <c r="B806" s="6">
@@ -14121,7 +14119,7 @@
       </c>
     </row>
     <row r="807" spans="1:5">
-      <c r="A807" s="7">
+      <c r="A807" s="6">
         <v>1993</v>
       </c>
       <c r="B807" s="6">
@@ -14138,7 +14136,7 @@
       </c>
     </row>
     <row r="808" spans="1:5">
-      <c r="A808" s="7">
+      <c r="A808" s="6">
         <v>1993</v>
       </c>
       <c r="B808" s="6">
@@ -14155,7 +14153,7 @@
       </c>
     </row>
     <row r="809" spans="1:5">
-      <c r="A809" s="7">
+      <c r="A809" s="6">
         <v>1993</v>
       </c>
       <c r="B809" s="6">
@@ -14172,7 +14170,7 @@
       </c>
     </row>
     <row r="810" spans="1:5">
-      <c r="A810" s="7">
+      <c r="A810" s="6">
         <v>1993</v>
       </c>
       <c r="B810" s="6">
@@ -14189,7 +14187,7 @@
       </c>
     </row>
     <row r="811" spans="1:5">
-      <c r="A811" s="7">
+      <c r="A811" s="6">
         <v>1994</v>
       </c>
       <c r="B811" s="6">
@@ -14206,7 +14204,7 @@
       </c>
     </row>
     <row r="812" spans="1:5">
-      <c r="A812" s="7">
+      <c r="A812" s="6">
         <v>1994</v>
       </c>
       <c r="B812" s="6">
@@ -14223,7 +14221,7 @@
       </c>
     </row>
     <row r="813" spans="1:5">
-      <c r="A813" s="7">
+      <c r="A813" s="6">
         <v>1994</v>
       </c>
       <c r="B813" s="6">
@@ -14240,7 +14238,7 @@
       </c>
     </row>
     <row r="814" spans="1:5">
-      <c r="A814" s="7">
+      <c r="A814" s="6">
         <v>1994</v>
       </c>
       <c r="B814" s="6">
@@ -14257,7 +14255,7 @@
       </c>
     </row>
     <row r="815" spans="1:5">
-      <c r="A815" s="7">
+      <c r="A815" s="6">
         <v>1994</v>
       </c>
       <c r="B815" s="6">
@@ -14274,7 +14272,7 @@
       </c>
     </row>
     <row r="816" spans="1:5">
-      <c r="A816" s="7">
+      <c r="A816" s="6">
         <v>1994</v>
       </c>
       <c r="B816" s="6">
@@ -14291,7 +14289,7 @@
       </c>
     </row>
     <row r="817" spans="1:5">
-      <c r="A817" s="7">
+      <c r="A817" s="6">
         <v>1994</v>
       </c>
       <c r="B817" s="6">
@@ -14308,7 +14306,7 @@
       </c>
     </row>
     <row r="818" spans="1:5">
-      <c r="A818" s="7">
+      <c r="A818" s="6">
         <v>1994</v>
       </c>
       <c r="B818" s="6">
@@ -14325,7 +14323,7 @@
       </c>
     </row>
     <row r="819" spans="1:5">
-      <c r="A819" s="7">
+      <c r="A819" s="6">
         <v>1994</v>
       </c>
       <c r="B819" s="6">
@@ -14342,7 +14340,7 @@
       </c>
     </row>
     <row r="820" spans="1:5">
-      <c r="A820" s="7">
+      <c r="A820" s="6">
         <v>1994</v>
       </c>
       <c r="B820" s="6">
@@ -14359,7 +14357,7 @@
       </c>
     </row>
     <row r="821" spans="1:5">
-      <c r="A821" s="7">
+      <c r="A821" s="6">
         <v>1994</v>
       </c>
       <c r="B821" s="6">
@@ -14376,7 +14374,7 @@
       </c>
     </row>
     <row r="822" spans="1:5">
-      <c r="A822" s="7">
+      <c r="A822" s="6">
         <v>1994</v>
       </c>
       <c r="B822" s="6">
@@ -14393,7 +14391,7 @@
       </c>
     </row>
     <row r="823" spans="1:5">
-      <c r="A823" s="7">
+      <c r="A823" s="6">
         <v>1995</v>
       </c>
       <c r="B823" s="6">
@@ -14410,7 +14408,7 @@
       </c>
     </row>
     <row r="824" spans="1:5">
-      <c r="A824" s="7">
+      <c r="A824" s="6">
         <v>1995</v>
       </c>
       <c r="B824" s="6">
@@ -14427,7 +14425,7 @@
       </c>
     </row>
     <row r="825" spans="1:5">
-      <c r="A825" s="7">
+      <c r="A825" s="6">
         <v>1995</v>
       </c>
       <c r="B825" s="6">
@@ -14444,7 +14442,7 @@
       </c>
     </row>
     <row r="826" spans="1:5">
-      <c r="A826" s="7">
+      <c r="A826" s="6">
         <v>1995</v>
       </c>
       <c r="B826" s="6">
@@ -14461,7 +14459,7 @@
       </c>
     </row>
     <row r="827" spans="1:5">
-      <c r="A827" s="7">
+      <c r="A827" s="6">
         <v>1995</v>
       </c>
       <c r="B827" s="6">
@@ -14478,7 +14476,7 @@
       </c>
     </row>
     <row r="828" spans="1:5">
-      <c r="A828" s="7">
+      <c r="A828" s="6">
         <v>1995</v>
       </c>
       <c r="B828" s="6">
@@ -14495,7 +14493,7 @@
       </c>
     </row>
     <row r="829" spans="1:5">
-      <c r="A829" s="7">
+      <c r="A829" s="6">
         <v>1995</v>
       </c>
       <c r="B829" s="6">
@@ -14512,7 +14510,7 @@
       </c>
     </row>
     <row r="830" spans="1:5">
-      <c r="A830" s="7">
+      <c r="A830" s="6">
         <v>1995</v>
       </c>
       <c r="B830" s="6">
@@ -14529,7 +14527,7 @@
       </c>
     </row>
     <row r="831" spans="1:5">
-      <c r="A831" s="7">
+      <c r="A831" s="6">
         <v>1995</v>
       </c>
       <c r="B831" s="6">
@@ -14546,7 +14544,7 @@
       </c>
     </row>
     <row r="832" spans="1:5">
-      <c r="A832" s="7">
+      <c r="A832" s="6">
         <v>1995</v>
       </c>
       <c r="B832" s="6">
@@ -14563,7 +14561,7 @@
       </c>
     </row>
     <row r="833" spans="1:5">
-      <c r="A833" s="7">
+      <c r="A833" s="6">
         <v>1995</v>
       </c>
       <c r="B833" s="6">
@@ -14580,7 +14578,7 @@
       </c>
     </row>
     <row r="834" spans="1:5">
-      <c r="A834" s="7">
+      <c r="A834" s="6">
         <v>1995</v>
       </c>
       <c r="B834" s="6">
@@ -14597,7 +14595,7 @@
       </c>
     </row>
     <row r="835" spans="1:5">
-      <c r="A835" s="7">
+      <c r="A835" s="6">
         <v>1996</v>
       </c>
       <c r="B835" s="6">
@@ -14614,7 +14612,7 @@
       </c>
     </row>
     <row r="836" spans="1:5">
-      <c r="A836" s="7">
+      <c r="A836" s="6">
         <v>1996</v>
       </c>
       <c r="B836" s="6">
@@ -14631,7 +14629,7 @@
       </c>
     </row>
     <row r="837" spans="1:5">
-      <c r="A837" s="7">
+      <c r="A837" s="6">
         <v>1996</v>
       </c>
       <c r="B837" s="6">
@@ -14648,7 +14646,7 @@
       </c>
     </row>
     <row r="838" spans="1:5">
-      <c r="A838" s="7">
+      <c r="A838" s="6">
         <v>1996</v>
       </c>
       <c r="B838" s="6">
@@ -14665,7 +14663,7 @@
       </c>
     </row>
     <row r="839" spans="1:5">
-      <c r="A839" s="7">
+      <c r="A839" s="6">
         <v>1996</v>
       </c>
       <c r="B839" s="6">
@@ -14682,7 +14680,7 @@
       </c>
     </row>
     <row r="840" spans="1:5">
-      <c r="A840" s="7">
+      <c r="A840" s="6">
         <v>1996</v>
       </c>
       <c r="B840" s="6">
@@ -14699,7 +14697,7 @@
       </c>
     </row>
     <row r="841" spans="1:5">
-      <c r="A841" s="7">
+      <c r="A841" s="6">
         <v>1996</v>
       </c>
       <c r="B841" s="6">
@@ -14716,7 +14714,7 @@
       </c>
     </row>
     <row r="842" spans="1:5">
-      <c r="A842" s="7">
+      <c r="A842" s="6">
         <v>1996</v>
       </c>
       <c r="B842" s="6">
@@ -14733,7 +14731,7 @@
       </c>
     </row>
     <row r="843" spans="1:5">
-      <c r="A843" s="7">
+      <c r="A843" s="6">
         <v>1996</v>
       </c>
       <c r="B843" s="6">
@@ -14750,7 +14748,7 @@
       </c>
     </row>
     <row r="844" spans="1:5">
-      <c r="A844" s="7">
+      <c r="A844" s="6">
         <v>1996</v>
       </c>
       <c r="B844" s="6">
@@ -14767,7 +14765,7 @@
       </c>
     </row>
     <row r="845" spans="1:5">
-      <c r="A845" s="7">
+      <c r="A845" s="6">
         <v>1996</v>
       </c>
       <c r="B845" s="6">
@@ -14784,7 +14782,7 @@
       </c>
     </row>
     <row r="846" spans="1:5">
-      <c r="A846" s="7">
+      <c r="A846" s="6">
         <v>1996</v>
       </c>
       <c r="B846" s="6">
@@ -14801,7 +14799,7 @@
       </c>
     </row>
     <row r="847" spans="1:5">
-      <c r="A847" s="7">
+      <c r="A847" s="6">
         <v>1997</v>
       </c>
       <c r="B847" s="6">
@@ -14818,7 +14816,7 @@
       </c>
     </row>
     <row r="848" spans="1:5">
-      <c r="A848" s="7">
+      <c r="A848" s="6">
         <v>1997</v>
       </c>
       <c r="B848" s="6">
@@ -14835,7 +14833,7 @@
       </c>
     </row>
     <row r="849" spans="1:5">
-      <c r="A849" s="7">
+      <c r="A849" s="6">
         <v>1997</v>
       </c>
       <c r="B849" s="6">
@@ -14852,7 +14850,7 @@
       </c>
     </row>
     <row r="850" spans="1:5">
-      <c r="A850" s="7">
+      <c r="A850" s="6">
         <v>1997</v>
       </c>
       <c r="B850" s="6">
@@ -14869,7 +14867,7 @@
       </c>
     </row>
     <row r="851" spans="1:5">
-      <c r="A851" s="7">
+      <c r="A851" s="6">
         <v>1997</v>
       </c>
       <c r="B851" s="6">
@@ -14886,7 +14884,7 @@
       </c>
     </row>
     <row r="852" spans="1:5">
-      <c r="A852" s="7">
+      <c r="A852" s="6">
         <v>1997</v>
       </c>
       <c r="B852" s="6">
@@ -14903,7 +14901,7 @@
       </c>
     </row>
     <row r="853" spans="1:5">
-      <c r="A853" s="7">
+      <c r="A853" s="6">
         <v>1997</v>
       </c>
       <c r="B853" s="6">
@@ -14920,7 +14918,7 @@
       </c>
     </row>
     <row r="854" spans="1:5">
-      <c r="A854" s="7">
+      <c r="A854" s="6">
         <v>1997</v>
       </c>
       <c r="B854" s="6">
@@ -14937,7 +14935,7 @@
       </c>
     </row>
     <row r="855" spans="1:5">
-      <c r="A855" s="7">
+      <c r="A855" s="6">
         <v>1997</v>
       </c>
       <c r="B855" s="6">
@@ -14954,7 +14952,7 @@
       </c>
     </row>
     <row r="856" spans="1:5">
-      <c r="A856" s="7">
+      <c r="A856" s="6">
         <v>1997</v>
       </c>
       <c r="B856" s="6">
@@ -14971,7 +14969,7 @@
       </c>
     </row>
     <row r="857" spans="1:5">
-      <c r="A857" s="7">
+      <c r="A857" s="6">
         <v>1997</v>
       </c>
       <c r="B857" s="6">
@@ -14988,7 +14986,7 @@
       </c>
     </row>
     <row r="858" spans="1:5">
-      <c r="A858" s="7">
+      <c r="A858" s="6">
         <v>1997</v>
       </c>
       <c r="B858" s="6">
@@ -15005,7 +15003,7 @@
       </c>
     </row>
     <row r="859" spans="1:5">
-      <c r="A859" s="7">
+      <c r="A859" s="6">
         <v>1998</v>
       </c>
       <c r="B859" s="6">
@@ -15022,7 +15020,7 @@
       </c>
     </row>
     <row r="860" spans="1:5">
-      <c r="A860" s="7">
+      <c r="A860" s="6">
         <v>1998</v>
       </c>
       <c r="B860" s="6">
@@ -15039,7 +15037,7 @@
       </c>
     </row>
     <row r="861" spans="1:5">
-      <c r="A861" s="7">
+      <c r="A861" s="6">
         <v>1998</v>
       </c>
       <c r="B861" s="6">
@@ -15056,7 +15054,7 @@
       </c>
     </row>
     <row r="862" spans="1:5">
-      <c r="A862" s="7">
+      <c r="A862" s="6">
         <v>1998</v>
       </c>
       <c r="B862" s="6">
@@ -15073,7 +15071,7 @@
       </c>
     </row>
     <row r="863" spans="1:5">
-      <c r="A863" s="7">
+      <c r="A863" s="6">
         <v>1998</v>
       </c>
       <c r="B863" s="6">
@@ -15090,7 +15088,7 @@
       </c>
     </row>
     <row r="864" spans="1:5">
-      <c r="A864" s="7">
+      <c r="A864" s="6">
         <v>1998</v>
       </c>
       <c r="B864" s="6">
@@ -15107,7 +15105,7 @@
       </c>
     </row>
     <row r="865" spans="1:5">
-      <c r="A865" s="7">
+      <c r="A865" s="6">
         <v>1998</v>
       </c>
       <c r="B865" s="6">
@@ -15124,7 +15122,7 @@
       </c>
     </row>
     <row r="866" spans="1:5">
-      <c r="A866" s="7">
+      <c r="A866" s="6">
         <v>1998</v>
       </c>
       <c r="B866" s="6">
@@ -15141,7 +15139,7 @@
       </c>
     </row>
     <row r="867" spans="1:5">
-      <c r="A867" s="7">
+      <c r="A867" s="6">
         <v>1998</v>
       </c>
       <c r="B867" s="6">
@@ -15158,7 +15156,7 @@
       </c>
     </row>
     <row r="868" spans="1:5">
-      <c r="A868" s="7">
+      <c r="A868" s="6">
         <v>1998</v>
       </c>
       <c r="B868" s="6">
@@ -15175,7 +15173,7 @@
       </c>
     </row>
     <row r="869" spans="1:5">
-      <c r="A869" s="7">
+      <c r="A869" s="6">
         <v>1998</v>
       </c>
       <c r="B869" s="6">
@@ -15192,7 +15190,7 @@
       </c>
     </row>
     <row r="870" spans="1:5">
-      <c r="A870" s="7">
+      <c r="A870" s="6">
         <v>1998</v>
       </c>
       <c r="B870" s="6">
@@ -15209,7 +15207,7 @@
       </c>
     </row>
     <row r="871" spans="1:5">
-      <c r="A871" s="7">
+      <c r="A871" s="6">
         <v>1999</v>
       </c>
       <c r="B871" s="6">
@@ -15226,7 +15224,7 @@
       </c>
     </row>
     <row r="872" spans="1:5">
-      <c r="A872" s="7">
+      <c r="A872" s="6">
         <v>1999</v>
       </c>
       <c r="B872" s="6">
@@ -15243,7 +15241,7 @@
       </c>
     </row>
     <row r="873" spans="1:5">
-      <c r="A873" s="7">
+      <c r="A873" s="6">
         <v>1999</v>
       </c>
       <c r="B873" s="6">
@@ -15260,7 +15258,7 @@
       </c>
     </row>
     <row r="874" spans="1:5">
-      <c r="A874" s="7">
+      <c r="A874" s="6">
         <v>1999</v>
       </c>
       <c r="B874" s="6">
@@ -15277,7 +15275,7 @@
       </c>
     </row>
     <row r="875" spans="1:5">
-      <c r="A875" s="7">
+      <c r="A875" s="6">
         <v>1999</v>
       </c>
       <c r="B875" s="6">
@@ -15294,7 +15292,7 @@
       </c>
     </row>
     <row r="876" spans="1:5">
-      <c r="A876" s="7">
+      <c r="A876" s="6">
         <v>1999</v>
       </c>
       <c r="B876" s="6">
@@ -15311,7 +15309,7 @@
       </c>
     </row>
     <row r="877" spans="1:5">
-      <c r="A877" s="7">
+      <c r="A877" s="6">
         <v>1999</v>
       </c>
       <c r="B877" s="6">
@@ -15328,7 +15326,7 @@
       </c>
     </row>
     <row r="878" spans="1:5">
-      <c r="A878" s="7">
+      <c r="A878" s="6">
         <v>1999</v>
       </c>
       <c r="B878" s="6">
@@ -15345,7 +15343,7 @@
       </c>
     </row>
     <row r="879" spans="1:5">
-      <c r="A879" s="7">
+      <c r="A879" s="6">
         <v>1999</v>
       </c>
       <c r="B879" s="6">
@@ -15362,7 +15360,7 @@
       </c>
     </row>
     <row r="880" spans="1:5">
-      <c r="A880" s="7">
+      <c r="A880" s="6">
         <v>1999</v>
       </c>
       <c r="B880" s="6">
@@ -15379,7 +15377,7 @@
       </c>
     </row>
     <row r="881" spans="1:5">
-      <c r="A881" s="7">
+      <c r="A881" s="6">
         <v>1999</v>
       </c>
       <c r="B881" s="6">
@@ -15396,7 +15394,7 @@
       </c>
     </row>
     <row r="882" spans="1:5">
-      <c r="A882" s="7">
+      <c r="A882" s="6">
         <v>1999</v>
       </c>
       <c r="B882" s="6">
@@ -15413,7 +15411,7 @@
       </c>
     </row>
     <row r="883" spans="1:5">
-      <c r="A883" s="7">
+      <c r="A883" s="6">
         <v>2000</v>
       </c>
       <c r="B883" s="6">
@@ -15430,7 +15428,7 @@
       </c>
     </row>
     <row r="884" spans="1:5">
-      <c r="A884" s="7">
+      <c r="A884" s="6">
         <v>2000</v>
       </c>
       <c r="B884" s="6">
@@ -15447,7 +15445,7 @@
       </c>
     </row>
     <row r="885" spans="1:5">
-      <c r="A885" s="7">
+      <c r="A885" s="6">
         <v>2000</v>
       </c>
       <c r="B885" s="6">
@@ -15464,7 +15462,7 @@
       </c>
     </row>
     <row r="886" spans="1:5">
-      <c r="A886" s="7">
+      <c r="A886" s="6">
         <v>2000</v>
       </c>
       <c r="B886" s="6">
@@ -15481,7 +15479,7 @@
       </c>
     </row>
     <row r="887" spans="1:5">
-      <c r="A887" s="7">
+      <c r="A887" s="6">
         <v>2000</v>
       </c>
       <c r="B887" s="6">
@@ -15498,7 +15496,7 @@
       </c>
     </row>
     <row r="888" spans="1:5">
-      <c r="A888" s="7">
+      <c r="A888" s="6">
         <v>2000</v>
       </c>
       <c r="B888" s="6">
@@ -15515,7 +15513,7 @@
       </c>
     </row>
     <row r="889" spans="1:5">
-      <c r="A889" s="7">
+      <c r="A889" s="6">
         <v>2000</v>
       </c>
       <c r="B889" s="6">
@@ -15532,7 +15530,7 @@
       </c>
     </row>
     <row r="890" spans="1:5">
-      <c r="A890" s="7">
+      <c r="A890" s="6">
         <v>2000</v>
       </c>
       <c r="B890" s="6">
@@ -15549,7 +15547,7 @@
       </c>
     </row>
     <row r="891" spans="1:5">
-      <c r="A891" s="7">
+      <c r="A891" s="6">
         <v>2000</v>
       </c>
       <c r="B891" s="6">
@@ -15566,7 +15564,7 @@
       </c>
     </row>
     <row r="892" spans="1:5">
-      <c r="A892" s="7">
+      <c r="A892" s="6">
         <v>2000</v>
       </c>
       <c r="B892" s="6">
@@ -15583,7 +15581,7 @@
       </c>
     </row>
     <row r="893" spans="1:5">
-      <c r="A893" s="7">
+      <c r="A893" s="6">
         <v>2000</v>
       </c>
       <c r="B893" s="6">
@@ -15600,7 +15598,7 @@
       </c>
     </row>
     <row r="894" spans="1:5">
-      <c r="A894" s="7">
+      <c r="A894" s="6">
         <v>2000</v>
       </c>
       <c r="B894" s="6">
@@ -15617,7 +15615,7 @@
       </c>
     </row>
     <row r="895" spans="1:5">
-      <c r="A895" s="7">
+      <c r="A895" s="6">
         <v>2001</v>
       </c>
       <c r="B895" s="6">
@@ -15634,7 +15632,7 @@
       </c>
     </row>
     <row r="896" spans="1:5">
-      <c r="A896" s="7">
+      <c r="A896" s="6">
         <v>2001</v>
       </c>
       <c r="B896" s="6">
@@ -15651,7 +15649,7 @@
       </c>
     </row>
     <row r="897" spans="1:5">
-      <c r="A897" s="7">
+      <c r="A897" s="6">
         <v>2001</v>
       </c>
       <c r="B897" s="6">
@@ -15668,7 +15666,7 @@
       </c>
     </row>
     <row r="898" spans="1:5">
-      <c r="A898" s="7">
+      <c r="A898" s="6">
         <v>2001</v>
       </c>
       <c r="B898" s="6">
@@ -15685,7 +15683,7 @@
       </c>
     </row>
     <row r="899" spans="1:5">
-      <c r="A899" s="7">
+      <c r="A899" s="6">
         <v>2001</v>
       </c>
       <c r="B899" s="6">
@@ -15702,7 +15700,7 @@
       </c>
     </row>
     <row r="900" spans="1:5">
-      <c r="A900" s="7">
+      <c r="A900" s="6">
         <v>2001</v>
       </c>
       <c r="B900" s="6">
@@ -15719,7 +15717,7 @@
       </c>
     </row>
     <row r="901" spans="1:5">
-      <c r="A901" s="7">
+      <c r="A901" s="6">
         <v>2001</v>
       </c>
       <c r="B901" s="6">
@@ -15736,7 +15734,7 @@
       </c>
     </row>
     <row r="902" spans="1:5">
-      <c r="A902" s="7">
+      <c r="A902" s="6">
         <v>2001</v>
       </c>
       <c r="B902" s="6">
@@ -15753,7 +15751,7 @@
       </c>
     </row>
     <row r="903" spans="1:5">
-      <c r="A903" s="7">
+      <c r="A903" s="6">
         <v>2001</v>
       </c>
       <c r="B903" s="6">
@@ -15770,7 +15768,7 @@
       </c>
     </row>
     <row r="904" spans="1:5">
-      <c r="A904" s="7">
+      <c r="A904" s="6">
         <v>2001</v>
       </c>
       <c r="B904" s="6">
@@ -15787,7 +15785,7 @@
       </c>
     </row>
     <row r="905" spans="1:5">
-      <c r="A905" s="7">
+      <c r="A905" s="6">
         <v>2001</v>
       </c>
       <c r="B905" s="6">
@@ -15804,7 +15802,7 @@
       </c>
     </row>
     <row r="906" spans="1:5">
-      <c r="A906" s="7">
+      <c r="A906" s="6">
         <v>2001</v>
       </c>
       <c r="B906" s="6">
@@ -15821,7 +15819,7 @@
       </c>
     </row>
     <row r="907" spans="1:5">
-      <c r="A907" s="7">
+      <c r="A907" s="6">
         <v>2002</v>
       </c>
       <c r="B907" s="6">
@@ -15838,7 +15836,7 @@
       </c>
     </row>
     <row r="908" spans="1:5">
-      <c r="A908" s="7">
+      <c r="A908" s="6">
         <v>2002</v>
       </c>
       <c r="B908" s="6">
@@ -15855,7 +15853,7 @@
       </c>
     </row>
     <row r="909" spans="1:5">
-      <c r="A909" s="7">
+      <c r="A909" s="6">
         <v>2002</v>
       </c>
       <c r="B909" s="6">
@@ -15872,7 +15870,7 @@
       </c>
     </row>
     <row r="910" spans="1:5">
-      <c r="A910" s="7">
+      <c r="A910" s="6">
         <v>2002</v>
       </c>
       <c r="B910" s="6">
@@ -15889,7 +15887,7 @@
       </c>
     </row>
     <row r="911" spans="1:5">
-      <c r="A911" s="7">
+      <c r="A911" s="6">
         <v>2002</v>
       </c>
       <c r="B911" s="6">
@@ -15906,7 +15904,7 @@
       </c>
     </row>
     <row r="912" spans="1:5">
-      <c r="A912" s="7">
+      <c r="A912" s="6">
         <v>2002</v>
       </c>
       <c r="B912" s="6">
@@ -15923,7 +15921,7 @@
       </c>
     </row>
     <row r="913" spans="1:5">
-      <c r="A913" s="7">
+      <c r="A913" s="6">
         <v>2002</v>
       </c>
       <c r="B913" s="6">
@@ -15940,7 +15938,7 @@
       </c>
     </row>
     <row r="914" spans="1:5">
-      <c r="A914" s="7">
+      <c r="A914" s="6">
         <v>2002</v>
       </c>
       <c r="B914" s="6">
@@ -15957,7 +15955,7 @@
       </c>
     </row>
     <row r="915" spans="1:5">
-      <c r="A915" s="7">
+      <c r="A915" s="6">
         <v>2002</v>
       </c>
       <c r="B915" s="6">
@@ -15974,7 +15972,7 @@
       </c>
     </row>
     <row r="916" spans="1:5">
-      <c r="A916" s="7">
+      <c r="A916" s="6">
         <v>2002</v>
       </c>
       <c r="B916" s="6">
@@ -15991,7 +15989,7 @@
       </c>
     </row>
     <row r="917" spans="1:5">
-      <c r="A917" s="7">
+      <c r="A917" s="6">
         <v>2002</v>
       </c>
       <c r="B917" s="6">
@@ -16008,7 +16006,7 @@
       </c>
     </row>
     <row r="918" spans="1:5">
-      <c r="A918" s="7">
+      <c r="A918" s="6">
         <v>2002</v>
       </c>
       <c r="B918" s="6">
@@ -16025,7 +16023,7 @@
       </c>
     </row>
     <row r="919" spans="1:5">
-      <c r="A919" s="7">
+      <c r="A919" s="6">
         <v>2003</v>
       </c>
       <c r="B919" s="6">
@@ -16042,7 +16040,7 @@
       </c>
     </row>
     <row r="920" spans="1:5">
-      <c r="A920" s="7">
+      <c r="A920" s="6">
         <v>2003</v>
       </c>
       <c r="B920" s="6">
@@ -16059,7 +16057,7 @@
       </c>
     </row>
     <row r="921" spans="1:5">
-      <c r="A921" s="7">
+      <c r="A921" s="6">
         <v>2003</v>
       </c>
       <c r="B921" s="6">
@@ -16076,7 +16074,7 @@
       </c>
     </row>
     <row r="922" spans="1:5">
-      <c r="A922" s="7">
+      <c r="A922" s="6">
         <v>2003</v>
       </c>
       <c r="B922" s="6">
@@ -16093,7 +16091,7 @@
       </c>
     </row>
     <row r="923" spans="1:5">
-      <c r="A923" s="7">
+      <c r="A923" s="6">
         <v>2003</v>
       </c>
       <c r="B923" s="6">
@@ -16110,7 +16108,7 @@
       </c>
     </row>
     <row r="924" spans="1:5">
-      <c r="A924" s="7">
+      <c r="A924" s="6">
         <v>2003</v>
       </c>
       <c r="B924" s="6">
@@ -16127,7 +16125,7 @@
       </c>
     </row>
     <row r="925" spans="1:5">
-      <c r="A925" s="7">
+      <c r="A925" s="6">
         <v>2003</v>
       </c>
       <c r="B925" s="6">
@@ -16144,7 +16142,7 @@
       </c>
     </row>
     <row r="926" spans="1:5">
-      <c r="A926" s="7">
+      <c r="A926" s="6">
         <v>2003</v>
       </c>
       <c r="B926" s="6">
@@ -16161,7 +16159,7 @@
       </c>
     </row>
     <row r="927" spans="1:5">
-      <c r="A927" s="7">
+      <c r="A927" s="6">
         <v>2003</v>
       </c>
       <c r="B927" s="6">
@@ -16178,7 +16176,7 @@
       </c>
     </row>
     <row r="928" spans="1:5">
-      <c r="A928" s="7">
+      <c r="A928" s="6">
         <v>2003</v>
       </c>
       <c r="B928" s="6">
@@ -16195,7 +16193,7 @@
       </c>
     </row>
     <row r="929" spans="1:5">
-      <c r="A929" s="7">
+      <c r="A929" s="6">
         <v>2003</v>
       </c>
       <c r="B929" s="6">
@@ -16212,7 +16210,7 @@
       </c>
     </row>
     <row r="930" spans="1:5">
-      <c r="A930" s="7">
+      <c r="A930" s="6">
         <v>2003</v>
       </c>
       <c r="B930" s="6">
@@ -16229,7 +16227,7 @@
       </c>
     </row>
     <row r="931" spans="1:5">
-      <c r="A931" s="7">
+      <c r="A931" s="6">
         <v>2004</v>
       </c>
       <c r="B931" s="6">
@@ -16246,7 +16244,7 @@
       </c>
     </row>
     <row r="932" spans="1:5">
-      <c r="A932" s="7">
+      <c r="A932" s="6">
         <v>2004</v>
       </c>
       <c r="B932" s="6">
@@ -16263,7 +16261,7 @@
       </c>
     </row>
     <row r="933" spans="1:5">
-      <c r="A933" s="7">
+      <c r="A933" s="6">
         <v>2004</v>
       </c>
       <c r="B933" s="6">
@@ -16280,7 +16278,7 @@
       </c>
     </row>
     <row r="934" spans="1:5">
-      <c r="A934" s="7">
+      <c r="A934" s="6">
         <v>2004</v>
       </c>
       <c r="B934" s="6">
@@ -16297,7 +16295,7 @@
       </c>
     </row>
     <row r="935" spans="1:5">
-      <c r="A935" s="7">
+      <c r="A935" s="6">
         <v>2004</v>
       </c>
       <c r="B935" s="6">
@@ -16314,7 +16312,7 @@
       </c>
     </row>
     <row r="936" spans="1:5">
-      <c r="A936" s="7">
+      <c r="A936" s="6">
         <v>2004</v>
       </c>
       <c r="B936" s="6">
@@ -16331,7 +16329,7 @@
       </c>
     </row>
     <row r="937" spans="1:5">
-      <c r="A937" s="7">
+      <c r="A937" s="6">
         <v>2004</v>
       </c>
       <c r="B937" s="6">
@@ -16348,7 +16346,7 @@
       </c>
     </row>
     <row r="938" spans="1:5">
-      <c r="A938" s="7">
+      <c r="A938" s="6">
         <v>2004</v>
       </c>
       <c r="B938" s="6">
@@ -16365,7 +16363,7 @@
       </c>
     </row>
     <row r="939" spans="1:5">
-      <c r="A939" s="7">
+      <c r="A939" s="6">
         <v>2004</v>
       </c>
       <c r="B939" s="6">
@@ -16382,7 +16380,7 @@
       </c>
     </row>
     <row r="940" spans="1:5">
-      <c r="A940" s="7">
+      <c r="A940" s="6">
         <v>2004</v>
       </c>
       <c r="B940" s="6">
@@ -16399,7 +16397,7 @@
       </c>
     </row>
     <row r="941" spans="1:5">
-      <c r="A941" s="7">
+      <c r="A941" s="6">
         <v>2004</v>
       </c>
       <c r="B941" s="6">
@@ -16416,7 +16414,7 @@
       </c>
     </row>
     <row r="942" spans="1:5">
-      <c r="A942" s="7">
+      <c r="A942" s="6">
         <v>2004</v>
       </c>
       <c r="B942" s="6">
@@ -16433,7 +16431,7 @@
       </c>
     </row>
     <row r="943" spans="1:5">
-      <c r="A943" s="7">
+      <c r="A943" s="6">
         <v>2005</v>
       </c>
       <c r="B943" s="6">
@@ -16450,7 +16448,7 @@
       </c>
     </row>
     <row r="944" spans="1:5">
-      <c r="A944" s="7">
+      <c r="A944" s="6">
         <v>2005</v>
       </c>
       <c r="B944" s="6">
@@ -16467,7 +16465,7 @@
       </c>
     </row>
     <row r="945" spans="1:5">
-      <c r="A945" s="7">
+      <c r="A945" s="6">
         <v>2005</v>
       </c>
       <c r="B945" s="6">
@@ -16484,7 +16482,7 @@
       </c>
     </row>
     <row r="946" spans="1:5">
-      <c r="A946" s="7">
+      <c r="A946" s="6">
         <v>2005</v>
       </c>
       <c r="B946" s="6">
@@ -16501,7 +16499,7 @@
       </c>
     </row>
     <row r="947" spans="1:5">
-      <c r="A947" s="7">
+      <c r="A947" s="6">
         <v>2005</v>
       </c>
       <c r="B947" s="6">
@@ -16518,7 +16516,7 @@
       </c>
     </row>
     <row r="948" spans="1:5">
-      <c r="A948" s="7">
+      <c r="A948" s="6">
         <v>2005</v>
       </c>
       <c r="B948" s="6">
@@ -16535,7 +16533,7 @@
       </c>
     </row>
     <row r="949" spans="1:5">
-      <c r="A949" s="7">
+      <c r="A949" s="6">
         <v>2005</v>
       </c>
       <c r="B949" s="6">
@@ -16552,7 +16550,7 @@
       </c>
     </row>
     <row r="950" spans="1:5">
-      <c r="A950" s="7">
+      <c r="A950" s="6">
         <v>2005</v>
       </c>
       <c r="B950" s="6">
@@ -16569,7 +16567,7 @@
       </c>
     </row>
     <row r="951" spans="1:5">
-      <c r="A951" s="7">
+      <c r="A951" s="6">
         <v>2005</v>
       </c>
       <c r="B951" s="6">
@@ -16586,7 +16584,7 @@
       </c>
     </row>
     <row r="952" spans="1:5">
-      <c r="A952" s="7">
+      <c r="A952" s="6">
         <v>2005</v>
       </c>
       <c r="B952" s="6">
@@ -16603,7 +16601,7 @@
       </c>
     </row>
     <row r="953" spans="1:5">
-      <c r="A953" s="7">
+      <c r="A953" s="6">
         <v>2005</v>
       </c>
       <c r="B953" s="6">
@@ -16620,7 +16618,7 @@
       </c>
     </row>
     <row r="954" spans="1:5">
-      <c r="A954" s="7">
+      <c r="A954" s="6">
         <v>2005</v>
       </c>
       <c r="B954" s="6">
@@ -16637,7 +16635,7 @@
       </c>
     </row>
     <row r="955" spans="1:5">
-      <c r="A955" s="7">
+      <c r="A955" s="6">
         <v>2006</v>
       </c>
       <c r="B955" s="6">
@@ -16654,7 +16652,7 @@
       </c>
     </row>
     <row r="956" spans="1:5">
-      <c r="A956" s="7">
+      <c r="A956" s="6">
         <v>2006</v>
       </c>
       <c r="B956" s="6">
@@ -16671,7 +16669,7 @@
       </c>
     </row>
     <row r="957" spans="1:5">
-      <c r="A957" s="7">
+      <c r="A957" s="6">
         <v>2006</v>
       </c>
       <c r="B957" s="6">
@@ -16688,7 +16686,7 @@
       </c>
     </row>
     <row r="958" spans="1:5">
-      <c r="A958" s="7">
+      <c r="A958" s="6">
         <v>2006</v>
       </c>
       <c r="B958" s="6">
@@ -16705,7 +16703,7 @@
       </c>
     </row>
     <row r="959" spans="1:5">
-      <c r="A959" s="7">
+      <c r="A959" s="6">
         <v>2006</v>
       </c>
       <c r="B959" s="6">
@@ -16722,7 +16720,7 @@
       </c>
     </row>
     <row r="960" spans="1:5">
-      <c r="A960" s="7">
+      <c r="A960" s="6">
         <v>2006</v>
       </c>
       <c r="B960" s="6">
@@ -16739,7 +16737,7 @@
       </c>
     </row>
     <row r="961" spans="1:5">
-      <c r="A961" s="7">
+      <c r="A961" s="6">
         <v>2006</v>
       </c>
       <c r="B961" s="6">
@@ -16756,7 +16754,7 @@
       </c>
     </row>
     <row r="962" spans="1:5">
-      <c r="A962" s="7">
+      <c r="A962" s="6">
         <v>2006</v>
       </c>
       <c r="B962" s="6">
@@ -16773,7 +16771,7 @@
       </c>
     </row>
     <row r="963" spans="1:5">
-      <c r="A963" s="7">
+      <c r="A963" s="6">
         <v>2006</v>
       </c>
       <c r="B963" s="6">
@@ -16790,7 +16788,7 @@
       </c>
     </row>
     <row r="964" spans="1:5">
-      <c r="A964" s="7">
+      <c r="A964" s="6">
         <v>2006</v>
       </c>
       <c r="B964" s="6">
@@ -16807,7 +16805,7 @@
       </c>
     </row>
     <row r="965" spans="1:5">
-      <c r="A965" s="7">
+      <c r="A965" s="6">
         <v>2006</v>
       </c>
       <c r="B965" s="6">
@@ -16824,7 +16822,7 @@
       </c>
     </row>
     <row r="966" spans="1:5">
-      <c r="A966" s="7">
+      <c r="A966" s="6">
         <v>2006</v>
       </c>
       <c r="B966" s="6">
@@ -16841,7 +16839,7 @@
       </c>
     </row>
     <row r="967" spans="1:5">
-      <c r="A967" s="7">
+      <c r="A967" s="6">
         <v>2007</v>
       </c>
       <c r="B967" s="6">
@@ -16858,7 +16856,7 @@
       </c>
     </row>
     <row r="968" spans="1:5">
-      <c r="A968" s="7">
+      <c r="A968" s="6">
         <v>2007</v>
       </c>
       <c r="B968" s="6">
@@ -16875,7 +16873,7 @@
       </c>
     </row>
     <row r="969" spans="1:5">
-      <c r="A969" s="7">
+      <c r="A969" s="6">
         <v>2007</v>
       </c>
       <c r="B969" s="6">
@@ -16892,7 +16890,7 @@
       </c>
     </row>
     <row r="970" spans="1:5">
-      <c r="A970" s="7">
+      <c r="A970" s="6">
         <v>2007</v>
       </c>
       <c r="B970" s="6">
@@ -16909,7 +16907,7 @@
       </c>
     </row>
     <row r="971" spans="1:5">
-      <c r="A971" s="7">
+      <c r="A971" s="6">
         <v>2007</v>
       </c>
       <c r="B971" s="6">
@@ -16926,7 +16924,7 @@
       </c>
     </row>
     <row r="972" spans="1:5">
-      <c r="A972" s="7">
+      <c r="A972" s="6">
         <v>2007</v>
       </c>
       <c r="B972" s="6">
@@ -16943,7 +16941,7 @@
       </c>
     </row>
     <row r="973" spans="1:5">
-      <c r="A973" s="7">
+      <c r="A973" s="6">
         <v>2007</v>
       </c>
       <c r="B973" s="6">
@@ -16960,7 +16958,7 @@
       </c>
     </row>
     <row r="974" spans="1:5">
-      <c r="A974" s="7">
+      <c r="A974" s="6">
         <v>2007</v>
       </c>
       <c r="B974" s="6">
@@ -16977,7 +16975,7 @@
       </c>
     </row>
     <row r="975" spans="1:5">
-      <c r="A975" s="7">
+      <c r="A975" s="6">
         <v>2007</v>
       </c>
       <c r="B975" s="6">
@@ -16994,7 +16992,7 @@
       </c>
     </row>
     <row r="976" spans="1:5">
-      <c r="A976" s="7">
+      <c r="A976" s="6">
         <v>2007</v>
       </c>
       <c r="B976" s="6">
@@ -17011,7 +17009,7 @@
       </c>
     </row>
     <row r="977" spans="1:5">
-      <c r="A977" s="7">
+      <c r="A977" s="6">
         <v>2007</v>
       </c>
       <c r="B977" s="6">
@@ -17028,7 +17026,7 @@
       </c>
     </row>
     <row r="978" spans="1:5">
-      <c r="A978" s="7">
+      <c r="A978" s="6">
         <v>2007</v>
       </c>
       <c r="B978" s="6">
@@ -17045,7 +17043,7 @@
       </c>
     </row>
     <row r="979" spans="1:5">
-      <c r="A979" s="7">
+      <c r="A979" s="6">
         <v>2008</v>
       </c>
       <c r="B979" s="6">
@@ -17062,7 +17060,7 @@
       </c>
     </row>
     <row r="980" spans="1:5">
-      <c r="A980" s="7">
+      <c r="A980" s="6">
         <v>2008</v>
       </c>
       <c r="B980" s="6">
@@ -17079,7 +17077,7 @@
       </c>
     </row>
     <row r="981" spans="1:5">
-      <c r="A981" s="7">
+      <c r="A981" s="6">
         <v>2008</v>
       </c>
       <c r="B981" s="6">
@@ -17096,7 +17094,7 @@
       </c>
     </row>
     <row r="982" spans="1:5">
-      <c r="A982" s="7">
+      <c r="A982" s="6">
         <v>2008</v>
       </c>
       <c r="B982" s="6">
@@ -17113,7 +17111,7 @@
       </c>
     </row>
     <row r="983" spans="1:5">
-      <c r="A983" s="7">
+      <c r="A983" s="6">
         <v>2008</v>
       </c>
       <c r="B983" s="6">
@@ -17130,7 +17128,7 @@
       </c>
     </row>
     <row r="984" spans="1:5">
-      <c r="A984" s="7">
+      <c r="A984" s="6">
         <v>2008</v>
       </c>
       <c r="B984" s="6">
@@ -17147,7 +17145,7 @@
       </c>
     </row>
     <row r="985" spans="1:5">
-      <c r="A985" s="7">
+      <c r="A985" s="6">
         <v>2008</v>
       </c>
       <c r="B985" s="6">
@@ -17164,7 +17162,7 @@
       </c>
     </row>
     <row r="986" spans="1:5">
-      <c r="A986" s="7">
+      <c r="A986" s="6">
         <v>2008</v>
       </c>
       <c r="B986" s="6">
@@ -17181,7 +17179,7 @@
       </c>
     </row>
     <row r="987" spans="1:5">
-      <c r="A987" s="7">
+      <c r="A987" s="6">
         <v>2008</v>
       </c>
       <c r="B987" s="6">
@@ -17198,7 +17196,7 @@
       </c>
     </row>
     <row r="988" spans="1:5">
-      <c r="A988" s="7">
+      <c r="A988" s="6">
         <v>2008</v>
       </c>
       <c r="B988" s="6">
@@ -17215,7 +17213,7 @@
       </c>
     </row>
     <row r="989" spans="1:5">
-      <c r="A989" s="7">
+      <c r="A989" s="6">
         <v>2008</v>
       </c>
       <c r="B989" s="6">
@@ -17232,7 +17230,7 @@
       </c>
     </row>
     <row r="990" spans="1:5">
-      <c r="A990" s="7">
+      <c r="A990" s="6">
         <v>2008</v>
       </c>
       <c r="B990" s="6">
@@ -17249,7 +17247,7 @@
       </c>
     </row>
     <row r="991" spans="1:5">
-      <c r="A991" s="7">
+      <c r="A991" s="6">
         <v>2009</v>
       </c>
       <c r="B991" s="6">
@@ -17266,7 +17264,7 @@
       </c>
     </row>
     <row r="992" spans="1:5">
-      <c r="A992" s="7">
+      <c r="A992" s="6">
         <v>2009</v>
       </c>
       <c r="B992" s="6">
@@ -17283,7 +17281,7 @@
       </c>
     </row>
     <row r="993" spans="1:5">
-      <c r="A993" s="7">
+      <c r="A993" s="6">
         <v>2009</v>
       </c>
       <c r="B993" s="6">
@@ -17300,7 +17298,7 @@
       </c>
     </row>
     <row r="994" spans="1:5">
-      <c r="A994" s="7">
+      <c r="A994" s="6">
         <v>2009</v>
       </c>
       <c r="B994" s="6">
@@ -17317,7 +17315,7 @@
       </c>
     </row>
     <row r="995" spans="1:5">
-      <c r="A995" s="7">
+      <c r="A995" s="6">
         <v>2009</v>
       </c>
       <c r="B995" s="6">
@@ -17334,7 +17332,7 @@
       </c>
     </row>
     <row r="996" spans="1:5">
-      <c r="A996" s="7">
+      <c r="A996" s="6">
         <v>2009</v>
       </c>
       <c r="B996" s="6">
@@ -17351,7 +17349,7 @@
       </c>
     </row>
     <row r="997" spans="1:5">
-      <c r="A997" s="7">
+      <c r="A997" s="6">
         <v>2009</v>
       </c>
       <c r="B997" s="6">
@@ -17368,7 +17366,7 @@
       </c>
     </row>
     <row r="998" spans="1:5">
-      <c r="A998" s="7">
+      <c r="A998" s="6">
         <v>2009</v>
       </c>
       <c r="B998" s="6">
@@ -17385,7 +17383,7 @@
       </c>
     </row>
     <row r="999" spans="1:5">
-      <c r="A999" s="7">
+      <c r="A999" s="6">
         <v>2009</v>
       </c>
       <c r="B999" s="6">
@@ -17402,7 +17400,7 @@
       </c>
     </row>
     <row r="1000" spans="1:5">
-      <c r="A1000" s="7">
+      <c r="A1000" s="6">
         <v>2009</v>
       </c>
       <c r="B1000" s="6">
@@ -17419,7 +17417,7 @@
       </c>
     </row>
     <row r="1001" spans="1:5">
-      <c r="A1001" s="7">
+      <c r="A1001" s="6">
         <v>2009</v>
       </c>
       <c r="B1001" s="6">
@@ -17436,7 +17434,7 @@
       </c>
     </row>
     <row r="1002" spans="1:5">
-      <c r="A1002" s="7">
+      <c r="A1002" s="6">
         <v>2009</v>
       </c>
       <c r="B1002" s="6">
@@ -17453,7 +17451,7 @@
       </c>
     </row>
     <row r="1003" spans="1:5">
-      <c r="A1003" s="7">
+      <c r="A1003" s="6">
         <v>2010</v>
       </c>
       <c r="B1003" s="6">
@@ -17470,7 +17468,7 @@
       </c>
     </row>
     <row r="1004" spans="1:5">
-      <c r="A1004" s="7">
+      <c r="A1004" s="6">
         <v>2010</v>
       </c>
       <c r="B1004" s="6">
@@ -17487,7 +17485,7 @@
       </c>
     </row>
     <row r="1005" spans="1:5">
-      <c r="A1005" s="7">
+      <c r="A1005" s="6">
         <v>2010</v>
       </c>
       <c r="B1005" s="6">
@@ -17504,7 +17502,7 @@
       </c>
     </row>
     <row r="1006" spans="1:5">
-      <c r="A1006" s="7">
+      <c r="A1006" s="6">
         <v>2010</v>
       </c>
       <c r="B1006" s="6">
@@ -17521,7 +17519,7 @@
       </c>
     </row>
     <row r="1007" spans="1:5">
-      <c r="A1007" s="7">
+      <c r="A1007" s="6">
         <v>2010</v>
       </c>
       <c r="B1007" s="6">
@@ -17538,7 +17536,7 @@
       </c>
     </row>
     <row r="1008" spans="1:5">
-      <c r="A1008" s="7">
+      <c r="A1008" s="6">
         <v>2010</v>
       </c>
       <c r="B1008" s="6">
@@ -17555,7 +17553,7 @@
       </c>
     </row>
     <row r="1009" spans="1:5">
-      <c r="A1009" s="7">
+      <c r="A1009" s="6">
         <v>2010</v>
       </c>
       <c r="B1009" s="6">
@@ -17572,7 +17570,7 @@
       </c>
     </row>
     <row r="1010" spans="1:5">
-      <c r="A1010" s="7">
+      <c r="A1010" s="6">
         <v>2010</v>
       </c>
       <c r="B1010" s="6">
@@ -17589,7 +17587,7 @@
       </c>
     </row>
     <row r="1011" spans="1:5">
-      <c r="A1011" s="7">
+      <c r="A1011" s="6">
         <v>2010</v>
       </c>
       <c r="B1011" s="6">
@@ -17606,7 +17604,7 @@
       </c>
     </row>
     <row r="1012" spans="1:5">
-      <c r="A1012" s="7">
+      <c r="A1012" s="6">
         <v>2010</v>
       </c>
       <c r="B1012" s="6">
@@ -17623,7 +17621,7 @@
       </c>
     </row>
     <row r="1013" spans="1:5">
-      <c r="A1013" s="7">
+      <c r="A1013" s="6">
         <v>2010</v>
       </c>
       <c r="B1013" s="6">
@@ -17640,7 +17638,7 @@
       </c>
     </row>
     <row r="1014" spans="1:5">
-      <c r="A1014" s="7">
+      <c r="A1014" s="6">
         <v>2010</v>
       </c>
       <c r="B1014" s="6">
@@ -17657,7 +17655,7 @@
       </c>
     </row>
     <row r="1015" spans="1:5">
-      <c r="A1015" s="7">
+      <c r="A1015" s="6">
         <v>2011</v>
       </c>
       <c r="B1015" s="6">
@@ -17674,7 +17672,7 @@
       </c>
     </row>
     <row r="1016" spans="1:5">
-      <c r="A1016" s="7">
+      <c r="A1016" s="6">
         <v>2011</v>
       </c>
       <c r="B1016" s="6">
@@ -17691,7 +17689,7 @@
       </c>
     </row>
     <row r="1017" spans="1:5">
-      <c r="A1017" s="7">
+      <c r="A1017" s="6">
         <v>2011</v>
       </c>
       <c r="B1017" s="6">
@@ -17708,7 +17706,7 @@
       </c>
     </row>
     <row r="1018" spans="1:5">
-      <c r="A1018" s="7">
+      <c r="A1018" s="6">
         <v>2011</v>
       </c>
       <c r="B1018" s="6">
@@ -17725,7 +17723,7 @@
       </c>
     </row>
     <row r="1019" spans="1:5">
-      <c r="A1019" s="7">
+      <c r="A1019" s="6">
         <v>2011</v>
       </c>
       <c r="B1019" s="6">
@@ -17742,7 +17740,7 @@
       </c>
     </row>
     <row r="1020" spans="1:5">
-      <c r="A1020" s="7">
+      <c r="A1020" s="6">
         <v>2011</v>
       </c>
       <c r="B1020" s="6">
@@ -17759,7 +17757,7 @@
       </c>
     </row>
     <row r="1021" spans="1:5">
-      <c r="A1021" s="7">
+      <c r="A1021" s="6">
         <v>2011</v>
       </c>
       <c r="B1021" s="6">
@@ -17776,7 +17774,7 @@
       </c>
     </row>
     <row r="1022" spans="1:5">
-      <c r="A1022" s="7">
+      <c r="A1022" s="6">
         <v>2011</v>
       </c>
       <c r="B1022" s="6">
@@ -17793,7 +17791,7 @@
       </c>
     </row>
     <row r="1023" spans="1:5">
-      <c r="A1023" s="7">
+      <c r="A1023" s="6">
         <v>2011</v>
       </c>
       <c r="B1023" s="6">
@@ -17810,7 +17808,7 @@
       </c>
     </row>
     <row r="1024" spans="1:5">
-      <c r="A1024" s="7">
+      <c r="A1024" s="6">
         <v>2011</v>
       </c>
       <c r="B1024" s="6">
@@ -17827,7 +17825,7 @@
       </c>
     </row>
     <row r="1025" spans="1:5">
-      <c r="A1025" s="7">
+      <c r="A1025" s="6">
         <v>2011</v>
       </c>
       <c r="B1025" s="6">
@@ -17844,7 +17842,7 @@
       </c>
     </row>
     <row r="1026" spans="1:5">
-      <c r="A1026" s="7">
+      <c r="A1026" s="6">
         <v>2011</v>
       </c>
       <c r="B1026" s="6">
@@ -17861,7 +17859,7 @@
       </c>
     </row>
     <row r="1027" spans="1:5">
-      <c r="A1027" s="7">
+      <c r="A1027" s="6">
         <v>2012</v>
       </c>
       <c r="B1027" s="6">
@@ -17878,7 +17876,7 @@
       </c>
     </row>
     <row r="1028" spans="1:5">
-      <c r="A1028" s="7">
+      <c r="A1028" s="6">
         <v>2012</v>
       </c>
       <c r="B1028" s="6">
@@ -17895,7 +17893,7 @@
       </c>
     </row>
     <row r="1029" spans="1:5">
-      <c r="A1029" s="7">
+      <c r="A1029" s="6">
         <v>2012</v>
       </c>
       <c r="B1029" s="6">
@@ -17912,7 +17910,7 @@
       </c>
     </row>
     <row r="1030" spans="1:5">
-      <c r="A1030" s="7">
+      <c r="A1030" s="6">
         <v>2012</v>
       </c>
       <c r="B1030" s="6">
@@ -17929,7 +17927,7 @@
       </c>
     </row>
     <row r="1031" spans="1:5">
-      <c r="A1031" s="7">
+      <c r="A1031" s="6">
         <v>2012</v>
       </c>
       <c r="B1031" s="6">
@@ -17946,7 +17944,7 @@
       </c>
     </row>
     <row r="1032" spans="1:5">
-      <c r="A1032" s="7">
+      <c r="A1032" s="6">
         <v>2012</v>
       </c>
       <c r="B1032" s="6">
@@ -17963,7 +17961,7 @@
       </c>
     </row>
     <row r="1033" spans="1:5">
-      <c r="A1033" s="7">
+      <c r="A1033" s="6">
         <v>2012</v>
       </c>
       <c r="B1033" s="6">
@@ -17980,7 +17978,7 @@
       </c>
     </row>
     <row r="1034" spans="1:5">
-      <c r="A1034" s="7">
+      <c r="A1034" s="6">
         <v>2012</v>
       </c>
       <c r="B1034" s="6">
@@ -17997,7 +17995,7 @@
       </c>
     </row>
     <row r="1035" spans="1:5">
-      <c r="A1035" s="7">
+      <c r="A1035" s="6">
         <v>2012</v>
       </c>
       <c r="B1035" s="6">
@@ -18014,7 +18012,7 @@
       </c>
     </row>
     <row r="1036" spans="1:5">
-      <c r="A1036" s="7">
+      <c r="A1036" s="6">
         <v>2012</v>
       </c>
       <c r="B1036" s="6">
@@ -18031,7 +18029,7 @@
       </c>
     </row>
     <row r="1037" spans="1:5">
-      <c r="A1037" s="7">
+      <c r="A1037" s="6">
         <v>2012</v>
       </c>
       <c r="B1037" s="6">
@@ -18048,7 +18046,7 @@
       </c>
     </row>
     <row r="1038" spans="1:5">
-      <c r="A1038" s="7">
+      <c r="A1038" s="6">
         <v>2012</v>
       </c>
       <c r="B1038" s="6">
@@ -18065,7 +18063,7 @@
       </c>
     </row>
     <row r="1039" spans="1:5">
-      <c r="A1039" s="7">
+      <c r="A1039" s="6">
         <v>2013</v>
       </c>
       <c r="B1039" s="6">
@@ -18082,7 +18080,7 @@
       </c>
     </row>
     <row r="1040" spans="1:5">
-      <c r="A1040" s="7">
+      <c r="A1040" s="6">
         <v>2013</v>
       </c>
       <c r="B1040" s="6">
@@ -18099,7 +18097,7 @@
       </c>
     </row>
     <row r="1041" spans="1:5">
-      <c r="A1041" s="7">
+      <c r="A1041" s="6">
         <v>2013</v>
       </c>
       <c r="B1041" s="6">
@@ -18116,7 +18114,7 @@
       </c>
     </row>
     <row r="1042" spans="1:5">
-      <c r="A1042" s="7">
+      <c r="A1042" s="6">
         <v>2013</v>
       </c>
       <c r="B1042" s="6">
@@ -18133,7 +18131,7 @@
       </c>
     </row>
     <row r="1043" spans="1:5">
-      <c r="A1043" s="7">
+      <c r="A1043" s="6">
         <v>2013</v>
       </c>
       <c r="B1043" s="6">
@@ -18150,7 +18148,7 @@
       </c>
     </row>
     <row r="1044" spans="1:5">
-      <c r="A1044" s="7">
+      <c r="A1044" s="6">
         <v>2013</v>
       </c>
       <c r="B1044" s="6">
@@ -18167,7 +18165,7 @@
       </c>
     </row>
     <row r="1045" spans="1:5">
-      <c r="A1045" s="7">
+      <c r="A1045" s="6">
         <v>2013</v>
       </c>
       <c r="B1045" s="6">
@@ -18184,7 +18182,7 @@
       </c>
     </row>
     <row r="1046" spans="1:5">
-      <c r="A1046" s="7">
+      <c r="A1046" s="6">
         <v>2013</v>
       </c>
       <c r="B1046" s="6">
@@ -18201,7 +18199,7 @@
       </c>
     </row>
     <row r="1047" spans="1:5">
-      <c r="A1047" s="7">
+      <c r="A1047" s="6">
         <v>2013</v>
       </c>
       <c r="B1047" s="6">
@@ -18218,7 +18216,7 @@
       </c>
     </row>
     <row r="1048" spans="1:5">
-      <c r="A1048" s="7">
+      <c r="A1048" s="6">
         <v>2013</v>
       </c>
       <c r="B1048" s="6">
@@ -18235,7 +18233,7 @@
       </c>
     </row>
     <row r="1049" spans="1:5">
-      <c r="A1049" s="7">
+      <c r="A1049" s="6">
         <v>2013</v>
       </c>
       <c r="B1049" s="6">
@@ -18252,7 +18250,7 @@
       </c>
     </row>
     <row r="1050" spans="1:5">
-      <c r="A1050" s="7">
+      <c r="A1050" s="6">
         <v>2013</v>
       </c>
       <c r="B1050" s="6">
@@ -18269,7 +18267,7 @@
       </c>
     </row>
     <row r="1051" spans="1:5">
-      <c r="A1051" s="7">
+      <c r="A1051" s="6">
         <v>2014</v>
       </c>
       <c r="B1051" s="6">
@@ -18286,7 +18284,7 @@
       </c>
     </row>
     <row r="1052" spans="1:5">
-      <c r="A1052" s="7">
+      <c r="A1052" s="6">
         <v>2014</v>
       </c>
       <c r="B1052" s="6">
@@ -18303,7 +18301,7 @@
       </c>
     </row>
     <row r="1053" spans="1:5">
-      <c r="A1053" s="7">
+      <c r="A1053" s="6">
         <v>2014</v>
       </c>
       <c r="B1053" s="6">
@@ -18320,7 +18318,7 @@
       </c>
     </row>
     <row r="1054" spans="1:5">
-      <c r="A1054" s="7">
+      <c r="A1054" s="6">
         <v>2014</v>
       </c>
       <c r="B1054" s="6">
